--- a/data/trans_orig/P15A-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P15A-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{61FE83D9-DD56-48F3-9116-6C413B30440A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{7DB5ADC7-D96A-4194-A40A-2F4EB6FF5152}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{24967567-A9F0-4A20-815E-BA81FE60F051}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{3B59B7A1-6F64-4BEA-990E-F390EB717F96}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="948" uniqueCount="514">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="948" uniqueCount="508">
   <si>
     <t>Población que ha tenido un accidente en los últimos tres meses que le ha causado heridas o lesiones suficientes para limitar su actividad normal y/o para necesitar asistencia sanitaria en 2007 (Tasa respuesta: 6,24%)</t>
   </si>
@@ -77,28 +77,28 @@
     <t>63,51%</t>
   </si>
   <si>
-    <t>48,22%</t>
-  </si>
-  <si>
-    <t>75,32%</t>
+    <t>50,72%</t>
+  </si>
+  <si>
+    <t>75,14%</t>
   </si>
   <si>
     <t>47,12%</t>
   </si>
   <si>
-    <t>27,27%</t>
-  </si>
-  <si>
-    <t>66,39%</t>
+    <t>28,52%</t>
+  </si>
+  <si>
+    <t>69,67%</t>
   </si>
   <si>
     <t>58,64%</t>
   </si>
   <si>
-    <t>47,64%</t>
-  </si>
-  <si>
-    <t>68,86%</t>
+    <t>47,77%</t>
+  </si>
+  <si>
+    <t>69,59%</t>
   </si>
   <si>
     <t>No</t>
@@ -107,28 +107,28 @@
     <t>36,49%</t>
   </si>
   <si>
-    <t>24,68%</t>
-  </si>
-  <si>
-    <t>51,78%</t>
+    <t>24,86%</t>
+  </si>
+  <si>
+    <t>49,28%</t>
   </si>
   <si>
     <t>52,88%</t>
   </si>
   <si>
-    <t>33,61%</t>
-  </si>
-  <si>
-    <t>72,73%</t>
+    <t>30,33%</t>
+  </si>
+  <si>
+    <t>71,48%</t>
   </si>
   <si>
     <t>41,36%</t>
   </si>
   <si>
-    <t>31,14%</t>
-  </si>
-  <si>
-    <t>52,36%</t>
+    <t>30,41%</t>
+  </si>
+  <si>
+    <t>52,23%</t>
   </si>
   <si>
     <t>100%</t>
@@ -140,55 +140,55 @@
     <t>54,15%</t>
   </si>
   <si>
-    <t>42,0%</t>
-  </si>
-  <si>
-    <t>67,08%</t>
+    <t>41,7%</t>
+  </si>
+  <si>
+    <t>66,13%</t>
   </si>
   <si>
     <t>52,6%</t>
   </si>
   <si>
-    <t>35,43%</t>
-  </si>
-  <si>
-    <t>68,66%</t>
+    <t>35,49%</t>
+  </si>
+  <si>
+    <t>69,04%</t>
   </si>
   <si>
     <t>53,6%</t>
   </si>
   <si>
-    <t>42,7%</t>
-  </si>
-  <si>
-    <t>63,77%</t>
+    <t>43,48%</t>
+  </si>
+  <si>
+    <t>63,94%</t>
   </si>
   <si>
     <t>45,85%</t>
   </si>
   <si>
-    <t>32,92%</t>
-  </si>
-  <si>
-    <t>58,0%</t>
+    <t>33,87%</t>
+  </si>
+  <si>
+    <t>58,3%</t>
   </si>
   <si>
     <t>47,4%</t>
   </si>
   <si>
-    <t>31,34%</t>
-  </si>
-  <si>
-    <t>64,57%</t>
+    <t>30,96%</t>
+  </si>
+  <si>
+    <t>64,51%</t>
   </si>
   <si>
     <t>46,4%</t>
   </si>
   <si>
-    <t>36,23%</t>
-  </si>
-  <si>
-    <t>57,3%</t>
+    <t>36,06%</t>
+  </si>
+  <si>
+    <t>56,52%</t>
   </si>
   <si>
     <t>35/44</t>
@@ -197,163 +197,169 @@
     <t>32,54%</t>
   </si>
   <si>
-    <t>20,29%</t>
-  </si>
-  <si>
-    <t>48,78%</t>
+    <t>19,64%</t>
+  </si>
+  <si>
+    <t>46,88%</t>
   </si>
   <si>
     <t>66,56%</t>
   </si>
   <si>
-    <t>44,82%</t>
-  </si>
-  <si>
-    <t>85,55%</t>
+    <t>44,51%</t>
+  </si>
+  <si>
+    <t>85,28%</t>
   </si>
   <si>
     <t>42,92%</t>
   </si>
   <si>
-    <t>30,61%</t>
+    <t>31,21%</t>
+  </si>
+  <si>
+    <t>56,06%</t>
+  </si>
+  <si>
+    <t>67,46%</t>
+  </si>
+  <si>
+    <t>53,12%</t>
+  </si>
+  <si>
+    <t>80,36%</t>
+  </si>
+  <si>
+    <t>33,44%</t>
+  </si>
+  <si>
+    <t>14,72%</t>
+  </si>
+  <si>
+    <t>55,49%</t>
+  </si>
+  <si>
+    <t>57,08%</t>
+  </si>
+  <si>
+    <t>43,94%</t>
+  </si>
+  <si>
+    <t>68,79%</t>
+  </si>
+  <si>
+    <t>45/54</t>
+  </si>
+  <si>
+    <t>47,49%</t>
+  </si>
+  <si>
+    <t>32,1%</t>
+  </si>
+  <si>
+    <t>65,69%</t>
+  </si>
+  <si>
+    <t>48,6%</t>
+  </si>
+  <si>
+    <t>25,82%</t>
+  </si>
+  <si>
+    <t>70,53%</t>
+  </si>
+  <si>
+    <t>47,85%</t>
+  </si>
+  <si>
+    <t>34,72%</t>
+  </si>
+  <si>
+    <t>61,64%</t>
+  </si>
+  <si>
+    <t>52,51%</t>
+  </si>
+  <si>
+    <t>34,31%</t>
+  </si>
+  <si>
+    <t>67,9%</t>
+  </si>
+  <si>
+    <t>51,4%</t>
+  </si>
+  <si>
+    <t>29,47%</t>
+  </si>
+  <si>
+    <t>74,18%</t>
+  </si>
+  <si>
+    <t>52,15%</t>
+  </si>
+  <si>
+    <t>38,36%</t>
+  </si>
+  <si>
+    <t>65,28%</t>
+  </si>
+  <si>
+    <t>55/64</t>
+  </si>
+  <si>
+    <t>49,75%</t>
+  </si>
+  <si>
+    <t>24,93%</t>
+  </si>
+  <si>
+    <t>71,39%</t>
   </si>
   <si>
     <t>55,44%</t>
   </si>
   <si>
-    <t>67,46%</t>
-  </si>
-  <si>
-    <t>51,22%</t>
-  </si>
-  <si>
-    <t>79,71%</t>
-  </si>
-  <si>
-    <t>33,44%</t>
-  </si>
-  <si>
-    <t>14,45%</t>
-  </si>
-  <si>
-    <t>55,18%</t>
-  </si>
-  <si>
-    <t>57,08%</t>
+    <t>31,44%</t>
+  </si>
+  <si>
+    <t>77,08%</t>
+  </si>
+  <si>
+    <t>52,52%</t>
+  </si>
+  <si>
+    <t>35,96%</t>
+  </si>
+  <si>
+    <t>68,96%</t>
+  </si>
+  <si>
+    <t>50,25%</t>
+  </si>
+  <si>
+    <t>28,61%</t>
+  </si>
+  <si>
+    <t>75,07%</t>
   </si>
   <si>
     <t>44,56%</t>
   </si>
   <si>
-    <t>69,39%</t>
-  </si>
-  <si>
-    <t>45/54</t>
-  </si>
-  <si>
-    <t>47,49%</t>
-  </si>
-  <si>
-    <t>30,72%</t>
-  </si>
-  <si>
-    <t>63,27%</t>
-  </si>
-  <si>
-    <t>48,6%</t>
-  </si>
-  <si>
-    <t>27,0%</t>
-  </si>
-  <si>
-    <t>71,74%</t>
-  </si>
-  <si>
-    <t>47,85%</t>
-  </si>
-  <si>
-    <t>34,39%</t>
-  </si>
-  <si>
-    <t>59,89%</t>
-  </si>
-  <si>
-    <t>52,51%</t>
-  </si>
-  <si>
-    <t>36,73%</t>
-  </si>
-  <si>
-    <t>69,28%</t>
-  </si>
-  <si>
-    <t>51,4%</t>
-  </si>
-  <si>
-    <t>28,26%</t>
-  </si>
-  <si>
-    <t>73,0%</t>
-  </si>
-  <si>
-    <t>52,15%</t>
-  </si>
-  <si>
-    <t>40,11%</t>
-  </si>
-  <si>
-    <t>65,61%</t>
-  </si>
-  <si>
-    <t>55/64</t>
-  </si>
-  <si>
-    <t>49,75%</t>
-  </si>
-  <si>
-    <t>28,15%</t>
-  </si>
-  <si>
-    <t>71,15%</t>
-  </si>
-  <si>
-    <t>31,61%</t>
-  </si>
-  <si>
-    <t>77,76%</t>
-  </si>
-  <si>
-    <t>52,52%</t>
-  </si>
-  <si>
-    <t>35,51%</t>
-  </si>
-  <si>
-    <t>68,12%</t>
-  </si>
-  <si>
-    <t>50,25%</t>
-  </si>
-  <si>
-    <t>28,85%</t>
-  </si>
-  <si>
-    <t>71,85%</t>
-  </si>
-  <si>
-    <t>22,24%</t>
-  </si>
-  <si>
-    <t>68,39%</t>
+    <t>22,92%</t>
+  </si>
+  <si>
+    <t>68,56%</t>
   </si>
   <si>
     <t>47,48%</t>
   </si>
   <si>
-    <t>31,88%</t>
-  </si>
-  <si>
-    <t>64,49%</t>
+    <t>31,04%</t>
+  </si>
+  <si>
+    <t>64,04%</t>
   </si>
   <si>
     <t>65 y más</t>
@@ -362,10 +368,10 @@
     <t>54,03%</t>
   </si>
   <si>
-    <t>30,82%</t>
-  </si>
-  <si>
-    <t>74,65%</t>
+    <t>31,03%</t>
+  </si>
+  <si>
+    <t>75,87%</t>
   </si>
   <si>
     <t>53,03%</t>
@@ -380,19 +386,19 @@
     <t>53,27%</t>
   </si>
   <si>
-    <t>41,42%</t>
-  </si>
-  <si>
-    <t>64,13%</t>
+    <t>41,76%</t>
+  </si>
+  <si>
+    <t>64,03%</t>
   </si>
   <si>
     <t>45,97%</t>
   </si>
   <si>
-    <t>25,35%</t>
-  </si>
-  <si>
-    <t>69,18%</t>
+    <t>24,13%</t>
+  </si>
+  <si>
+    <t>68,97%</t>
   </si>
   <si>
     <t>46,97%</t>
@@ -407,1180 +413,1156 @@
     <t>46,73%</t>
   </si>
   <si>
-    <t>35,87%</t>
-  </si>
-  <si>
-    <t>58,58%</t>
+    <t>35,97%</t>
+  </si>
+  <si>
+    <t>58,24%</t>
   </si>
   <si>
     <t>50,64%</t>
   </si>
   <si>
-    <t>44,17%</t>
-  </si>
-  <si>
-    <t>57,37%</t>
+    <t>43,77%</t>
+  </si>
+  <si>
+    <t>57,25%</t>
   </si>
   <si>
     <t>53,48%</t>
   </si>
   <si>
-    <t>46,27%</t>
-  </si>
-  <si>
-    <t>61,55%</t>
+    <t>45,77%</t>
+  </si>
+  <si>
+    <t>60,8%</t>
   </si>
   <si>
     <t>51,83%</t>
   </si>
   <si>
-    <t>47,14%</t>
+    <t>46,99%</t>
+  </si>
+  <si>
+    <t>56,99%</t>
+  </si>
+  <si>
+    <t>49,36%</t>
+  </si>
+  <si>
+    <t>42,75%</t>
+  </si>
+  <si>
+    <t>56,23%</t>
+  </si>
+  <si>
+    <t>46,52%</t>
+  </si>
+  <si>
+    <t>39,2%</t>
+  </si>
+  <si>
+    <t>54,23%</t>
+  </si>
+  <si>
+    <t>48,17%</t>
+  </si>
+  <si>
+    <t>43,01%</t>
+  </si>
+  <si>
+    <t>53,01%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población que ha tenido un accidente en los últimos tres meses que le ha causado heridas o lesiones suficientes para limitar su actividad normal y/o para necesitar asistencia sanitaria en 2012 (Tasa respuesta: 7,95%)</t>
+  </si>
+  <si>
+    <t>34,61%</t>
+  </si>
+  <si>
+    <t>24,0%</t>
+  </si>
+  <si>
+    <t>46,84%</t>
+  </si>
+  <si>
+    <t>28,35%</t>
+  </si>
+  <si>
+    <t>15,21%</t>
+  </si>
+  <si>
+    <t>48,28%</t>
+  </si>
+  <si>
+    <t>32,44%</t>
+  </si>
+  <si>
+    <t>23,1%</t>
+  </si>
+  <si>
+    <t>41,66%</t>
+  </si>
+  <si>
+    <t>65,39%</t>
+  </si>
+  <si>
+    <t>53,16%</t>
+  </si>
+  <si>
+    <t>76,0%</t>
+  </si>
+  <si>
+    <t>71,65%</t>
+  </si>
+  <si>
+    <t>51,72%</t>
+  </si>
+  <si>
+    <t>84,79%</t>
+  </si>
+  <si>
+    <t>67,56%</t>
+  </si>
+  <si>
+    <t>58,34%</t>
+  </si>
+  <si>
+    <t>76,9%</t>
+  </si>
+  <si>
+    <t>40,43%</t>
+  </si>
+  <si>
+    <t>29,51%</t>
+  </si>
+  <si>
+    <t>52,12%</t>
+  </si>
+  <si>
+    <t>31,57%</t>
+  </si>
+  <si>
+    <t>17,35%</t>
+  </si>
+  <si>
+    <t>51,03%</t>
+  </si>
+  <si>
+    <t>37,58%</t>
+  </si>
+  <si>
+    <t>27,73%</t>
+  </si>
+  <si>
+    <t>45,41%</t>
+  </si>
+  <si>
+    <t>59,57%</t>
+  </si>
+  <si>
+    <t>47,88%</t>
+  </si>
+  <si>
+    <t>70,49%</t>
+  </si>
+  <si>
+    <t>68,43%</t>
+  </si>
+  <si>
+    <t>48,97%</t>
+  </si>
+  <si>
+    <t>82,65%</t>
+  </si>
+  <si>
+    <t>62,42%</t>
+  </si>
+  <si>
+    <t>54,59%</t>
+  </si>
+  <si>
+    <t>72,27%</t>
+  </si>
+  <si>
+    <t>27,34%</t>
+  </si>
+  <si>
+    <t>15,6%</t>
+  </si>
+  <si>
+    <t>41,71%</t>
+  </si>
+  <si>
+    <t>39,23%</t>
+  </si>
+  <si>
+    <t>23,05%</t>
+  </si>
+  <si>
+    <t>59,64%</t>
+  </si>
+  <si>
+    <t>31,41%</t>
+  </si>
+  <si>
+    <t>21,64%</t>
+  </si>
+  <si>
+    <t>43,74%</t>
+  </si>
+  <si>
+    <t>72,66%</t>
+  </si>
+  <si>
+    <t>58,29%</t>
+  </si>
+  <si>
+    <t>84,4%</t>
+  </si>
+  <si>
+    <t>60,77%</t>
+  </si>
+  <si>
+    <t>40,36%</t>
+  </si>
+  <si>
+    <t>76,95%</t>
+  </si>
+  <si>
+    <t>68,59%</t>
+  </si>
+  <si>
+    <t>56,26%</t>
+  </si>
+  <si>
+    <t>78,36%</t>
+  </si>
+  <si>
+    <t>21,91%</t>
+  </si>
+  <si>
+    <t>10,64%</t>
+  </si>
+  <si>
+    <t>36,48%</t>
+  </si>
+  <si>
+    <t>54,36%</t>
+  </si>
+  <si>
+    <t>37,92%</t>
+  </si>
+  <si>
+    <t>72,53%</t>
+  </si>
+  <si>
+    <t>37,89%</t>
+  </si>
+  <si>
+    <t>26,82%</t>
+  </si>
+  <si>
+    <t>50,33%</t>
+  </si>
+  <si>
+    <t>78,09%</t>
+  </si>
+  <si>
+    <t>63,52%</t>
+  </si>
+  <si>
+    <t>89,36%</t>
+  </si>
+  <si>
+    <t>45,64%</t>
+  </si>
+  <si>
+    <t>27,47%</t>
+  </si>
+  <si>
+    <t>62,08%</t>
+  </si>
+  <si>
+    <t>62,11%</t>
+  </si>
+  <si>
+    <t>49,67%</t>
+  </si>
+  <si>
+    <t>73,18%</t>
+  </si>
+  <si>
+    <t>33,83%</t>
+  </si>
+  <si>
+    <t>8,66%</t>
+  </si>
+  <si>
+    <t>66,72%</t>
+  </si>
+  <si>
+    <t>33,39%</t>
+  </si>
+  <si>
+    <t>20,39%</t>
+  </si>
+  <si>
+    <t>47,65%</t>
+  </si>
+  <si>
+    <t>33,49%</t>
+  </si>
+  <si>
+    <t>21,93%</t>
+  </si>
+  <si>
+    <t>48,0%</t>
+  </si>
+  <si>
+    <t>66,17%</t>
+  </si>
+  <si>
+    <t>33,28%</t>
+  </si>
+  <si>
+    <t>91,34%</t>
+  </si>
+  <si>
+    <t>66,61%</t>
+  </si>
+  <si>
+    <t>52,35%</t>
+  </si>
+  <si>
+    <t>79,61%</t>
+  </si>
+  <si>
+    <t>66,51%</t>
+  </si>
+  <si>
+    <t>52,0%</t>
+  </si>
+  <si>
+    <t>78,07%</t>
+  </si>
+  <si>
+    <t>41,73%</t>
+  </si>
+  <si>
+    <t>26,27%</t>
+  </si>
+  <si>
+    <t>58,84%</t>
+  </si>
+  <si>
+    <t>40,17%</t>
+  </si>
+  <si>
+    <t>29,58%</t>
+  </si>
+  <si>
+    <t>51,38%</t>
+  </si>
+  <si>
+    <t>40,69%</t>
+  </si>
+  <si>
+    <t>31,89%</t>
+  </si>
+  <si>
+    <t>49,69%</t>
+  </si>
+  <si>
+    <t>58,27%</t>
+  </si>
+  <si>
+    <t>41,16%</t>
+  </si>
+  <si>
+    <t>73,73%</t>
+  </si>
+  <si>
+    <t>59,83%</t>
+  </si>
+  <si>
+    <t>48,62%</t>
+  </si>
+  <si>
+    <t>70,42%</t>
+  </si>
+  <si>
+    <t>59,31%</t>
+  </si>
+  <si>
+    <t>50,31%</t>
+  </si>
+  <si>
+    <t>68,11%</t>
+  </si>
+  <si>
+    <t>34,15%</t>
+  </si>
+  <si>
+    <t>28,89%</t>
+  </si>
+  <si>
+    <t>39,82%</t>
+  </si>
+  <si>
+    <t>38,19%</t>
+  </si>
+  <si>
+    <t>31,81%</t>
+  </si>
+  <si>
+    <t>44,61%</t>
+  </si>
+  <si>
+    <t>32,2%</t>
+  </si>
+  <si>
+    <t>40,75%</t>
+  </si>
+  <si>
+    <t>65,85%</t>
+  </si>
+  <si>
+    <t>60,18%</t>
+  </si>
+  <si>
+    <t>71,11%</t>
+  </si>
+  <si>
+    <t>61,81%</t>
+  </si>
+  <si>
+    <t>55,39%</t>
+  </si>
+  <si>
+    <t>68,19%</t>
+  </si>
+  <si>
+    <t>59,25%</t>
+  </si>
+  <si>
+    <t>67,8%</t>
+  </si>
+  <si>
+    <t>Población que ha tenido un accidente en los últimos tres meses que le ha causado heridas o lesiones suficientes para limitar su actividad normal y/o para necesitar asistencia sanitaria en 2015 (Tasa respuesta: 5,56%)</t>
+  </si>
+  <si>
+    <t>39,47%</t>
+  </si>
+  <si>
+    <t>27,15%</t>
+  </si>
+  <si>
+    <t>55,4%</t>
+  </si>
+  <si>
+    <t>27,25%</t>
+  </si>
+  <si>
+    <t>10,71%</t>
+  </si>
+  <si>
+    <t>48,91%</t>
+  </si>
+  <si>
+    <t>35,88%</t>
+  </si>
+  <si>
+    <t>23,42%</t>
+  </si>
+  <si>
+    <t>47,94%</t>
+  </si>
+  <si>
+    <t>60,53%</t>
+  </si>
+  <si>
+    <t>44,6%</t>
+  </si>
+  <si>
+    <t>72,85%</t>
+  </si>
+  <si>
+    <t>72,75%</t>
+  </si>
+  <si>
+    <t>51,09%</t>
+  </si>
+  <si>
+    <t>89,29%</t>
+  </si>
+  <si>
+    <t>64,12%</t>
+  </si>
+  <si>
+    <t>52,06%</t>
+  </si>
+  <si>
+    <t>76,58%</t>
+  </si>
+  <si>
+    <t>43,52%</t>
+  </si>
+  <si>
+    <t>29,23%</t>
+  </si>
+  <si>
+    <t>56,63%</t>
+  </si>
+  <si>
+    <t>40,71%</t>
+  </si>
+  <si>
+    <t>21,68%</t>
+  </si>
+  <si>
+    <t>62,02%</t>
+  </si>
+  <si>
+    <t>42,65%</t>
+  </si>
+  <si>
+    <t>31,38%</t>
+  </si>
+  <si>
+    <t>53,84%</t>
+  </si>
+  <si>
+    <t>56,48%</t>
+  </si>
+  <si>
+    <t>43,37%</t>
+  </si>
+  <si>
+    <t>70,77%</t>
+  </si>
+  <si>
+    <t>59,29%</t>
+  </si>
+  <si>
+    <t>37,98%</t>
+  </si>
+  <si>
+    <t>78,32%</t>
+  </si>
+  <si>
+    <t>57,35%</t>
+  </si>
+  <si>
+    <t>46,16%</t>
+  </si>
+  <si>
+    <t>68,62%</t>
+  </si>
+  <si>
+    <t>56,5%</t>
+  </si>
+  <si>
+    <t>37,52%</t>
+  </si>
+  <si>
+    <t>72,25%</t>
+  </si>
+  <si>
+    <t>44,77%</t>
+  </si>
+  <si>
+    <t>23,11%</t>
+  </si>
+  <si>
+    <t>65,25%</t>
+  </si>
+  <si>
+    <t>51,68%</t>
+  </si>
+  <si>
+    <t>37,45%</t>
+  </si>
+  <si>
+    <t>64,05%</t>
+  </si>
+  <si>
+    <t>43,5%</t>
+  </si>
+  <si>
+    <t>27,75%</t>
+  </si>
+  <si>
+    <t>62,48%</t>
+  </si>
+  <si>
+    <t>55,23%</t>
+  </si>
+  <si>
+    <t>34,75%</t>
+  </si>
+  <si>
+    <t>76,89%</t>
+  </si>
+  <si>
+    <t>48,32%</t>
+  </si>
+  <si>
+    <t>35,95%</t>
+  </si>
+  <si>
+    <t>62,55%</t>
+  </si>
+  <si>
+    <t>43,22%</t>
+  </si>
+  <si>
+    <t>25,18%</t>
+  </si>
+  <si>
+    <t>64,97%</t>
+  </si>
+  <si>
+    <t>41,38%</t>
+  </si>
+  <si>
+    <t>20,89%</t>
+  </si>
+  <si>
+    <t>62,58%</t>
+  </si>
+  <si>
+    <t>42,38%</t>
+  </si>
+  <si>
+    <t>28,58%</t>
+  </si>
+  <si>
+    <t>57,81%</t>
+  </si>
+  <si>
+    <t>56,78%</t>
+  </si>
+  <si>
+    <t>35,03%</t>
+  </si>
+  <si>
+    <t>74,82%</t>
+  </si>
+  <si>
+    <t>58,62%</t>
+  </si>
+  <si>
+    <t>37,42%</t>
+  </si>
+  <si>
+    <t>79,11%</t>
+  </si>
+  <si>
+    <t>57,62%</t>
+  </si>
+  <si>
+    <t>42,19%</t>
+  </si>
+  <si>
+    <t>71,42%</t>
+  </si>
+  <si>
+    <t>29,35%</t>
+  </si>
+  <si>
+    <t>7,18%</t>
+  </si>
+  <si>
+    <t>59,82%</t>
+  </si>
+  <si>
+    <t>29,13%</t>
+  </si>
+  <si>
+    <t>66,09%</t>
+  </si>
+  <si>
+    <t>26,48%</t>
+  </si>
+  <si>
+    <t>58,32%</t>
+  </si>
+  <si>
+    <t>70,65%</t>
+  </si>
+  <si>
+    <t>40,18%</t>
+  </si>
+  <si>
+    <t>92,82%</t>
+  </si>
+  <si>
+    <t>33,91%</t>
+  </si>
+  <si>
+    <t>70,87%</t>
+  </si>
+  <si>
+    <t>41,68%</t>
+  </si>
+  <si>
+    <t>73,52%</t>
+  </si>
+  <si>
+    <t>48,98%</t>
+  </si>
+  <si>
+    <t>31,47%</t>
+  </si>
+  <si>
+    <t>67,4%</t>
+  </si>
+  <si>
+    <t>39,9%</t>
+  </si>
+  <si>
+    <t>67,03%</t>
+  </si>
+  <si>
+    <t>52,03%</t>
+  </si>
+  <si>
+    <t>41,37%</t>
+  </si>
+  <si>
+    <t>61,89%</t>
+  </si>
+  <si>
+    <t>51,02%</t>
+  </si>
+  <si>
+    <t>32,6%</t>
+  </si>
+  <si>
+    <t>68,53%</t>
+  </si>
+  <si>
+    <t>32,97%</t>
+  </si>
+  <si>
+    <t>60,1%</t>
+  </si>
+  <si>
+    <t>47,97%</t>
+  </si>
+  <si>
+    <t>38,11%</t>
+  </si>
+  <si>
+    <t>58,63%</t>
+  </si>
+  <si>
+    <t>44,64%</t>
+  </si>
+  <si>
+    <t>37,15%</t>
+  </si>
+  <si>
+    <t>45,71%</t>
+  </si>
+  <si>
+    <t>38,54%</t>
+  </si>
+  <si>
+    <t>53,37%</t>
+  </si>
+  <si>
+    <t>45,16%</t>
+  </si>
+  <si>
+    <t>39,71%</t>
+  </si>
+  <si>
+    <t>50,29%</t>
+  </si>
+  <si>
+    <t>55,36%</t>
+  </si>
+  <si>
+    <t>62,85%</t>
+  </si>
+  <si>
+    <t>54,29%</t>
+  </si>
+  <si>
+    <t>46,63%</t>
+  </si>
+  <si>
+    <t>61,46%</t>
+  </si>
+  <si>
+    <t>54,84%</t>
+  </si>
+  <si>
+    <t>49,71%</t>
+  </si>
+  <si>
+    <t>60,29%</t>
+  </si>
+  <si>
+    <t>Población que ha tenido un accidente en los últimos tres meses que le ha causado heridas o lesiones suficientes para limitar su actividad normal y/o para necesitar asistencia sanitaria en 2023 (Tasa respuesta: 6,53%)</t>
+  </si>
+  <si>
+    <t>46,51%</t>
+  </si>
+  <si>
+    <t>12,48%</t>
+  </si>
+  <si>
+    <t>85,85%</t>
+  </si>
+  <si>
+    <t>44,5%</t>
+  </si>
+  <si>
+    <t>13,27%</t>
+  </si>
+  <si>
+    <t>45,38%</t>
+  </si>
+  <si>
+    <t>20,96%</t>
+  </si>
+  <si>
+    <t>72,15%</t>
+  </si>
+  <si>
+    <t>53,49%</t>
+  </si>
+  <si>
+    <t>14,15%</t>
+  </si>
+  <si>
+    <t>87,52%</t>
+  </si>
+  <si>
+    <t>55,5%</t>
+  </si>
+  <si>
+    <t>86,73%</t>
+  </si>
+  <si>
+    <t>54,62%</t>
+  </si>
+  <si>
+    <t>27,85%</t>
+  </si>
+  <si>
+    <t>79,04%</t>
+  </si>
+  <si>
+    <t>45,27%</t>
+  </si>
+  <si>
+    <t>21,3%</t>
+  </si>
+  <si>
+    <t>70,76%</t>
+  </si>
+  <si>
+    <t>34,5%</t>
+  </si>
+  <si>
+    <t>13,62%</t>
+  </si>
+  <si>
+    <t>61,6%</t>
+  </si>
+  <si>
+    <t>41,24%</t>
+  </si>
+  <si>
+    <t>22,51%</t>
+  </si>
+  <si>
+    <t>59,3%</t>
+  </si>
+  <si>
+    <t>54,73%</t>
+  </si>
+  <si>
+    <t>29,24%</t>
+  </si>
+  <si>
+    <t>78,7%</t>
+  </si>
+  <si>
+    <t>65,5%</t>
+  </si>
+  <si>
+    <t>38,4%</t>
+  </si>
+  <si>
+    <t>86,38%</t>
+  </si>
+  <si>
+    <t>58,76%</t>
+  </si>
+  <si>
+    <t>40,7%</t>
+  </si>
+  <si>
+    <t>77,49%</t>
+  </si>
+  <si>
+    <t>28,64%</t>
+  </si>
+  <si>
+    <t>14,91%</t>
+  </si>
+  <si>
+    <t>46,42%</t>
+  </si>
+  <si>
+    <t>33,19%</t>
+  </si>
+  <si>
+    <t>20,14%</t>
+  </si>
+  <si>
+    <t>50,08%</t>
+  </si>
+  <si>
+    <t>30,66%</t>
+  </si>
+  <si>
+    <t>21,12%</t>
+  </si>
+  <si>
+    <t>43,26%</t>
+  </si>
+  <si>
+    <t>71,36%</t>
+  </si>
+  <si>
+    <t>53,58%</t>
+  </si>
+  <si>
+    <t>85,09%</t>
+  </si>
+  <si>
+    <t>66,81%</t>
+  </si>
+  <si>
+    <t>49,92%</t>
+  </si>
+  <si>
+    <t>79,86%</t>
+  </si>
+  <si>
+    <t>69,34%</t>
+  </si>
+  <si>
+    <t>56,74%</t>
+  </si>
+  <si>
+    <t>78,88%</t>
+  </si>
+  <si>
+    <t>43,62%</t>
+  </si>
+  <si>
+    <t>29,88%</t>
+  </si>
+  <si>
+    <t>58,54%</t>
+  </si>
+  <si>
+    <t>40,44%</t>
+  </si>
+  <si>
+    <t>25,08%</t>
+  </si>
+  <si>
+    <t>42,43%</t>
+  </si>
+  <si>
+    <t>32,05%</t>
+  </si>
+  <si>
+    <t>52,97%</t>
+  </si>
+  <si>
+    <t>56,38%</t>
+  </si>
+  <si>
+    <t>41,46%</t>
+  </si>
+  <si>
+    <t>70,12%</t>
+  </si>
+  <si>
+    <t>59,56%</t>
+  </si>
+  <si>
+    <t>74,92%</t>
+  </si>
+  <si>
+    <t>57,57%</t>
+  </si>
+  <si>
+    <t>47,03%</t>
+  </si>
+  <si>
+    <t>67,95%</t>
+  </si>
+  <si>
+    <t>23,04%</t>
+  </si>
+  <si>
+    <t>12,09%</t>
+  </si>
+  <si>
+    <t>42,16%</t>
+  </si>
+  <si>
+    <t>36,99%</t>
+  </si>
+  <si>
+    <t>25,79%</t>
+  </si>
+  <si>
+    <t>49,98%</t>
+  </si>
+  <si>
+    <t>30,77%</t>
+  </si>
+  <si>
+    <t>22,22%</t>
+  </si>
+  <si>
+    <t>41,49%</t>
+  </si>
+  <si>
+    <t>76,96%</t>
+  </si>
+  <si>
+    <t>57,84%</t>
+  </si>
+  <si>
+    <t>87,91%</t>
+  </si>
+  <si>
+    <t>63,01%</t>
+  </si>
+  <si>
+    <t>50,02%</t>
+  </si>
+  <si>
+    <t>74,21%</t>
+  </si>
+  <si>
+    <t>69,23%</t>
+  </si>
+  <si>
+    <t>58,51%</t>
+  </si>
+  <si>
+    <t>77,78%</t>
+  </si>
+  <si>
+    <t>39,57%</t>
+  </si>
+  <si>
+    <t>28,55%</t>
+  </si>
+  <si>
+    <t>52,65%</t>
+  </si>
+  <si>
+    <t>50,67%</t>
+  </si>
+  <si>
+    <t>43,12%</t>
+  </si>
+  <si>
+    <t>58,26%</t>
+  </si>
+  <si>
+    <t>47,42%</t>
+  </si>
+  <si>
+    <t>41,04%</t>
+  </si>
+  <si>
+    <t>54,05%</t>
+  </si>
+  <si>
+    <t>60,43%</t>
+  </si>
+  <si>
+    <t>47,35%</t>
+  </si>
+  <si>
+    <t>71,45%</t>
+  </si>
+  <si>
+    <t>49,33%</t>
+  </si>
+  <si>
+    <t>41,74%</t>
   </si>
   <si>
     <t>56,88%</t>
   </si>
   <si>
-    <t>49,36%</t>
-  </si>
-  <si>
-    <t>42,63%</t>
-  </si>
-  <si>
-    <t>55,83%</t>
-  </si>
-  <si>
-    <t>46,52%</t>
-  </si>
-  <si>
-    <t>38,45%</t>
-  </si>
-  <si>
-    <t>53,73%</t>
-  </si>
-  <si>
-    <t>48,17%</t>
-  </si>
-  <si>
-    <t>43,12%</t>
-  </si>
-  <si>
-    <t>52,86%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población que ha tenido un accidente en los últimos tres meses que le ha causado heridas o lesiones suficientes para limitar su actividad normal y/o para necesitar asistencia sanitaria en 2012 (Tasa respuesta: 7,95%)</t>
-  </si>
-  <si>
-    <t>34,61%</t>
-  </si>
-  <si>
-    <t>23,69%</t>
-  </si>
-  <si>
-    <t>47,81%</t>
-  </si>
-  <si>
-    <t>28,35%</t>
-  </si>
-  <si>
-    <t>15,15%</t>
-  </si>
-  <si>
-    <t>46,02%</t>
-  </si>
-  <si>
-    <t>32,44%</t>
-  </si>
-  <si>
-    <t>23,44%</t>
-  </si>
-  <si>
-    <t>42,93%</t>
-  </si>
-  <si>
-    <t>65,39%</t>
-  </si>
-  <si>
-    <t>52,19%</t>
-  </si>
-  <si>
-    <t>76,31%</t>
-  </si>
-  <si>
-    <t>71,65%</t>
-  </si>
-  <si>
-    <t>53,98%</t>
-  </si>
-  <si>
-    <t>84,85%</t>
-  </si>
-  <si>
-    <t>67,56%</t>
-  </si>
-  <si>
-    <t>57,07%</t>
-  </si>
-  <si>
-    <t>76,56%</t>
-  </si>
-  <si>
-    <t>40,43%</t>
-  </si>
-  <si>
-    <t>29,41%</t>
-  </si>
-  <si>
-    <t>51,31%</t>
-  </si>
-  <si>
-    <t>31,57%</t>
-  </si>
-  <si>
-    <t>17,15%</t>
-  </si>
-  <si>
-    <t>49,47%</t>
-  </si>
-  <si>
-    <t>37,58%</t>
-  </si>
-  <si>
-    <t>28,72%</t>
-  </si>
-  <si>
-    <t>47,5%</t>
-  </si>
-  <si>
-    <t>59,57%</t>
-  </si>
-  <si>
-    <t>48,69%</t>
-  </si>
-  <si>
-    <t>70,59%</t>
-  </si>
-  <si>
-    <t>68,43%</t>
-  </si>
-  <si>
-    <t>50,53%</t>
-  </si>
-  <si>
-    <t>82,85%</t>
-  </si>
-  <si>
-    <t>62,42%</t>
-  </si>
-  <si>
-    <t>52,5%</t>
-  </si>
-  <si>
-    <t>71,28%</t>
-  </si>
-  <si>
-    <t>27,34%</t>
-  </si>
-  <si>
-    <t>14,89%</t>
-  </si>
-  <si>
-    <t>41,59%</t>
-  </si>
-  <si>
-    <t>39,23%</t>
-  </si>
-  <si>
-    <t>22,84%</t>
-  </si>
-  <si>
-    <t>58,45%</t>
-  </si>
-  <si>
-    <t>31,41%</t>
-  </si>
-  <si>
-    <t>21,69%</t>
-  </si>
-  <si>
-    <t>43,53%</t>
-  </si>
-  <si>
-    <t>72,66%</t>
-  </si>
-  <si>
-    <t>58,41%</t>
-  </si>
-  <si>
-    <t>85,11%</t>
-  </si>
-  <si>
-    <t>60,77%</t>
-  </si>
-  <si>
-    <t>41,55%</t>
-  </si>
-  <si>
-    <t>77,16%</t>
-  </si>
-  <si>
-    <t>68,59%</t>
-  </si>
-  <si>
-    <t>56,47%</t>
-  </si>
-  <si>
-    <t>78,31%</t>
-  </si>
-  <si>
-    <t>21,91%</t>
-  </si>
-  <si>
-    <t>10,74%</t>
+    <t>52,58%</t>
+  </si>
+  <si>
+    <t>45,95%</t>
+  </si>
+  <si>
+    <t>58,96%</t>
+  </si>
+  <si>
+    <t>30,5%</t>
+  </si>
+  <si>
+    <t>45,48%</t>
+  </si>
+  <si>
+    <t>43,03%</t>
   </si>
   <si>
     <t>37,02%</t>
   </si>
   <si>
-    <t>54,36%</t>
-  </si>
-  <si>
-    <t>36,08%</t>
-  </si>
-  <si>
-    <t>71,35%</t>
-  </si>
-  <si>
-    <t>37,89%</t>
-  </si>
-  <si>
-    <t>26,83%</t>
-  </si>
-  <si>
-    <t>49,96%</t>
-  </si>
-  <si>
-    <t>78,09%</t>
+    <t>49,31%</t>
+  </si>
+  <si>
+    <t>40,45%</t>
+  </si>
+  <si>
+    <t>45,35%</t>
+  </si>
+  <si>
+    <t>54,52%</t>
+  </si>
+  <si>
+    <t>69,5%</t>
+  </si>
+  <si>
+    <t>56,97%</t>
+  </si>
+  <si>
+    <t>50,69%</t>
   </si>
   <si>
     <t>62,98%</t>
   </si>
   <si>
-    <t>89,26%</t>
-  </si>
-  <si>
-    <t>45,64%</t>
-  </si>
-  <si>
-    <t>28,65%</t>
-  </si>
-  <si>
-    <t>63,92%</t>
-  </si>
-  <si>
-    <t>62,11%</t>
-  </si>
-  <si>
-    <t>50,04%</t>
-  </si>
-  <si>
-    <t>73,17%</t>
-  </si>
-  <si>
-    <t>33,83%</t>
-  </si>
-  <si>
-    <t>8,67%</t>
-  </si>
-  <si>
-    <t>60,0%</t>
-  </si>
-  <si>
-    <t>33,39%</t>
-  </si>
-  <si>
-    <t>19,99%</t>
-  </si>
-  <si>
-    <t>49,71%</t>
-  </si>
-  <si>
-    <t>33,49%</t>
-  </si>
-  <si>
-    <t>20,02%</t>
-  </si>
-  <si>
-    <t>46,25%</t>
-  </si>
-  <si>
-    <t>66,17%</t>
-  </si>
-  <si>
-    <t>40,0%</t>
-  </si>
-  <si>
-    <t>91,33%</t>
-  </si>
-  <si>
-    <t>66,61%</t>
-  </si>
-  <si>
-    <t>50,29%</t>
-  </si>
-  <si>
-    <t>80,01%</t>
-  </si>
-  <si>
-    <t>66,51%</t>
-  </si>
-  <si>
-    <t>53,75%</t>
-  </si>
-  <si>
-    <t>79,98%</t>
-  </si>
-  <si>
-    <t>41,73%</t>
-  </si>
-  <si>
-    <t>27,37%</t>
-  </si>
-  <si>
-    <t>57,49%</t>
-  </si>
-  <si>
-    <t>40,17%</t>
-  </si>
-  <si>
-    <t>29,58%</t>
-  </si>
-  <si>
-    <t>51,38%</t>
-  </si>
-  <si>
-    <t>40,69%</t>
-  </si>
-  <si>
-    <t>32,1%</t>
-  </si>
-  <si>
-    <t>50,45%</t>
-  </si>
-  <si>
-    <t>58,27%</t>
-  </si>
-  <si>
-    <t>42,51%</t>
-  </si>
-  <si>
-    <t>72,63%</t>
-  </si>
-  <si>
-    <t>59,83%</t>
-  </si>
-  <si>
-    <t>48,62%</t>
-  </si>
-  <si>
-    <t>70,42%</t>
-  </si>
-  <si>
-    <t>59,31%</t>
-  </si>
-  <si>
-    <t>49,55%</t>
-  </si>
-  <si>
-    <t>67,9%</t>
-  </si>
-  <si>
-    <t>34,15%</t>
-  </si>
-  <si>
-    <t>28,69%</t>
-  </si>
-  <si>
-    <t>39,9%</t>
-  </si>
-  <si>
-    <t>38,19%</t>
-  </si>
-  <si>
-    <t>32,17%</t>
-  </si>
-  <si>
-    <t>44,28%</t>
-  </si>
-  <si>
-    <t>36,06%</t>
-  </si>
-  <si>
-    <t>31,83%</t>
-  </si>
-  <si>
-    <t>40,15%</t>
-  </si>
-  <si>
-    <t>65,85%</t>
-  </si>
-  <si>
-    <t>60,1%</t>
-  </si>
-  <si>
-    <t>71,31%</t>
-  </si>
-  <si>
-    <t>61,81%</t>
-  </si>
-  <si>
-    <t>55,72%</t>
-  </si>
-  <si>
-    <t>67,83%</t>
-  </si>
-  <si>
-    <t>63,94%</t>
-  </si>
-  <si>
-    <t>59,85%</t>
-  </si>
-  <si>
-    <t>68,17%</t>
-  </si>
-  <si>
-    <t>Población que ha tenido un accidente en los últimos tres meses que le ha causado heridas o lesiones suficientes para limitar su actividad normal y/o para necesitar asistencia sanitaria en 2015 (Tasa respuesta: 5,56%)</t>
-  </si>
-  <si>
-    <t>39,47%</t>
-  </si>
-  <si>
-    <t>26,31%</t>
-  </si>
-  <si>
-    <t>55,16%</t>
-  </si>
-  <si>
-    <t>27,25%</t>
-  </si>
-  <si>
-    <t>10,63%</t>
-  </si>
-  <si>
-    <t>48,73%</t>
-  </si>
-  <si>
-    <t>35,88%</t>
-  </si>
-  <si>
-    <t>23,28%</t>
-  </si>
-  <si>
-    <t>48,24%</t>
-  </si>
-  <si>
-    <t>60,53%</t>
-  </si>
-  <si>
-    <t>44,84%</t>
-  </si>
-  <si>
-    <t>73,69%</t>
-  </si>
-  <si>
-    <t>72,75%</t>
-  </si>
-  <si>
-    <t>51,27%</t>
-  </si>
-  <si>
-    <t>89,37%</t>
-  </si>
-  <si>
-    <t>64,12%</t>
-  </si>
-  <si>
-    <t>51,76%</t>
-  </si>
-  <si>
-    <t>76,72%</t>
-  </si>
-  <si>
-    <t>43,52%</t>
-  </si>
-  <si>
-    <t>30,79%</t>
-  </si>
-  <si>
-    <t>56,91%</t>
-  </si>
-  <si>
-    <t>40,71%</t>
-  </si>
-  <si>
-    <t>21,27%</t>
-  </si>
-  <si>
-    <t>64,71%</t>
-  </si>
-  <si>
-    <t>42,65%</t>
-  </si>
-  <si>
-    <t>31,32%</t>
-  </si>
-  <si>
-    <t>53,82%</t>
-  </si>
-  <si>
-    <t>56,48%</t>
-  </si>
-  <si>
-    <t>43,09%</t>
-  </si>
-  <si>
-    <t>69,21%</t>
-  </si>
-  <si>
-    <t>59,29%</t>
-  </si>
-  <si>
-    <t>35,29%</t>
-  </si>
-  <si>
-    <t>78,73%</t>
-  </si>
-  <si>
-    <t>57,35%</t>
-  </si>
-  <si>
-    <t>46,18%</t>
-  </si>
-  <si>
-    <t>68,68%</t>
-  </si>
-  <si>
-    <t>56,5%</t>
-  </si>
-  <si>
-    <t>39,5%</t>
-  </si>
-  <si>
-    <t>73,12%</t>
-  </si>
-  <si>
-    <t>44,77%</t>
-  </si>
-  <si>
-    <t>23,65%</t>
-  </si>
-  <si>
-    <t>66,99%</t>
-  </si>
-  <si>
-    <t>51,68%</t>
-  </si>
-  <si>
-    <t>38,27%</t>
-  </si>
-  <si>
-    <t>64,4%</t>
-  </si>
-  <si>
-    <t>43,5%</t>
-  </si>
-  <si>
-    <t>26,88%</t>
-  </si>
-  <si>
-    <t>60,5%</t>
-  </si>
-  <si>
-    <t>55,23%</t>
-  </si>
-  <si>
-    <t>33,01%</t>
-  </si>
-  <si>
-    <t>76,35%</t>
-  </si>
-  <si>
-    <t>48,32%</t>
-  </si>
-  <si>
-    <t>35,6%</t>
-  </si>
-  <si>
-    <t>61,73%</t>
-  </si>
-  <si>
-    <t>43,22%</t>
-  </si>
-  <si>
-    <t>25,93%</t>
-  </si>
-  <si>
-    <t>65,99%</t>
-  </si>
-  <si>
-    <t>41,38%</t>
-  </si>
-  <si>
-    <t>21,8%</t>
-  </si>
-  <si>
-    <t>62,81%</t>
-  </si>
-  <si>
-    <t>42,38%</t>
-  </si>
-  <si>
-    <t>28,86%</t>
-  </si>
-  <si>
-    <t>57,56%</t>
-  </si>
-  <si>
-    <t>56,78%</t>
-  </si>
-  <si>
-    <t>34,01%</t>
-  </si>
-  <si>
-    <t>74,07%</t>
-  </si>
-  <si>
-    <t>58,62%</t>
-  </si>
-  <si>
-    <t>37,19%</t>
-  </si>
-  <si>
-    <t>78,2%</t>
-  </si>
-  <si>
-    <t>57,62%</t>
-  </si>
-  <si>
-    <t>42,44%</t>
-  </si>
-  <si>
-    <t>71,14%</t>
-  </si>
-  <si>
-    <t>29,35%</t>
-  </si>
-  <si>
-    <t>7,15%</t>
-  </si>
-  <si>
-    <t>59,17%</t>
-  </si>
-  <si>
-    <t>29,67%</t>
-  </si>
-  <si>
-    <t>67,35%</t>
-  </si>
-  <si>
-    <t>41,76%</t>
-  </si>
-  <si>
-    <t>57,99%</t>
-  </si>
-  <si>
-    <t>70,65%</t>
-  </si>
-  <si>
-    <t>40,83%</t>
-  </si>
-  <si>
-    <t>92,85%</t>
-  </si>
-  <si>
-    <t>32,65%</t>
-  </si>
-  <si>
-    <t>70,33%</t>
-  </si>
-  <si>
-    <t>58,24%</t>
-  </si>
-  <si>
-    <t>42,01%</t>
-  </si>
-  <si>
-    <t>48,98%</t>
-  </si>
-  <si>
-    <t>30,56%</t>
-  </si>
-  <si>
-    <t>69,31%</t>
-  </si>
-  <si>
-    <t>53,16%</t>
-  </si>
-  <si>
-    <t>39,49%</t>
-  </si>
-  <si>
-    <t>65,32%</t>
-  </si>
-  <si>
-    <t>52,03%</t>
-  </si>
-  <si>
-    <t>40,35%</t>
-  </si>
-  <si>
-    <t>62,68%</t>
-  </si>
-  <si>
-    <t>51,02%</t>
-  </si>
-  <si>
-    <t>30,69%</t>
-  </si>
-  <si>
-    <t>69,44%</t>
-  </si>
-  <si>
-    <t>46,84%</t>
-  </si>
-  <si>
-    <t>34,68%</t>
-  </si>
-  <si>
-    <t>60,51%</t>
-  </si>
-  <si>
-    <t>47,97%</t>
-  </si>
-  <si>
-    <t>37,32%</t>
-  </si>
-  <si>
-    <t>59,65%</t>
-  </si>
-  <si>
-    <t>44,64%</t>
-  </si>
-  <si>
-    <t>37,64%</t>
-  </si>
-  <si>
-    <t>51,19%</t>
-  </si>
-  <si>
-    <t>45,71%</t>
-  </si>
-  <si>
-    <t>37,96%</t>
-  </si>
-  <si>
-    <t>52,89%</t>
-  </si>
-  <si>
-    <t>45,16%</t>
-  </si>
-  <si>
-    <t>39,91%</t>
-  </si>
-  <si>
-    <t>50,18%</t>
-  </si>
-  <si>
-    <t>55,36%</t>
-  </si>
-  <si>
-    <t>48,81%</t>
-  </si>
-  <si>
-    <t>62,36%</t>
-  </si>
-  <si>
-    <t>54,29%</t>
-  </si>
-  <si>
-    <t>47,11%</t>
-  </si>
-  <si>
-    <t>62,04%</t>
-  </si>
-  <si>
-    <t>54,84%</t>
-  </si>
-  <si>
-    <t>49,82%</t>
-  </si>
-  <si>
-    <t>60,09%</t>
-  </si>
-  <si>
-    <t>Población que ha tenido un accidente en los últimos tres meses que le ha causado heridas o lesiones suficientes para limitar su actividad normal y/o para necesitar asistencia sanitaria en 2023 (Tasa respuesta: 6,53%)</t>
-  </si>
-  <si>
-    <t>46,51%</t>
-  </si>
-  <si>
-    <t>11,27%</t>
-  </si>
-  <si>
-    <t>83,87%</t>
-  </si>
-  <si>
-    <t>44,5%</t>
-  </si>
-  <si>
-    <t>12,9%</t>
-  </si>
-  <si>
-    <t>78,74%</t>
-  </si>
-  <si>
-    <t>45,38%</t>
-  </si>
-  <si>
-    <t>20,83%</t>
-  </si>
-  <si>
-    <t>69,93%</t>
-  </si>
-  <si>
-    <t>53,49%</t>
-  </si>
-  <si>
-    <t>16,13%</t>
-  </si>
-  <si>
-    <t>88,73%</t>
-  </si>
-  <si>
-    <t>55,5%</t>
-  </si>
-  <si>
-    <t>21,26%</t>
-  </si>
-  <si>
-    <t>87,1%</t>
-  </si>
-  <si>
-    <t>54,62%</t>
-  </si>
-  <si>
-    <t>30,07%</t>
-  </si>
-  <si>
-    <t>79,17%</t>
-  </si>
-  <si>
-    <t>45,27%</t>
-  </si>
-  <si>
-    <t>20,04%</t>
-  </si>
-  <si>
-    <t>70,62%</t>
-  </si>
-  <si>
-    <t>34,5%</t>
-  </si>
-  <si>
-    <t>13,92%</t>
-  </si>
-  <si>
-    <t>65,65%</t>
-  </si>
-  <si>
-    <t>41,24%</t>
-  </si>
-  <si>
-    <t>25,49%</t>
-  </si>
-  <si>
-    <t>60,79%</t>
-  </si>
-  <si>
-    <t>54,73%</t>
-  </si>
-  <si>
-    <t>29,38%</t>
-  </si>
-  <si>
-    <t>79,96%</t>
-  </si>
-  <si>
-    <t>65,5%</t>
-  </si>
-  <si>
-    <t>34,35%</t>
-  </si>
-  <si>
-    <t>86,08%</t>
-  </si>
-  <si>
-    <t>58,76%</t>
-  </si>
-  <si>
-    <t>39,21%</t>
-  </si>
-  <si>
-    <t>74,51%</t>
-  </si>
-  <si>
-    <t>28,64%</t>
-  </si>
-  <si>
-    <t>14,73%</t>
-  </si>
-  <si>
-    <t>45,48%</t>
-  </si>
-  <si>
-    <t>33,19%</t>
-  </si>
-  <si>
-    <t>20,23%</t>
-  </si>
-  <si>
-    <t>30,66%</t>
-  </si>
-  <si>
-    <t>21,13%</t>
-  </si>
-  <si>
-    <t>71,36%</t>
-  </si>
-  <si>
-    <t>54,52%</t>
-  </si>
-  <si>
-    <t>85,27%</t>
-  </si>
-  <si>
-    <t>66,81%</t>
-  </si>
-  <si>
-    <t>79,77%</t>
-  </si>
-  <si>
-    <t>69,34%</t>
-  </si>
-  <si>
-    <t>78,87%</t>
-  </si>
-  <si>
-    <t>43,62%</t>
-  </si>
-  <si>
-    <t>30,2%</t>
-  </si>
-  <si>
-    <t>58,18%</t>
-  </si>
-  <si>
-    <t>40,44%</t>
-  </si>
-  <si>
-    <t>27,47%</t>
-  </si>
-  <si>
-    <t>53,38%</t>
-  </si>
-  <si>
-    <t>42,43%</t>
-  </si>
-  <si>
-    <t>31,97%</t>
-  </si>
-  <si>
-    <t>52,62%</t>
-  </si>
-  <si>
-    <t>56,38%</t>
-  </si>
-  <si>
-    <t>41,82%</t>
-  </si>
-  <si>
-    <t>69,8%</t>
-  </si>
-  <si>
-    <t>59,56%</t>
-  </si>
-  <si>
-    <t>46,62%</t>
-  </si>
-  <si>
-    <t>72,53%</t>
-  </si>
-  <si>
-    <t>57,57%</t>
-  </si>
-  <si>
-    <t>47,38%</t>
-  </si>
-  <si>
-    <t>68,03%</t>
-  </si>
-  <si>
-    <t>23,04%</t>
-  </si>
-  <si>
-    <t>10,31%</t>
-  </si>
-  <si>
-    <t>38,96%</t>
-  </si>
-  <si>
-    <t>36,99%</t>
-  </si>
-  <si>
-    <t>25,65%</t>
-  </si>
-  <si>
-    <t>50,71%</t>
-  </si>
-  <si>
-    <t>30,77%</t>
-  </si>
-  <si>
-    <t>21,9%</t>
-  </si>
-  <si>
-    <t>40,74%</t>
-  </si>
-  <si>
-    <t>76,96%</t>
-  </si>
-  <si>
-    <t>61,04%</t>
-  </si>
-  <si>
-    <t>89,69%</t>
-  </si>
-  <si>
-    <t>63,01%</t>
-  </si>
-  <si>
-    <t>49,29%</t>
-  </si>
-  <si>
-    <t>74,35%</t>
-  </si>
-  <si>
-    <t>69,23%</t>
-  </si>
-  <si>
-    <t>59,26%</t>
-  </si>
-  <si>
-    <t>78,1%</t>
-  </si>
-  <si>
-    <t>39,57%</t>
-  </si>
-  <si>
-    <t>28,12%</t>
-  </si>
-  <si>
-    <t>54,05%</t>
-  </si>
-  <si>
-    <t>50,67%</t>
-  </si>
-  <si>
-    <t>43,21%</t>
-  </si>
-  <si>
-    <t>58,49%</t>
-  </si>
-  <si>
-    <t>47,42%</t>
-  </si>
-  <si>
-    <t>40,64%</t>
-  </si>
-  <si>
-    <t>53,86%</t>
-  </si>
-  <si>
-    <t>60,43%</t>
-  </si>
-  <si>
-    <t>45,95%</t>
-  </si>
-  <si>
-    <t>71,88%</t>
-  </si>
-  <si>
-    <t>49,33%</t>
-  </si>
-  <si>
-    <t>41,51%</t>
-  </si>
-  <si>
-    <t>56,79%</t>
-  </si>
-  <si>
-    <t>52,58%</t>
-  </si>
-  <si>
-    <t>46,14%</t>
-  </si>
-  <si>
-    <t>59,36%</t>
-  </si>
-  <si>
-    <t>37,52%</t>
-  </si>
-  <si>
-    <t>30,49%</t>
-  </si>
-  <si>
-    <t>45,79%</t>
-  </si>
-  <si>
-    <t>43,03%</t>
-  </si>
-  <si>
-    <t>49,15%</t>
-  </si>
-  <si>
-    <t>40,45%</t>
-  </si>
-  <si>
-    <t>35,78%</t>
-  </si>
-  <si>
-    <t>45,29%</t>
-  </si>
-  <si>
-    <t>62,48%</t>
-  </si>
-  <si>
-    <t>54,21%</t>
-  </si>
-  <si>
-    <t>69,51%</t>
-  </si>
-  <si>
-    <t>56,97%</t>
-  </si>
-  <si>
-    <t>50,85%</t>
-  </si>
-  <si>
     <t>59,55%</t>
   </si>
   <si>
-    <t>54,71%</t>
-  </si>
-  <si>
-    <t>64,22%</t>
+    <t>54,65%</t>
   </si>
 </sst>
 </file>
@@ -1992,7 +1974,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{12E45530-3D7C-4517-9A07-AED8D833D1C0}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AD5AF64A-7B9E-4617-9E93-D7E4CCF59113}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2751,13 +2733,13 @@
         <v>9871</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>59</v>
+        <v>92</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="M16" s="7">
         <v>19</v>
@@ -2766,13 +2748,13 @@
         <v>19242</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2787,13 +2769,13 @@
         <v>9465</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="H17" s="7">
         <v>8</v>
@@ -2802,13 +2784,13 @@
         <v>7933</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>67</v>
+        <v>101</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="M17" s="7">
         <v>18</v>
@@ -2817,13 +2799,13 @@
         <v>17398</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2879,7 +2861,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -2891,13 +2873,13 @@
         <v>10585</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="H19" s="7">
         <v>30</v>
@@ -2906,13 +2888,13 @@
         <v>31714</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="M19" s="7">
         <v>41</v>
@@ -2921,13 +2903,13 @@
         <v>42300</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2942,13 +2924,13 @@
         <v>9007</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="H20" s="7">
         <v>27</v>
@@ -2957,13 +2939,13 @@
         <v>28093</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="M20" s="7">
         <v>37</v>
@@ -2972,13 +2954,13 @@
         <v>37099</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3046,13 +3028,13 @@
         <v>123077</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="H22" s="7">
         <v>90</v>
@@ -3061,13 +3043,13 @@
         <v>93806</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="M22" s="7">
         <v>209</v>
@@ -3076,13 +3058,13 @@
         <v>216883</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3097,13 +3079,13 @@
         <v>119979</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="H23" s="7">
         <v>79</v>
@@ -3112,13 +3094,13 @@
         <v>81585</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="M23" s="7">
         <v>197</v>
@@ -3127,13 +3109,13 @@
         <v>201564</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -3189,7 +3171,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
     </row>
   </sheetData>
@@ -3211,7 +3193,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B9563B7C-E0EB-4DBF-88C6-FC927E372C94}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D472C4F3-E297-4A9A-823D-70D988D10B04}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3228,7 +3210,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3335,13 +3317,13 @@
         <v>20639</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="H4" s="7">
         <v>9</v>
@@ -3350,13 +3332,13 @@
         <v>8981</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="M4" s="7">
         <v>30</v>
@@ -3365,13 +3347,13 @@
         <v>29619</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3386,13 +3368,13 @@
         <v>38991</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="H5" s="7">
         <v>23</v>
@@ -3401,13 +3383,13 @@
         <v>22694</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="M5" s="7">
         <v>63</v>
@@ -3416,13 +3398,13 @@
         <v>61686</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3490,13 +3472,13 @@
         <v>33283</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="H7" s="7">
         <v>10</v>
@@ -3505,13 +3487,13 @@
         <v>12336</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="M7" s="7">
         <v>41</v>
@@ -3520,13 +3502,13 @@
         <v>45619</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3541,13 +3523,13 @@
         <v>49037</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="H8" s="7">
         <v>26</v>
@@ -3556,13 +3538,13 @@
         <v>26738</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="M8" s="7">
         <v>75</v>
@@ -3571,13 +3553,13 @@
         <v>75774</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3645,13 +3627,13 @@
         <v>15467</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="H10" s="7">
         <v>11</v>
@@ -3660,13 +3642,13 @@
         <v>11530</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="M10" s="7">
         <v>25</v>
@@ -3675,13 +3657,13 @@
         <v>26997</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3696,13 +3678,13 @@
         <v>41099</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="H11" s="7">
         <v>18</v>
@@ -3711,13 +3693,13 @@
         <v>17858</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="M11" s="7">
         <v>55</v>
@@ -3726,13 +3708,13 @@
         <v>58957</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3800,13 +3782,13 @@
         <v>8141</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="H13" s="7">
         <v>17</v>
@@ -3815,13 +3797,13 @@
         <v>19599</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="M13" s="7">
         <v>25</v>
@@ -3830,13 +3812,13 @@
         <v>27739</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3851,13 +3833,13 @@
         <v>29005</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="H14" s="7">
         <v>14</v>
@@ -3866,13 +3848,13 @@
         <v>16457</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="M14" s="7">
         <v>41</v>
@@ -3881,13 +3863,13 @@
         <v>45463</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3955,13 +3937,13 @@
         <v>4371</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="H16" s="7">
         <v>13</v>
@@ -3970,13 +3952,13 @@
         <v>13941</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="M16" s="7">
         <v>17</v>
@@ -3985,13 +3967,13 @@
         <v>18313</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4006,13 +3988,13 @@
         <v>8550</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="H17" s="7">
         <v>25</v>
@@ -4021,13 +4003,13 @@
         <v>27816</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="M17" s="7">
         <v>33</v>
@@ -4036,13 +4018,13 @@
         <v>36365</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4098,7 +4080,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -4110,13 +4092,13 @@
         <v>16414</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="H19" s="7">
         <v>30</v>
@@ -4125,13 +4107,13 @@
         <v>31944</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="M19" s="7">
         <v>46</v>
@@ -4140,13 +4122,13 @@
         <v>48358</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4161,13 +4143,13 @@
         <v>22916</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="H20" s="7">
         <v>45</v>
@@ -4176,13 +4158,13 @@
         <v>47579</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="M20" s="7">
         <v>66</v>
@@ -4191,13 +4173,13 @@
         <v>70495</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4265,13 +4247,13 @@
         <v>98315</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="H22" s="7">
         <v>90</v>
@@ -4280,13 +4262,13 @@
         <v>98331</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="M22" s="7">
         <v>184</v>
@@ -4295,13 +4277,13 @@
         <v>196646</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>258</v>
+        <v>48</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4316,13 +4298,13 @@
         <v>189598</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="H23" s="7">
         <v>151</v>
@@ -4331,13 +4313,13 @@
         <v>159141</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="M23" s="7">
         <v>333</v>
@@ -4346,7 +4328,7 @@
         <v>348739</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>267</v>
+        <v>40</v>
       </c>
       <c r="P23" s="7" t="s">
         <v>268</v>
@@ -4408,7 +4390,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
     </row>
   </sheetData>
@@ -4430,7 +4412,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8F348FC9-E0A1-45B0-8640-4CFC5169A62B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{87A5069D-CFA8-4EC8-AB22-8875C75A23E9}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5189,7 +5171,7 @@
         <v>14415</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="K16" s="7" t="s">
         <v>346</v>
@@ -5204,10 +5186,10 @@
         <v>18521</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="P16" s="7" t="s">
         <v>348</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>180</v>
       </c>
       <c r="Q16" s="7" t="s">
         <v>349</v>
@@ -5240,7 +5222,7 @@
         <v>15943</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="K17" s="7" t="s">
         <v>353</v>
@@ -5255,13 +5237,13 @@
         <v>25826</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="P17" s="7" t="s">
         <v>355</v>
       </c>
-      <c r="P17" s="7" t="s">
+      <c r="Q17" s="7" t="s">
         <v>356</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>189</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5317,7 +5299,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -5344,13 +5326,13 @@
         <v>37538</v>
       </c>
       <c r="J19" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="K19" s="7" t="s">
         <v>360</v>
       </c>
-      <c r="K19" s="7" t="s">
+      <c r="L19" s="7" t="s">
         <v>361</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>362</v>
       </c>
       <c r="M19" s="7">
         <v>47</v>
@@ -5359,13 +5341,13 @@
         <v>50331</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>362</v>
+      </c>
+      <c r="P19" s="7" t="s">
         <v>363</v>
       </c>
-      <c r="P19" s="7" t="s">
+      <c r="Q19" s="7" t="s">
         <v>364</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>365</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -5380,13 +5362,13 @@
         <v>13325</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>365</v>
+      </c>
+      <c r="F20" s="7" t="s">
         <v>366</v>
       </c>
-      <c r="F20" s="7" t="s">
+      <c r="G20" s="7" t="s">
         <v>367</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>368</v>
       </c>
       <c r="H20" s="7">
         <v>27</v>
@@ -5395,13 +5377,13 @@
         <v>33081</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="K20" s="7" t="s">
+        <v>368</v>
+      </c>
+      <c r="L20" s="7" t="s">
         <v>369</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>370</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>371</v>
       </c>
       <c r="M20" s="7">
         <v>41</v>
@@ -5410,13 +5392,13 @@
         <v>46406</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>370</v>
+      </c>
+      <c r="P20" s="7" t="s">
+        <v>371</v>
+      </c>
+      <c r="Q20" s="7" t="s">
         <v>372</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>373</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>374</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5484,13 +5466,13 @@
         <v>89111</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>377</v>
+        <v>362</v>
       </c>
       <c r="H22" s="7">
         <v>77</v>
@@ -5499,13 +5481,13 @@
         <v>87509</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
       <c r="M22" s="7">
         <v>164</v>
@@ -5514,13 +5496,13 @@
         <v>176621</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5535,13 +5517,13 @@
         <v>110523</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>385</v>
+        <v>370</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>386</v>
+        <v>382</v>
       </c>
       <c r="H23" s="7">
         <v>95</v>
@@ -5550,13 +5532,13 @@
         <v>103944</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>388</v>
+        <v>384</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>389</v>
+        <v>385</v>
       </c>
       <c r="M23" s="7">
         <v>201</v>
@@ -5565,13 +5547,13 @@
         <v>214466</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>390</v>
+        <v>386</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>391</v>
+        <v>387</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>392</v>
+        <v>388</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -5627,7 +5609,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
     </row>
   </sheetData>
@@ -5649,7 +5631,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CE441CCE-9274-43FC-A33A-158A18825CA0}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2736B368-2FCB-4F60-AF6F-9B7DABD81DD0}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5666,7 +5648,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>393</v>
+        <v>389</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5773,13 +5755,13 @@
         <v>8376</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>394</v>
+        <v>390</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>395</v>
+        <v>391</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>396</v>
+        <v>392</v>
       </c>
       <c r="H4" s="7">
         <v>4</v>
@@ -5788,13 +5770,13 @@
         <v>10201</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>397</v>
+        <v>393</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>398</v>
+        <v>394</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>399</v>
+        <v>232</v>
       </c>
       <c r="M4" s="7">
         <v>7</v>
@@ -5803,13 +5785,13 @@
         <v>18578</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>400</v>
+        <v>395</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>401</v>
+        <v>396</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>402</v>
+        <v>397</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5824,13 +5806,13 @@
         <v>9634</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>403</v>
+        <v>398</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>404</v>
+        <v>399</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>405</v>
+        <v>400</v>
       </c>
       <c r="H5" s="7">
         <v>7</v>
@@ -5839,13 +5821,13 @@
         <v>12725</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>406</v>
+        <v>401</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>407</v>
+        <v>222</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>408</v>
+        <v>402</v>
       </c>
       <c r="M5" s="7">
         <v>12</v>
@@ -5854,13 +5836,13 @@
         <v>22358</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>409</v>
+        <v>403</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>410</v>
+        <v>404</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>411</v>
+        <v>405</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5928,13 +5910,13 @@
         <v>12406</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>412</v>
+        <v>406</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>413</v>
+        <v>407</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>414</v>
+        <v>408</v>
       </c>
       <c r="H7" s="7">
         <v>5</v>
@@ -5943,13 +5925,13 @@
         <v>5648</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>415</v>
+        <v>409</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>416</v>
+        <v>410</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>417</v>
+        <v>411</v>
       </c>
       <c r="M7" s="7">
         <v>15</v>
@@ -5958,13 +5940,13 @@
         <v>18054</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>418</v>
+        <v>412</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>419</v>
+        <v>413</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>420</v>
+        <v>414</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5979,13 +5961,13 @@
         <v>14997</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>421</v>
+        <v>415</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>422</v>
+        <v>416</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>423</v>
+        <v>417</v>
       </c>
       <c r="H8" s="7">
         <v>10</v>
@@ -5994,13 +5976,13 @@
         <v>10724</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>424</v>
+        <v>418</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>425</v>
+        <v>419</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>426</v>
+        <v>420</v>
       </c>
       <c r="M8" s="7">
         <v>19</v>
@@ -6009,13 +5991,13 @@
         <v>25721</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>427</v>
+        <v>421</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>428</v>
+        <v>422</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>429</v>
+        <v>423</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -6083,13 +6065,13 @@
         <v>10683</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>430</v>
+        <v>424</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>431</v>
+        <v>425</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>432</v>
+        <v>426</v>
       </c>
       <c r="H10" s="7">
         <v>15</v>
@@ -6098,13 +6080,13 @@
         <v>9914</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>433</v>
+        <v>427</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>434</v>
+        <v>428</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>175</v>
+        <v>429</v>
       </c>
       <c r="M10" s="7">
         <v>25</v>
@@ -6113,13 +6095,13 @@
         <v>20597</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>435</v>
+        <v>430</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>436</v>
+        <v>431</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>152</v>
+        <v>432</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -6134,13 +6116,13 @@
         <v>26623</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>437</v>
+        <v>433</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>438</v>
+        <v>434</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>439</v>
+        <v>435</v>
       </c>
       <c r="H11" s="7">
         <v>28</v>
@@ -6149,13 +6131,13 @@
         <v>19953</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>440</v>
+        <v>436</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>167</v>
+        <v>437</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>441</v>
+        <v>438</v>
       </c>
       <c r="M11" s="7">
         <v>52</v>
@@ -6164,13 +6146,13 @@
         <v>46576</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>160</v>
+        <v>440</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -6238,13 +6220,13 @@
         <v>23047</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>442</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>443</v>
+      </c>
+      <c r="G13" s="7" t="s">
         <v>444</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>445</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>446</v>
       </c>
       <c r="H13" s="7">
         <v>19</v>
@@ -6253,13 +6235,13 @@
         <v>12802</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>449</v>
+        <v>180</v>
       </c>
       <c r="M13" s="7">
         <v>38</v>
@@ -6268,13 +6250,13 @@
         <v>35848</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>450</v>
+        <v>447</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>451</v>
+        <v>448</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>452</v>
+        <v>449</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -6289,13 +6271,13 @@
         <v>29783</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>453</v>
+        <v>450</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>454</v>
+        <v>451</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>455</v>
+        <v>452</v>
       </c>
       <c r="H14" s="7">
         <v>31</v>
@@ -6304,13 +6286,13 @@
         <v>18856</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>456</v>
+        <v>453</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>457</v>
+        <v>172</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>458</v>
+        <v>454</v>
       </c>
       <c r="M14" s="7">
         <v>65</v>
@@ -6319,13 +6301,13 @@
         <v>48640</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>459</v>
+        <v>455</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>460</v>
+        <v>456</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>461</v>
+        <v>457</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -6393,13 +6375,13 @@
         <v>7084</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>462</v>
+        <v>458</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>463</v>
+        <v>459</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>464</v>
+        <v>460</v>
       </c>
       <c r="H16" s="7">
         <v>22</v>
@@ -6408,13 +6390,13 @@
         <v>14129</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>465</v>
+        <v>461</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>466</v>
+        <v>462</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>467</v>
+        <v>463</v>
       </c>
       <c r="M16" s="7">
         <v>31</v>
@@ -6423,13 +6405,13 @@
         <v>21213</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>468</v>
+        <v>464</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>469</v>
+        <v>465</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>470</v>
+        <v>466</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -6444,13 +6426,13 @@
         <v>23662</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>471</v>
+        <v>467</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>472</v>
+        <v>468</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>473</v>
+        <v>469</v>
       </c>
       <c r="H17" s="7">
         <v>40</v>
@@ -6459,13 +6441,13 @@
         <v>24067</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>474</v>
+        <v>470</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>475</v>
+        <v>471</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>476</v>
+        <v>472</v>
       </c>
       <c r="M17" s="7">
         <v>65</v>
@@ -6474,13 +6456,13 @@
         <v>47729</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>477</v>
+        <v>473</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>478</v>
+        <v>474</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>479</v>
+        <v>475</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -6536,7 +6518,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -6548,13 +6530,13 @@
         <v>15302</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>480</v>
+        <v>476</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>481</v>
+        <v>477</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>482</v>
+        <v>478</v>
       </c>
       <c r="H19" s="7">
         <v>93</v>
@@ -6563,13 +6545,13 @@
         <v>47251</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>483</v>
+        <v>479</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>484</v>
+        <v>480</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>485</v>
+        <v>481</v>
       </c>
       <c r="M19" s="7">
         <v>121</v>
@@ -6578,13 +6560,13 @@
         <v>62553</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>486</v>
+        <v>482</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>487</v>
+        <v>483</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>488</v>
+        <v>484</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -6599,13 +6581,13 @@
         <v>23365</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>489</v>
+        <v>485</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>490</v>
+        <v>486</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>491</v>
+        <v>487</v>
       </c>
       <c r="H20" s="7">
         <v>85</v>
@@ -6614,13 +6596,13 @@
         <v>46007</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>492</v>
+        <v>488</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>493</v>
+        <v>489</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>494</v>
+        <v>490</v>
       </c>
       <c r="M20" s="7">
         <v>121</v>
@@ -6629,13 +6611,13 @@
         <v>69372</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>495</v>
+        <v>491</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>496</v>
+        <v>492</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>497</v>
+        <v>493</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -6703,13 +6685,13 @@
         <v>76897</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>498</v>
+        <v>308</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>499</v>
+        <v>494</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>500</v>
+        <v>495</v>
       </c>
       <c r="H22" s="7">
         <v>158</v>
@@ -6718,13 +6700,13 @@
         <v>99945</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>501</v>
+        <v>496</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>168</v>
+        <v>497</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>502</v>
+        <v>498</v>
       </c>
       <c r="M22" s="7">
         <v>237</v>
@@ -6733,13 +6715,13 @@
         <v>176842</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>503</v>
+        <v>499</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>504</v>
+        <v>277</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>505</v>
+        <v>500</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -6754,13 +6736,13 @@
         <v>128065</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>506</v>
+        <v>318</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>507</v>
+        <v>501</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>508</v>
+        <v>502</v>
       </c>
       <c r="H23" s="7">
         <v>201</v>
@@ -6769,13 +6751,13 @@
         <v>132332</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>509</v>
+        <v>503</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>510</v>
+        <v>504</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>177</v>
+        <v>505</v>
       </c>
       <c r="M23" s="7">
         <v>334</v>
@@ -6784,13 +6766,13 @@
         <v>260397</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>511</v>
+        <v>506</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>512</v>
+        <v>507</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>513</v>
+        <v>286</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -6846,7 +6828,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P15A-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P15A-Edad-trans_orig.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7DB5ADC7-D96A-4194-A40A-2F4EB6FF5152}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{9BF08279-AD87-40D9-843E-509FBADA0632}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{3B59B7A1-6F64-4BEA-990E-F390EB717F96}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{BAC429C3-4075-403E-AC39-96CC355FAA7B}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
     <sheet name="2012" sheetId="3" r:id="rId2"/>
-    <sheet name="2015" sheetId="4" r:id="rId3"/>
+    <sheet name="2016" sheetId="4" r:id="rId3"/>
     <sheet name="2023" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="948" uniqueCount="508">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="948" uniqueCount="510">
   <si>
     <t>Población que ha tenido un accidente en los últimos tres meses que le ha causado heridas o lesiones suficientes para limitar su actividad normal y/o para necesitar asistencia sanitaria en 2007 (Tasa respuesta: 6,24%)</t>
   </si>
@@ -77,28 +77,28 @@
     <t>63,51%</t>
   </si>
   <si>
-    <t>50,72%</t>
-  </si>
-  <si>
-    <t>75,14%</t>
+    <t>50,64%</t>
+  </si>
+  <si>
+    <t>75,8%</t>
   </si>
   <si>
     <t>47,12%</t>
   </si>
   <si>
-    <t>28,52%</t>
-  </si>
-  <si>
-    <t>69,67%</t>
+    <t>25,53%</t>
+  </si>
+  <si>
+    <t>66,15%</t>
   </si>
   <si>
     <t>58,64%</t>
   </si>
   <si>
-    <t>47,77%</t>
-  </si>
-  <si>
-    <t>69,59%</t>
+    <t>47,17%</t>
+  </si>
+  <si>
+    <t>70,0%</t>
   </si>
   <si>
     <t>No</t>
@@ -107,28 +107,28 @@
     <t>36,49%</t>
   </si>
   <si>
-    <t>24,86%</t>
-  </si>
-  <si>
-    <t>49,28%</t>
+    <t>24,2%</t>
+  </si>
+  <si>
+    <t>49,36%</t>
   </si>
   <si>
     <t>52,88%</t>
   </si>
   <si>
-    <t>30,33%</t>
-  </si>
-  <si>
-    <t>71,48%</t>
+    <t>33,85%</t>
+  </si>
+  <si>
+    <t>74,47%</t>
   </si>
   <si>
     <t>41,36%</t>
   </si>
   <si>
-    <t>30,41%</t>
-  </si>
-  <si>
-    <t>52,23%</t>
+    <t>30,0%</t>
+  </si>
+  <si>
+    <t>52,83%</t>
   </si>
   <si>
     <t>100%</t>
@@ -140,19 +140,19 @@
     <t>54,15%</t>
   </si>
   <si>
-    <t>41,7%</t>
-  </si>
-  <si>
-    <t>66,13%</t>
+    <t>41,58%</t>
+  </si>
+  <si>
+    <t>65,72%</t>
   </si>
   <si>
     <t>52,6%</t>
   </si>
   <si>
-    <t>35,49%</t>
-  </si>
-  <si>
-    <t>69,04%</t>
+    <t>35,08%</t>
+  </si>
+  <si>
+    <t>69,85%</t>
   </si>
   <si>
     <t>53,6%</t>
@@ -161,1387 +161,1393 @@
     <t>43,48%</t>
   </si>
   <si>
+    <t>63,98%</t>
+  </si>
+  <si>
+    <t>45,85%</t>
+  </si>
+  <si>
+    <t>34,28%</t>
+  </si>
+  <si>
+    <t>58,42%</t>
+  </si>
+  <si>
+    <t>47,4%</t>
+  </si>
+  <si>
+    <t>30,15%</t>
+  </si>
+  <si>
+    <t>64,92%</t>
+  </si>
+  <si>
+    <t>46,4%</t>
+  </si>
+  <si>
+    <t>36,02%</t>
+  </si>
+  <si>
+    <t>56,52%</t>
+  </si>
+  <si>
+    <t>35/44</t>
+  </si>
+  <si>
+    <t>32,54%</t>
+  </si>
+  <si>
+    <t>19,72%</t>
+  </si>
+  <si>
+    <t>47,34%</t>
+  </si>
+  <si>
+    <t>66,56%</t>
+  </si>
+  <si>
+    <t>43,41%</t>
+  </si>
+  <si>
+    <t>85,72%</t>
+  </si>
+  <si>
+    <t>42,92%</t>
+  </si>
+  <si>
+    <t>31,72%</t>
+  </si>
+  <si>
+    <t>56,55%</t>
+  </si>
+  <si>
+    <t>67,46%</t>
+  </si>
+  <si>
+    <t>52,66%</t>
+  </si>
+  <si>
+    <t>80,28%</t>
+  </si>
+  <si>
+    <t>33,44%</t>
+  </si>
+  <si>
+    <t>14,28%</t>
+  </si>
+  <si>
+    <t>56,59%</t>
+  </si>
+  <si>
+    <t>57,08%</t>
+  </si>
+  <si>
+    <t>43,45%</t>
+  </si>
+  <si>
+    <t>68,28%</t>
+  </si>
+  <si>
+    <t>45/54</t>
+  </si>
+  <si>
+    <t>47,49%</t>
+  </si>
+  <si>
+    <t>31,16%</t>
+  </si>
+  <si>
+    <t>64,38%</t>
+  </si>
+  <si>
+    <t>48,6%</t>
+  </si>
+  <si>
+    <t>25,78%</t>
+  </si>
+  <si>
+    <t>70,94%</t>
+  </si>
+  <si>
+    <t>47,85%</t>
+  </si>
+  <si>
+    <t>35,13%</t>
+  </si>
+  <si>
+    <t>60,04%</t>
+  </si>
+  <si>
+    <t>52,51%</t>
+  </si>
+  <si>
+    <t>35,62%</t>
+  </si>
+  <si>
+    <t>68,84%</t>
+  </si>
+  <si>
+    <t>51,4%</t>
+  </si>
+  <si>
+    <t>29,06%</t>
+  </si>
+  <si>
+    <t>74,22%</t>
+  </si>
+  <si>
+    <t>52,15%</t>
+  </si>
+  <si>
+    <t>39,96%</t>
+  </si>
+  <si>
+    <t>64,87%</t>
+  </si>
+  <si>
+    <t>55/64</t>
+  </si>
+  <si>
+    <t>49,75%</t>
+  </si>
+  <si>
+    <t>27,07%</t>
+  </si>
+  <si>
+    <t>74,37%</t>
+  </si>
+  <si>
+    <t>55,44%</t>
+  </si>
+  <si>
+    <t>30,43%</t>
+  </si>
+  <si>
+    <t>77,48%</t>
+  </si>
+  <si>
+    <t>52,52%</t>
+  </si>
+  <si>
+    <t>36,75%</t>
+  </si>
+  <si>
+    <t>67,71%</t>
+  </si>
+  <si>
+    <t>50,25%</t>
+  </si>
+  <si>
+    <t>25,63%</t>
+  </si>
+  <si>
+    <t>72,93%</t>
+  </si>
+  <si>
+    <t>44,56%</t>
+  </si>
+  <si>
+    <t>22,52%</t>
+  </si>
+  <si>
+    <t>69,57%</t>
+  </si>
+  <si>
+    <t>47,48%</t>
+  </si>
+  <si>
+    <t>32,29%</t>
+  </si>
+  <si>
+    <t>63,25%</t>
+  </si>
+  <si>
+    <t>65 y más</t>
+  </si>
+  <si>
+    <t>54,03%</t>
+  </si>
+  <si>
+    <t>33,3%</t>
+  </si>
+  <si>
+    <t>75,3%</t>
+  </si>
+  <si>
+    <t>53,03%</t>
+  </si>
+  <si>
+    <t>41,41%</t>
+  </si>
+  <si>
+    <t>66,5%</t>
+  </si>
+  <si>
+    <t>53,27%</t>
+  </si>
+  <si>
+    <t>42,18%</t>
+  </si>
+  <si>
+    <t>65,39%</t>
+  </si>
+  <si>
+    <t>45,97%</t>
+  </si>
+  <si>
+    <t>24,7%</t>
+  </si>
+  <si>
+    <t>66,7%</t>
+  </si>
+  <si>
+    <t>46,97%</t>
+  </si>
+  <si>
+    <t>33,5%</t>
+  </si>
+  <si>
+    <t>58,59%</t>
+  </si>
+  <si>
+    <t>46,73%</t>
+  </si>
+  <si>
+    <t>34,61%</t>
+  </si>
+  <si>
+    <t>57,82%</t>
+  </si>
+  <si>
+    <t>44,1%</t>
+  </si>
+  <si>
+    <t>56,81%</t>
+  </si>
+  <si>
+    <t>53,48%</t>
+  </si>
+  <si>
+    <t>45,42%</t>
+  </si>
+  <si>
+    <t>60,77%</t>
+  </si>
+  <si>
+    <t>51,83%</t>
+  </si>
+  <si>
+    <t>47,31%</t>
+  </si>
+  <si>
+    <t>56,83%</t>
+  </si>
+  <si>
+    <t>43,19%</t>
+  </si>
+  <si>
+    <t>55,9%</t>
+  </si>
+  <si>
+    <t>46,52%</t>
+  </si>
+  <si>
+    <t>39,23%</t>
+  </si>
+  <si>
+    <t>54,58%</t>
+  </si>
+  <si>
+    <t>48,17%</t>
+  </si>
+  <si>
+    <t>43,17%</t>
+  </si>
+  <si>
+    <t>52,69%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población que ha tenido un accidente en los últimos tres meses que le ha causado heridas o lesiones suficientes para limitar su actividad normal y/o para necesitar asistencia sanitaria en 2012 (Tasa respuesta: 7,95%)</t>
+  </si>
+  <si>
+    <t>23,63%</t>
+  </si>
+  <si>
+    <t>46,88%</t>
+  </si>
+  <si>
+    <t>28,35%</t>
+  </si>
+  <si>
+    <t>14,97%</t>
+  </si>
+  <si>
+    <t>45,24%</t>
+  </si>
+  <si>
+    <t>32,44%</t>
+  </si>
+  <si>
+    <t>24,1%</t>
+  </si>
+  <si>
+    <t>42,08%</t>
+  </si>
+  <si>
+    <t>53,12%</t>
+  </si>
+  <si>
+    <t>76,37%</t>
+  </si>
+  <si>
+    <t>71,65%</t>
+  </si>
+  <si>
+    <t>54,76%</t>
+  </si>
+  <si>
+    <t>85,03%</t>
+  </si>
+  <si>
+    <t>67,56%</t>
+  </si>
+  <si>
+    <t>57,92%</t>
+  </si>
+  <si>
+    <t>75,9%</t>
+  </si>
+  <si>
+    <t>40,43%</t>
+  </si>
+  <si>
+    <t>29,68%</t>
+  </si>
+  <si>
+    <t>52,41%</t>
+  </si>
+  <si>
+    <t>31,57%</t>
+  </si>
+  <si>
+    <t>16,62%</t>
+  </si>
+  <si>
+    <t>49,97%</t>
+  </si>
+  <si>
+    <t>37,58%</t>
+  </si>
+  <si>
+    <t>28,65%</t>
+  </si>
+  <si>
+    <t>47,69%</t>
+  </si>
+  <si>
+    <t>59,57%</t>
+  </si>
+  <si>
+    <t>47,59%</t>
+  </si>
+  <si>
+    <t>70,32%</t>
+  </si>
+  <si>
+    <t>68,43%</t>
+  </si>
+  <si>
+    <t>50,03%</t>
+  </si>
+  <si>
+    <t>83,38%</t>
+  </si>
+  <si>
+    <t>62,42%</t>
+  </si>
+  <si>
+    <t>52,31%</t>
+  </si>
+  <si>
+    <t>71,35%</t>
+  </si>
+  <si>
+    <t>27,34%</t>
+  </si>
+  <si>
+    <t>16,0%</t>
+  </si>
+  <si>
+    <t>41,32%</t>
+  </si>
+  <si>
+    <t>23,06%</t>
+  </si>
+  <si>
+    <t>60,48%</t>
+  </si>
+  <si>
+    <t>31,41%</t>
+  </si>
+  <si>
+    <t>21,18%</t>
+  </si>
+  <si>
+    <t>42,52%</t>
+  </si>
+  <si>
+    <t>72,66%</t>
+  </si>
+  <si>
+    <t>58,68%</t>
+  </si>
+  <si>
+    <t>84,0%</t>
+  </si>
+  <si>
+    <t>39,52%</t>
+  </si>
+  <si>
+    <t>76,94%</t>
+  </si>
+  <si>
+    <t>68,59%</t>
+  </si>
+  <si>
+    <t>57,48%</t>
+  </si>
+  <si>
+    <t>78,82%</t>
+  </si>
+  <si>
+    <t>21,91%</t>
+  </si>
+  <si>
+    <t>10,98%</t>
+  </si>
+  <si>
+    <t>39,13%</t>
+  </si>
+  <si>
+    <t>54,36%</t>
+  </si>
+  <si>
+    <t>37,29%</t>
+  </si>
+  <si>
+    <t>72,03%</t>
+  </si>
+  <si>
+    <t>37,89%</t>
+  </si>
+  <si>
+    <t>26,36%</t>
+  </si>
+  <si>
+    <t>50,28%</t>
+  </si>
+  <si>
+    <t>78,09%</t>
+  </si>
+  <si>
+    <t>60,87%</t>
+  </si>
+  <si>
+    <t>89,02%</t>
+  </si>
+  <si>
+    <t>45,64%</t>
+  </si>
+  <si>
+    <t>27,97%</t>
+  </si>
+  <si>
+    <t>62,71%</t>
+  </si>
+  <si>
+    <t>62,11%</t>
+  </si>
+  <si>
+    <t>49,72%</t>
+  </si>
+  <si>
+    <t>73,64%</t>
+  </si>
+  <si>
+    <t>33,83%</t>
+  </si>
+  <si>
+    <t>8,79%</t>
+  </si>
+  <si>
+    <t>59,8%</t>
+  </si>
+  <si>
+    <t>33,39%</t>
+  </si>
+  <si>
+    <t>19,43%</t>
+  </si>
+  <si>
+    <t>48,61%</t>
+  </si>
+  <si>
+    <t>33,49%</t>
+  </si>
+  <si>
+    <t>21,94%</t>
+  </si>
+  <si>
+    <t>47,99%</t>
+  </si>
+  <si>
+    <t>66,17%</t>
+  </si>
+  <si>
+    <t>40,2%</t>
+  </si>
+  <si>
+    <t>91,21%</t>
+  </si>
+  <si>
+    <t>66,61%</t>
+  </si>
+  <si>
+    <t>51,39%</t>
+  </si>
+  <si>
+    <t>80,57%</t>
+  </si>
+  <si>
+    <t>66,51%</t>
+  </si>
+  <si>
+    <t>52,01%</t>
+  </si>
+  <si>
+    <t>78,06%</t>
+  </si>
+  <si>
+    <t>41,73%</t>
+  </si>
+  <si>
+    <t>27,84%</t>
+  </si>
+  <si>
+    <t>59,13%</t>
+  </si>
+  <si>
+    <t>40,17%</t>
+  </si>
+  <si>
+    <t>29,46%</t>
+  </si>
+  <si>
+    <t>50,97%</t>
+  </si>
+  <si>
+    <t>40,69%</t>
+  </si>
+  <si>
+    <t>31,26%</t>
+  </si>
+  <si>
+    <t>49,26%</t>
+  </si>
+  <si>
+    <t>58,27%</t>
+  </si>
+  <si>
+    <t>40,87%</t>
+  </si>
+  <si>
+    <t>72,16%</t>
+  </si>
+  <si>
+    <t>59,83%</t>
+  </si>
+  <si>
+    <t>49,03%</t>
+  </si>
+  <si>
+    <t>70,54%</t>
+  </si>
+  <si>
+    <t>59,31%</t>
+  </si>
+  <si>
+    <t>50,74%</t>
+  </si>
+  <si>
+    <t>68,74%</t>
+  </si>
+  <si>
+    <t>34,15%</t>
+  </si>
+  <si>
+    <t>28,54%</t>
+  </si>
+  <si>
+    <t>39,59%</t>
+  </si>
+  <si>
+    <t>38,19%</t>
+  </si>
+  <si>
+    <t>32,33%</t>
+  </si>
+  <si>
+    <t>44,59%</t>
+  </si>
+  <si>
+    <t>36,06%</t>
+  </si>
+  <si>
+    <t>32,03%</t>
+  </si>
+  <si>
+    <t>40,8%</t>
+  </si>
+  <si>
+    <t>65,85%</t>
+  </si>
+  <si>
+    <t>60,41%</t>
+  </si>
+  <si>
+    <t>71,46%</t>
+  </si>
+  <si>
+    <t>61,81%</t>
+  </si>
+  <si>
+    <t>55,41%</t>
+  </si>
+  <si>
+    <t>67,67%</t>
+  </si>
+  <si>
     <t>63,94%</t>
   </si>
   <si>
-    <t>45,85%</t>
-  </si>
-  <si>
-    <t>33,87%</t>
-  </si>
-  <si>
-    <t>58,3%</t>
-  </si>
-  <si>
-    <t>47,4%</t>
-  </si>
-  <si>
-    <t>30,96%</t>
-  </si>
-  <si>
-    <t>64,51%</t>
-  </si>
-  <si>
-    <t>46,4%</t>
-  </si>
-  <si>
-    <t>36,06%</t>
-  </si>
-  <si>
-    <t>56,52%</t>
-  </si>
-  <si>
-    <t>35/44</t>
-  </si>
-  <si>
-    <t>32,54%</t>
-  </si>
-  <si>
-    <t>19,64%</t>
-  </si>
-  <si>
-    <t>46,88%</t>
-  </si>
-  <si>
-    <t>66,56%</t>
-  </si>
-  <si>
-    <t>44,51%</t>
-  </si>
-  <si>
-    <t>85,28%</t>
-  </si>
-  <si>
-    <t>42,92%</t>
-  </si>
-  <si>
-    <t>31,21%</t>
-  </si>
-  <si>
-    <t>56,06%</t>
-  </si>
-  <si>
-    <t>67,46%</t>
-  </si>
-  <si>
-    <t>53,12%</t>
-  </si>
-  <si>
-    <t>80,36%</t>
-  </si>
-  <si>
-    <t>33,44%</t>
-  </si>
-  <si>
-    <t>14,72%</t>
-  </si>
-  <si>
-    <t>55,49%</t>
-  </si>
-  <si>
-    <t>57,08%</t>
-  </si>
-  <si>
-    <t>43,94%</t>
-  </si>
-  <si>
-    <t>68,79%</t>
-  </si>
-  <si>
-    <t>45/54</t>
-  </si>
-  <si>
-    <t>47,49%</t>
-  </si>
-  <si>
-    <t>32,1%</t>
-  </si>
-  <si>
-    <t>65,69%</t>
-  </si>
-  <si>
-    <t>48,6%</t>
-  </si>
-  <si>
-    <t>25,82%</t>
-  </si>
-  <si>
-    <t>70,53%</t>
-  </si>
-  <si>
-    <t>47,85%</t>
-  </si>
-  <si>
-    <t>34,72%</t>
-  </si>
-  <si>
-    <t>61,64%</t>
-  </si>
-  <si>
-    <t>52,51%</t>
-  </si>
-  <si>
-    <t>34,31%</t>
-  </si>
-  <si>
-    <t>67,9%</t>
-  </si>
-  <si>
-    <t>51,4%</t>
-  </si>
-  <si>
-    <t>29,47%</t>
-  </si>
-  <si>
-    <t>74,18%</t>
-  </si>
-  <si>
-    <t>52,15%</t>
-  </si>
-  <si>
-    <t>38,36%</t>
-  </si>
-  <si>
-    <t>65,28%</t>
-  </si>
-  <si>
-    <t>55/64</t>
-  </si>
-  <si>
-    <t>49,75%</t>
-  </si>
-  <si>
-    <t>24,93%</t>
-  </si>
-  <si>
-    <t>71,39%</t>
-  </si>
-  <si>
-    <t>55,44%</t>
-  </si>
-  <si>
-    <t>31,44%</t>
-  </si>
-  <si>
-    <t>77,08%</t>
-  </si>
-  <si>
-    <t>52,52%</t>
-  </si>
-  <si>
-    <t>35,96%</t>
-  </si>
-  <si>
-    <t>68,96%</t>
-  </si>
-  <si>
-    <t>50,25%</t>
-  </si>
-  <si>
-    <t>28,61%</t>
-  </si>
-  <si>
-    <t>75,07%</t>
-  </si>
-  <si>
-    <t>44,56%</t>
-  </si>
-  <si>
-    <t>22,92%</t>
-  </si>
-  <si>
-    <t>68,56%</t>
-  </si>
-  <si>
-    <t>47,48%</t>
-  </si>
-  <si>
-    <t>31,04%</t>
-  </si>
-  <si>
-    <t>64,04%</t>
-  </si>
-  <si>
-    <t>65 y más</t>
-  </si>
-  <si>
-    <t>54,03%</t>
-  </si>
-  <si>
-    <t>31,03%</t>
-  </si>
-  <si>
-    <t>75,87%</t>
-  </si>
-  <si>
-    <t>53,03%</t>
-  </si>
-  <si>
-    <t>40,23%</t>
-  </si>
-  <si>
-    <t>65,23%</t>
-  </si>
-  <si>
-    <t>53,27%</t>
+    <t>59,2%</t>
+  </si>
+  <si>
+    <t>67,97%</t>
+  </si>
+  <si>
+    <t>Población que ha tenido un accidente en los últimos tres meses que le ha causado heridas o lesiones suficientes para limitar su actividad normal y/o para necesitar asistencia sanitaria en 2016 (Tasa respuesta: 5,56%)</t>
+  </si>
+  <si>
+    <t>39,47%</t>
+  </si>
+  <si>
+    <t>24,41%</t>
+  </si>
+  <si>
+    <t>55,5%</t>
+  </si>
+  <si>
+    <t>27,25%</t>
+  </si>
+  <si>
+    <t>10,91%</t>
+  </si>
+  <si>
+    <t>52,27%</t>
+  </si>
+  <si>
+    <t>35,88%</t>
+  </si>
+  <si>
+    <t>25,12%</t>
+  </si>
+  <si>
+    <t>47,88%</t>
+  </si>
+  <si>
+    <t>60,53%</t>
+  </si>
+  <si>
+    <t>44,5%</t>
+  </si>
+  <si>
+    <t>75,59%</t>
+  </si>
+  <si>
+    <t>72,75%</t>
+  </si>
+  <si>
+    <t>47,73%</t>
+  </si>
+  <si>
+    <t>89,09%</t>
+  </si>
+  <si>
+    <t>64,12%</t>
+  </si>
+  <si>
+    <t>52,12%</t>
+  </si>
+  <si>
+    <t>74,88%</t>
+  </si>
+  <si>
+    <t>43,52%</t>
+  </si>
+  <si>
+    <t>30,28%</t>
+  </si>
+  <si>
+    <t>57,56%</t>
+  </si>
+  <si>
+    <t>40,71%</t>
+  </si>
+  <si>
+    <t>18,4%</t>
+  </si>
+  <si>
+    <t>60,76%</t>
+  </si>
+  <si>
+    <t>42,65%</t>
+  </si>
+  <si>
+    <t>33,14%</t>
+  </si>
+  <si>
+    <t>55,31%</t>
+  </si>
+  <si>
+    <t>56,48%</t>
+  </si>
+  <si>
+    <t>42,44%</t>
+  </si>
+  <si>
+    <t>69,72%</t>
+  </si>
+  <si>
+    <t>59,29%</t>
+  </si>
+  <si>
+    <t>39,24%</t>
+  </si>
+  <si>
+    <t>81,6%</t>
+  </si>
+  <si>
+    <t>57,35%</t>
+  </si>
+  <si>
+    <t>44,69%</t>
+  </si>
+  <si>
+    <t>66,86%</t>
+  </si>
+  <si>
+    <t>56,5%</t>
+  </si>
+  <si>
+    <t>38,53%</t>
+  </si>
+  <si>
+    <t>73,73%</t>
+  </si>
+  <si>
+    <t>44,77%</t>
+  </si>
+  <si>
+    <t>23,55%</t>
+  </si>
+  <si>
+    <t>66,05%</t>
+  </si>
+  <si>
+    <t>51,68%</t>
+  </si>
+  <si>
+    <t>38,55%</t>
+  </si>
+  <si>
+    <t>65,33%</t>
+  </si>
+  <si>
+    <t>43,5%</t>
+  </si>
+  <si>
+    <t>26,27%</t>
+  </si>
+  <si>
+    <t>61,47%</t>
+  </si>
+  <si>
+    <t>55,23%</t>
+  </si>
+  <si>
+    <t>33,95%</t>
+  </si>
+  <si>
+    <t>76,45%</t>
+  </si>
+  <si>
+    <t>48,32%</t>
+  </si>
+  <si>
+    <t>34,67%</t>
+  </si>
+  <si>
+    <t>61,45%</t>
+  </si>
+  <si>
+    <t>43,22%</t>
+  </si>
+  <si>
+    <t>26,18%</t>
+  </si>
+  <si>
+    <t>65,43%</t>
+  </si>
+  <si>
+    <t>41,38%</t>
+  </si>
+  <si>
+    <t>23,14%</t>
+  </si>
+  <si>
+    <t>65,36%</t>
+  </si>
+  <si>
+    <t>42,38%</t>
+  </si>
+  <si>
+    <t>29,37%</t>
+  </si>
+  <si>
+    <t>56,75%</t>
+  </si>
+  <si>
+    <t>56,78%</t>
+  </si>
+  <si>
+    <t>34,57%</t>
+  </si>
+  <si>
+    <t>73,82%</t>
+  </si>
+  <si>
+    <t>58,62%</t>
+  </si>
+  <si>
+    <t>34,64%</t>
+  </si>
+  <si>
+    <t>76,86%</t>
+  </si>
+  <si>
+    <t>57,62%</t>
+  </si>
+  <si>
+    <t>43,25%</t>
+  </si>
+  <si>
+    <t>70,63%</t>
+  </si>
+  <si>
+    <t>29,35%</t>
+  </si>
+  <si>
+    <t>7,33%</t>
+  </si>
+  <si>
+    <t>59,76%</t>
+  </si>
+  <si>
+    <t>27,01%</t>
+  </si>
+  <si>
+    <t>67,09%</t>
   </si>
   <si>
     <t>41,76%</t>
   </si>
   <si>
-    <t>64,03%</t>
-  </si>
-  <si>
-    <t>45,97%</t>
-  </si>
-  <si>
-    <t>24,13%</t>
-  </si>
-  <si>
-    <t>68,97%</t>
-  </si>
-  <si>
-    <t>46,97%</t>
-  </si>
-  <si>
-    <t>34,77%</t>
-  </si>
-  <si>
-    <t>59,77%</t>
-  </si>
-  <si>
-    <t>46,73%</t>
-  </si>
-  <si>
-    <t>35,97%</t>
+    <t>26,03%</t>
+  </si>
+  <si>
+    <t>57,39%</t>
+  </si>
+  <si>
+    <t>70,65%</t>
+  </si>
+  <si>
+    <t>40,24%</t>
+  </si>
+  <si>
+    <t>92,67%</t>
+  </si>
+  <si>
+    <t>32,91%</t>
+  </si>
+  <si>
+    <t>72,99%</t>
   </si>
   <si>
     <t>58,24%</t>
   </si>
   <si>
-    <t>50,64%</t>
-  </si>
-  <si>
-    <t>43,77%</t>
-  </si>
-  <si>
-    <t>57,25%</t>
-  </si>
-  <si>
-    <t>53,48%</t>
-  </si>
-  <si>
-    <t>45,77%</t>
-  </si>
-  <si>
-    <t>60,8%</t>
-  </si>
-  <si>
-    <t>51,83%</t>
-  </si>
-  <si>
-    <t>46,99%</t>
-  </si>
-  <si>
-    <t>56,99%</t>
-  </si>
-  <si>
-    <t>49,36%</t>
-  </si>
-  <si>
-    <t>42,75%</t>
-  </si>
-  <si>
-    <t>56,23%</t>
-  </si>
-  <si>
-    <t>46,52%</t>
-  </si>
-  <si>
-    <t>39,2%</t>
-  </si>
-  <si>
-    <t>54,23%</t>
-  </si>
-  <si>
-    <t>48,17%</t>
-  </si>
-  <si>
-    <t>43,01%</t>
-  </si>
-  <si>
-    <t>53,01%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población que ha tenido un accidente en los últimos tres meses que le ha causado heridas o lesiones suficientes para limitar su actividad normal y/o para necesitar asistencia sanitaria en 2012 (Tasa respuesta: 7,95%)</t>
-  </si>
-  <si>
-    <t>34,61%</t>
-  </si>
-  <si>
-    <t>24,0%</t>
+    <t>42,61%</t>
+  </si>
+  <si>
+    <t>73,97%</t>
+  </si>
+  <si>
+    <t>48,98%</t>
+  </si>
+  <si>
+    <t>30,59%</t>
+  </si>
+  <si>
+    <t>66,48%</t>
+  </si>
+  <si>
+    <t>53,16%</t>
+  </si>
+  <si>
+    <t>40,36%</t>
+  </si>
+  <si>
+    <t>66,2%</t>
+  </si>
+  <si>
+    <t>52,03%</t>
+  </si>
+  <si>
+    <t>51,02%</t>
+  </si>
+  <si>
+    <t>33,52%</t>
+  </si>
+  <si>
+    <t>69,41%</t>
   </si>
   <si>
     <t>46,84%</t>
   </si>
   <si>
-    <t>28,35%</t>
-  </si>
-  <si>
-    <t>15,21%</t>
-  </si>
-  <si>
-    <t>48,28%</t>
-  </si>
-  <si>
-    <t>32,44%</t>
-  </si>
-  <si>
-    <t>23,1%</t>
-  </si>
-  <si>
-    <t>41,66%</t>
-  </si>
-  <si>
-    <t>65,39%</t>
-  </si>
-  <si>
-    <t>53,16%</t>
-  </si>
-  <si>
-    <t>76,0%</t>
-  </si>
-  <si>
-    <t>71,65%</t>
-  </si>
-  <si>
-    <t>51,72%</t>
-  </si>
-  <si>
-    <t>84,79%</t>
-  </si>
-  <si>
-    <t>67,56%</t>
-  </si>
-  <si>
-    <t>58,34%</t>
-  </si>
-  <si>
-    <t>76,9%</t>
-  </si>
-  <si>
-    <t>40,43%</t>
-  </si>
-  <si>
-    <t>29,51%</t>
-  </si>
-  <si>
-    <t>52,12%</t>
-  </si>
-  <si>
-    <t>31,57%</t>
-  </si>
-  <si>
-    <t>17,35%</t>
-  </si>
-  <si>
-    <t>51,03%</t>
-  </si>
-  <si>
-    <t>37,58%</t>
-  </si>
-  <si>
-    <t>27,73%</t>
+    <t>33,8%</t>
+  </si>
+  <si>
+    <t>59,64%</t>
+  </si>
+  <si>
+    <t>47,97%</t>
+  </si>
+  <si>
+    <t>44,64%</t>
+  </si>
+  <si>
+    <t>37,56%</t>
+  </si>
+  <si>
+    <t>51,63%</t>
+  </si>
+  <si>
+    <t>45,71%</t>
+  </si>
+  <si>
+    <t>37,66%</t>
+  </si>
+  <si>
+    <t>52,57%</t>
+  </si>
+  <si>
+    <t>45,16%</t>
+  </si>
+  <si>
+    <t>40,02%</t>
+  </si>
+  <si>
+    <t>50,82%</t>
+  </si>
+  <si>
+    <t>55,36%</t>
+  </si>
+  <si>
+    <t>48,37%</t>
+  </si>
+  <si>
+    <t>62,44%</t>
+  </si>
+  <si>
+    <t>54,29%</t>
+  </si>
+  <si>
+    <t>47,43%</t>
+  </si>
+  <si>
+    <t>62,34%</t>
+  </si>
+  <si>
+    <t>54,84%</t>
+  </si>
+  <si>
+    <t>49,18%</t>
+  </si>
+  <si>
+    <t>59,98%</t>
+  </si>
+  <si>
+    <t>Población que ha tenido un accidente en los últimos tres meses que le ha causado heridas o lesiones suficientes para limitar su actividad normal y/o para necesitar asistencia sanitaria en 2023 (Tasa respuesta: 6,53%)</t>
+  </si>
+  <si>
+    <t>46,51%</t>
+  </si>
+  <si>
+    <t>12,48%</t>
+  </si>
+  <si>
+    <t>85,85%</t>
+  </si>
+  <si>
+    <t>13,27%</t>
+  </si>
+  <si>
+    <t>79,61%</t>
+  </si>
+  <si>
+    <t>45,38%</t>
+  </si>
+  <si>
+    <t>20,96%</t>
+  </si>
+  <si>
+    <t>72,15%</t>
+  </si>
+  <si>
+    <t>53,49%</t>
+  </si>
+  <si>
+    <t>14,15%</t>
+  </si>
+  <si>
+    <t>87,52%</t>
+  </si>
+  <si>
+    <t>20,39%</t>
+  </si>
+  <si>
+    <t>86,73%</t>
+  </si>
+  <si>
+    <t>54,62%</t>
+  </si>
+  <si>
+    <t>27,85%</t>
+  </si>
+  <si>
+    <t>79,04%</t>
+  </si>
+  <si>
+    <t>45,27%</t>
+  </si>
+  <si>
+    <t>21,3%</t>
+  </si>
+  <si>
+    <t>70,76%</t>
+  </si>
+  <si>
+    <t>34,5%</t>
+  </si>
+  <si>
+    <t>13,62%</t>
+  </si>
+  <si>
+    <t>61,6%</t>
+  </si>
+  <si>
+    <t>41,24%</t>
+  </si>
+  <si>
+    <t>22,51%</t>
+  </si>
+  <si>
+    <t>59,3%</t>
+  </si>
+  <si>
+    <t>54,73%</t>
+  </si>
+  <si>
+    <t>29,24%</t>
+  </si>
+  <si>
+    <t>78,7%</t>
+  </si>
+  <si>
+    <t>65,5%</t>
+  </si>
+  <si>
+    <t>38,4%</t>
+  </si>
+  <si>
+    <t>86,38%</t>
+  </si>
+  <si>
+    <t>58,76%</t>
+  </si>
+  <si>
+    <t>40,7%</t>
+  </si>
+  <si>
+    <t>77,49%</t>
+  </si>
+  <si>
+    <t>28,64%</t>
+  </si>
+  <si>
+    <t>14,91%</t>
+  </si>
+  <si>
+    <t>46,42%</t>
+  </si>
+  <si>
+    <t>33,19%</t>
+  </si>
+  <si>
+    <t>20,14%</t>
+  </si>
+  <si>
+    <t>50,08%</t>
+  </si>
+  <si>
+    <t>30,66%</t>
+  </si>
+  <si>
+    <t>21,12%</t>
+  </si>
+  <si>
+    <t>43,26%</t>
+  </si>
+  <si>
+    <t>71,36%</t>
+  </si>
+  <si>
+    <t>53,58%</t>
+  </si>
+  <si>
+    <t>85,09%</t>
+  </si>
+  <si>
+    <t>66,81%</t>
+  </si>
+  <si>
+    <t>49,92%</t>
+  </si>
+  <si>
+    <t>79,86%</t>
+  </si>
+  <si>
+    <t>69,34%</t>
+  </si>
+  <si>
+    <t>56,74%</t>
+  </si>
+  <si>
+    <t>78,88%</t>
+  </si>
+  <si>
+    <t>43,62%</t>
+  </si>
+  <si>
+    <t>29,88%</t>
+  </si>
+  <si>
+    <t>58,54%</t>
+  </si>
+  <si>
+    <t>40,44%</t>
+  </si>
+  <si>
+    <t>25,08%</t>
+  </si>
+  <si>
+    <t>54,59%</t>
+  </si>
+  <si>
+    <t>42,43%</t>
+  </si>
+  <si>
+    <t>32,05%</t>
+  </si>
+  <si>
+    <t>52,97%</t>
+  </si>
+  <si>
+    <t>56,38%</t>
+  </si>
+  <si>
+    <t>41,46%</t>
+  </si>
+  <si>
+    <t>70,12%</t>
+  </si>
+  <si>
+    <t>59,56%</t>
   </si>
   <si>
     <t>45,41%</t>
   </si>
   <si>
-    <t>59,57%</t>
-  </si>
-  <si>
-    <t>47,88%</t>
-  </si>
-  <si>
-    <t>70,49%</t>
-  </si>
-  <si>
-    <t>68,43%</t>
-  </si>
-  <si>
-    <t>48,97%</t>
-  </si>
-  <si>
-    <t>82,65%</t>
-  </si>
-  <si>
-    <t>62,42%</t>
-  </si>
-  <si>
-    <t>54,59%</t>
-  </si>
-  <si>
-    <t>72,27%</t>
-  </si>
-  <si>
-    <t>27,34%</t>
-  </si>
-  <si>
-    <t>15,6%</t>
-  </si>
-  <si>
-    <t>41,71%</t>
-  </si>
-  <si>
-    <t>39,23%</t>
-  </si>
-  <si>
-    <t>23,05%</t>
-  </si>
-  <si>
-    <t>59,64%</t>
-  </si>
-  <si>
-    <t>31,41%</t>
-  </si>
-  <si>
-    <t>21,64%</t>
-  </si>
-  <si>
-    <t>43,74%</t>
-  </si>
-  <si>
-    <t>72,66%</t>
-  </si>
-  <si>
-    <t>58,29%</t>
-  </si>
-  <si>
-    <t>84,4%</t>
-  </si>
-  <si>
-    <t>60,77%</t>
-  </si>
-  <si>
-    <t>40,36%</t>
-  </si>
-  <si>
-    <t>76,95%</t>
-  </si>
-  <si>
-    <t>68,59%</t>
-  </si>
-  <si>
-    <t>56,26%</t>
-  </si>
-  <si>
-    <t>78,36%</t>
-  </si>
-  <si>
-    <t>21,91%</t>
-  </si>
-  <si>
-    <t>10,64%</t>
-  </si>
-  <si>
-    <t>36,48%</t>
-  </si>
-  <si>
-    <t>54,36%</t>
-  </si>
-  <si>
-    <t>37,92%</t>
-  </si>
-  <si>
-    <t>72,53%</t>
-  </si>
-  <si>
-    <t>37,89%</t>
-  </si>
-  <si>
-    <t>26,82%</t>
-  </si>
-  <si>
-    <t>50,33%</t>
-  </si>
-  <si>
-    <t>78,09%</t>
-  </si>
-  <si>
-    <t>63,52%</t>
-  </si>
-  <si>
-    <t>89,36%</t>
-  </si>
-  <si>
-    <t>45,64%</t>
-  </si>
-  <si>
-    <t>27,47%</t>
-  </si>
-  <si>
-    <t>62,08%</t>
-  </si>
-  <si>
-    <t>62,11%</t>
-  </si>
-  <si>
-    <t>49,67%</t>
-  </si>
-  <si>
-    <t>73,18%</t>
-  </si>
-  <si>
-    <t>33,83%</t>
-  </si>
-  <si>
-    <t>8,66%</t>
-  </si>
-  <si>
-    <t>66,72%</t>
-  </si>
-  <si>
-    <t>33,39%</t>
-  </si>
-  <si>
-    <t>20,39%</t>
-  </si>
-  <si>
-    <t>47,65%</t>
-  </si>
-  <si>
-    <t>33,49%</t>
-  </si>
-  <si>
-    <t>21,93%</t>
-  </si>
-  <si>
-    <t>48,0%</t>
-  </si>
-  <si>
-    <t>66,17%</t>
-  </si>
-  <si>
-    <t>33,28%</t>
-  </si>
-  <si>
-    <t>91,34%</t>
-  </si>
-  <si>
-    <t>66,61%</t>
-  </si>
-  <si>
-    <t>52,35%</t>
-  </si>
-  <si>
-    <t>79,61%</t>
-  </si>
-  <si>
-    <t>66,51%</t>
-  </si>
-  <si>
-    <t>52,0%</t>
-  </si>
-  <si>
-    <t>78,07%</t>
-  </si>
-  <si>
-    <t>41,73%</t>
-  </si>
-  <si>
-    <t>26,27%</t>
-  </si>
-  <si>
-    <t>58,84%</t>
-  </si>
-  <si>
-    <t>40,17%</t>
-  </si>
-  <si>
-    <t>29,58%</t>
-  </si>
-  <si>
-    <t>51,38%</t>
-  </si>
-  <si>
-    <t>40,69%</t>
-  </si>
-  <si>
-    <t>31,89%</t>
-  </si>
-  <si>
-    <t>49,69%</t>
-  </si>
-  <si>
-    <t>58,27%</t>
-  </si>
-  <si>
-    <t>41,16%</t>
-  </si>
-  <si>
-    <t>73,73%</t>
-  </si>
-  <si>
-    <t>59,83%</t>
-  </si>
-  <si>
-    <t>48,62%</t>
-  </si>
-  <si>
-    <t>70,42%</t>
-  </si>
-  <si>
-    <t>59,31%</t>
-  </si>
-  <si>
-    <t>50,31%</t>
-  </si>
-  <si>
-    <t>68,11%</t>
-  </si>
-  <si>
-    <t>34,15%</t>
-  </si>
-  <si>
-    <t>28,89%</t>
-  </si>
-  <si>
-    <t>39,82%</t>
-  </si>
-  <si>
-    <t>38,19%</t>
-  </si>
-  <si>
-    <t>31,81%</t>
-  </si>
-  <si>
-    <t>44,61%</t>
-  </si>
-  <si>
-    <t>32,2%</t>
-  </si>
-  <si>
-    <t>40,75%</t>
-  </si>
-  <si>
-    <t>65,85%</t>
-  </si>
-  <si>
-    <t>60,18%</t>
-  </si>
-  <si>
-    <t>71,11%</t>
-  </si>
-  <si>
-    <t>61,81%</t>
-  </si>
-  <si>
-    <t>55,39%</t>
-  </si>
-  <si>
-    <t>68,19%</t>
-  </si>
-  <si>
-    <t>59,25%</t>
-  </si>
-  <si>
-    <t>67,8%</t>
-  </si>
-  <si>
-    <t>Población que ha tenido un accidente en los últimos tres meses que le ha causado heridas o lesiones suficientes para limitar su actividad normal y/o para necesitar asistencia sanitaria en 2015 (Tasa respuesta: 5,56%)</t>
-  </si>
-  <si>
-    <t>39,47%</t>
-  </si>
-  <si>
-    <t>27,15%</t>
-  </si>
-  <si>
-    <t>55,4%</t>
-  </si>
-  <si>
-    <t>27,25%</t>
-  </si>
-  <si>
-    <t>10,71%</t>
-  </si>
-  <si>
-    <t>48,91%</t>
-  </si>
-  <si>
-    <t>35,88%</t>
-  </si>
-  <si>
-    <t>23,42%</t>
-  </si>
-  <si>
-    <t>47,94%</t>
-  </si>
-  <si>
-    <t>60,53%</t>
-  </si>
-  <si>
-    <t>44,6%</t>
-  </si>
-  <si>
-    <t>72,85%</t>
-  </si>
-  <si>
-    <t>72,75%</t>
-  </si>
-  <si>
-    <t>51,09%</t>
-  </si>
-  <si>
-    <t>89,29%</t>
-  </si>
-  <si>
-    <t>64,12%</t>
-  </si>
-  <si>
-    <t>52,06%</t>
-  </si>
-  <si>
-    <t>76,58%</t>
-  </si>
-  <si>
-    <t>43,52%</t>
-  </si>
-  <si>
-    <t>29,23%</t>
-  </si>
-  <si>
-    <t>56,63%</t>
-  </si>
-  <si>
-    <t>40,71%</t>
-  </si>
-  <si>
-    <t>21,68%</t>
-  </si>
-  <si>
-    <t>62,02%</t>
-  </si>
-  <si>
-    <t>42,65%</t>
-  </si>
-  <si>
-    <t>31,38%</t>
-  </si>
-  <si>
-    <t>53,84%</t>
-  </si>
-  <si>
-    <t>56,48%</t>
-  </si>
-  <si>
-    <t>43,37%</t>
-  </si>
-  <si>
-    <t>70,77%</t>
-  </si>
-  <si>
-    <t>59,29%</t>
-  </si>
-  <si>
-    <t>37,98%</t>
-  </si>
-  <si>
-    <t>78,32%</t>
-  </si>
-  <si>
-    <t>57,35%</t>
-  </si>
-  <si>
-    <t>46,16%</t>
-  </si>
-  <si>
-    <t>68,62%</t>
-  </si>
-  <si>
-    <t>56,5%</t>
+    <t>74,92%</t>
+  </si>
+  <si>
+    <t>57,57%</t>
+  </si>
+  <si>
+    <t>47,03%</t>
+  </si>
+  <si>
+    <t>67,95%</t>
+  </si>
+  <si>
+    <t>23,04%</t>
+  </si>
+  <si>
+    <t>12,09%</t>
+  </si>
+  <si>
+    <t>42,16%</t>
+  </si>
+  <si>
+    <t>36,99%</t>
+  </si>
+  <si>
+    <t>25,79%</t>
+  </si>
+  <si>
+    <t>49,98%</t>
+  </si>
+  <si>
+    <t>30,77%</t>
+  </si>
+  <si>
+    <t>22,22%</t>
+  </si>
+  <si>
+    <t>41,49%</t>
+  </si>
+  <si>
+    <t>76,96%</t>
+  </si>
+  <si>
+    <t>57,84%</t>
+  </si>
+  <si>
+    <t>87,91%</t>
+  </si>
+  <si>
+    <t>63,01%</t>
+  </si>
+  <si>
+    <t>50,02%</t>
+  </si>
+  <si>
+    <t>74,21%</t>
+  </si>
+  <si>
+    <t>69,23%</t>
+  </si>
+  <si>
+    <t>58,51%</t>
+  </si>
+  <si>
+    <t>77,78%</t>
+  </si>
+  <si>
+    <t>39,57%</t>
+  </si>
+  <si>
+    <t>28,55%</t>
+  </si>
+  <si>
+    <t>52,65%</t>
+  </si>
+  <si>
+    <t>50,67%</t>
+  </si>
+  <si>
+    <t>43,12%</t>
+  </si>
+  <si>
+    <t>58,26%</t>
+  </si>
+  <si>
+    <t>47,42%</t>
+  </si>
+  <si>
+    <t>41,04%</t>
+  </si>
+  <si>
+    <t>54,05%</t>
+  </si>
+  <si>
+    <t>60,43%</t>
+  </si>
+  <si>
+    <t>47,35%</t>
+  </si>
+  <si>
+    <t>71,45%</t>
+  </si>
+  <si>
+    <t>49,33%</t>
+  </si>
+  <si>
+    <t>41,74%</t>
+  </si>
+  <si>
+    <t>56,88%</t>
+  </si>
+  <si>
+    <t>52,58%</t>
+  </si>
+  <si>
+    <t>45,95%</t>
+  </si>
+  <si>
+    <t>58,96%</t>
   </si>
   <si>
     <t>37,52%</t>
   </si>
   <si>
-    <t>72,25%</t>
-  </si>
-  <si>
-    <t>44,77%</t>
-  </si>
-  <si>
-    <t>23,11%</t>
-  </si>
-  <si>
-    <t>65,25%</t>
-  </si>
-  <si>
-    <t>51,68%</t>
-  </si>
-  <si>
-    <t>37,45%</t>
-  </si>
-  <si>
-    <t>64,05%</t>
-  </si>
-  <si>
-    <t>43,5%</t>
-  </si>
-  <si>
-    <t>27,75%</t>
+    <t>30,5%</t>
+  </si>
+  <si>
+    <t>45,48%</t>
+  </si>
+  <si>
+    <t>43,03%</t>
+  </si>
+  <si>
+    <t>37,02%</t>
+  </si>
+  <si>
+    <t>49,31%</t>
+  </si>
+  <si>
+    <t>40,45%</t>
+  </si>
+  <si>
+    <t>45,35%</t>
   </si>
   <si>
     <t>62,48%</t>
-  </si>
-  <si>
-    <t>55,23%</t>
-  </si>
-  <si>
-    <t>34,75%</t>
-  </si>
-  <si>
-    <t>76,89%</t>
-  </si>
-  <si>
-    <t>48,32%</t>
-  </si>
-  <si>
-    <t>35,95%</t>
-  </si>
-  <si>
-    <t>62,55%</t>
-  </si>
-  <si>
-    <t>43,22%</t>
-  </si>
-  <si>
-    <t>25,18%</t>
-  </si>
-  <si>
-    <t>64,97%</t>
-  </si>
-  <si>
-    <t>41,38%</t>
-  </si>
-  <si>
-    <t>20,89%</t>
-  </si>
-  <si>
-    <t>62,58%</t>
-  </si>
-  <si>
-    <t>42,38%</t>
-  </si>
-  <si>
-    <t>28,58%</t>
-  </si>
-  <si>
-    <t>57,81%</t>
-  </si>
-  <si>
-    <t>56,78%</t>
-  </si>
-  <si>
-    <t>35,03%</t>
-  </si>
-  <si>
-    <t>74,82%</t>
-  </si>
-  <si>
-    <t>58,62%</t>
-  </si>
-  <si>
-    <t>37,42%</t>
-  </si>
-  <si>
-    <t>79,11%</t>
-  </si>
-  <si>
-    <t>57,62%</t>
-  </si>
-  <si>
-    <t>42,19%</t>
-  </si>
-  <si>
-    <t>71,42%</t>
-  </si>
-  <si>
-    <t>29,35%</t>
-  </si>
-  <si>
-    <t>7,18%</t>
-  </si>
-  <si>
-    <t>59,82%</t>
-  </si>
-  <si>
-    <t>29,13%</t>
-  </si>
-  <si>
-    <t>66,09%</t>
-  </si>
-  <si>
-    <t>26,48%</t>
-  </si>
-  <si>
-    <t>58,32%</t>
-  </si>
-  <si>
-    <t>70,65%</t>
-  </si>
-  <si>
-    <t>40,18%</t>
-  </si>
-  <si>
-    <t>92,82%</t>
-  </si>
-  <si>
-    <t>33,91%</t>
-  </si>
-  <si>
-    <t>70,87%</t>
-  </si>
-  <si>
-    <t>41,68%</t>
-  </si>
-  <si>
-    <t>73,52%</t>
-  </si>
-  <si>
-    <t>48,98%</t>
-  </si>
-  <si>
-    <t>31,47%</t>
-  </si>
-  <si>
-    <t>67,4%</t>
-  </si>
-  <si>
-    <t>39,9%</t>
-  </si>
-  <si>
-    <t>67,03%</t>
-  </si>
-  <si>
-    <t>52,03%</t>
-  </si>
-  <si>
-    <t>41,37%</t>
-  </si>
-  <si>
-    <t>61,89%</t>
-  </si>
-  <si>
-    <t>51,02%</t>
-  </si>
-  <si>
-    <t>32,6%</t>
-  </si>
-  <si>
-    <t>68,53%</t>
-  </si>
-  <si>
-    <t>32,97%</t>
-  </si>
-  <si>
-    <t>60,1%</t>
-  </si>
-  <si>
-    <t>47,97%</t>
-  </si>
-  <si>
-    <t>38,11%</t>
-  </si>
-  <si>
-    <t>58,63%</t>
-  </si>
-  <si>
-    <t>44,64%</t>
-  </si>
-  <si>
-    <t>37,15%</t>
-  </si>
-  <si>
-    <t>45,71%</t>
-  </si>
-  <si>
-    <t>38,54%</t>
-  </si>
-  <si>
-    <t>53,37%</t>
-  </si>
-  <si>
-    <t>45,16%</t>
-  </si>
-  <si>
-    <t>39,71%</t>
-  </si>
-  <si>
-    <t>50,29%</t>
-  </si>
-  <si>
-    <t>55,36%</t>
-  </si>
-  <si>
-    <t>62,85%</t>
-  </si>
-  <si>
-    <t>54,29%</t>
-  </si>
-  <si>
-    <t>46,63%</t>
-  </si>
-  <si>
-    <t>61,46%</t>
-  </si>
-  <si>
-    <t>54,84%</t>
-  </si>
-  <si>
-    <t>49,71%</t>
-  </si>
-  <si>
-    <t>60,29%</t>
-  </si>
-  <si>
-    <t>Población que ha tenido un accidente en los últimos tres meses que le ha causado heridas o lesiones suficientes para limitar su actividad normal y/o para necesitar asistencia sanitaria en 2023 (Tasa respuesta: 6,53%)</t>
-  </si>
-  <si>
-    <t>46,51%</t>
-  </si>
-  <si>
-    <t>12,48%</t>
-  </si>
-  <si>
-    <t>85,85%</t>
-  </si>
-  <si>
-    <t>44,5%</t>
-  </si>
-  <si>
-    <t>13,27%</t>
-  </si>
-  <si>
-    <t>45,38%</t>
-  </si>
-  <si>
-    <t>20,96%</t>
-  </si>
-  <si>
-    <t>72,15%</t>
-  </si>
-  <si>
-    <t>53,49%</t>
-  </si>
-  <si>
-    <t>14,15%</t>
-  </si>
-  <si>
-    <t>87,52%</t>
-  </si>
-  <si>
-    <t>55,5%</t>
-  </si>
-  <si>
-    <t>86,73%</t>
-  </si>
-  <si>
-    <t>54,62%</t>
-  </si>
-  <si>
-    <t>27,85%</t>
-  </si>
-  <si>
-    <t>79,04%</t>
-  </si>
-  <si>
-    <t>45,27%</t>
-  </si>
-  <si>
-    <t>21,3%</t>
-  </si>
-  <si>
-    <t>70,76%</t>
-  </si>
-  <si>
-    <t>34,5%</t>
-  </si>
-  <si>
-    <t>13,62%</t>
-  </si>
-  <si>
-    <t>61,6%</t>
-  </si>
-  <si>
-    <t>41,24%</t>
-  </si>
-  <si>
-    <t>22,51%</t>
-  </si>
-  <si>
-    <t>59,3%</t>
-  </si>
-  <si>
-    <t>54,73%</t>
-  </si>
-  <si>
-    <t>29,24%</t>
-  </si>
-  <si>
-    <t>78,7%</t>
-  </si>
-  <si>
-    <t>65,5%</t>
-  </si>
-  <si>
-    <t>38,4%</t>
-  </si>
-  <si>
-    <t>86,38%</t>
-  </si>
-  <si>
-    <t>58,76%</t>
-  </si>
-  <si>
-    <t>40,7%</t>
-  </si>
-  <si>
-    <t>77,49%</t>
-  </si>
-  <si>
-    <t>28,64%</t>
-  </si>
-  <si>
-    <t>14,91%</t>
-  </si>
-  <si>
-    <t>46,42%</t>
-  </si>
-  <si>
-    <t>33,19%</t>
-  </si>
-  <si>
-    <t>20,14%</t>
-  </si>
-  <si>
-    <t>50,08%</t>
-  </si>
-  <si>
-    <t>30,66%</t>
-  </si>
-  <si>
-    <t>21,12%</t>
-  </si>
-  <si>
-    <t>43,26%</t>
-  </si>
-  <si>
-    <t>71,36%</t>
-  </si>
-  <si>
-    <t>53,58%</t>
-  </si>
-  <si>
-    <t>85,09%</t>
-  </si>
-  <si>
-    <t>66,81%</t>
-  </si>
-  <si>
-    <t>49,92%</t>
-  </si>
-  <si>
-    <t>79,86%</t>
-  </si>
-  <si>
-    <t>69,34%</t>
-  </si>
-  <si>
-    <t>56,74%</t>
-  </si>
-  <si>
-    <t>78,88%</t>
-  </si>
-  <si>
-    <t>43,62%</t>
-  </si>
-  <si>
-    <t>29,88%</t>
-  </si>
-  <si>
-    <t>58,54%</t>
-  </si>
-  <si>
-    <t>40,44%</t>
-  </si>
-  <si>
-    <t>25,08%</t>
-  </si>
-  <si>
-    <t>42,43%</t>
-  </si>
-  <si>
-    <t>32,05%</t>
-  </si>
-  <si>
-    <t>52,97%</t>
-  </si>
-  <si>
-    <t>56,38%</t>
-  </si>
-  <si>
-    <t>41,46%</t>
-  </si>
-  <si>
-    <t>70,12%</t>
-  </si>
-  <si>
-    <t>59,56%</t>
-  </si>
-  <si>
-    <t>74,92%</t>
-  </si>
-  <si>
-    <t>57,57%</t>
-  </si>
-  <si>
-    <t>47,03%</t>
-  </si>
-  <si>
-    <t>67,95%</t>
-  </si>
-  <si>
-    <t>23,04%</t>
-  </si>
-  <si>
-    <t>12,09%</t>
-  </si>
-  <si>
-    <t>42,16%</t>
-  </si>
-  <si>
-    <t>36,99%</t>
-  </si>
-  <si>
-    <t>25,79%</t>
-  </si>
-  <si>
-    <t>49,98%</t>
-  </si>
-  <si>
-    <t>30,77%</t>
-  </si>
-  <si>
-    <t>22,22%</t>
-  </si>
-  <si>
-    <t>41,49%</t>
-  </si>
-  <si>
-    <t>76,96%</t>
-  </si>
-  <si>
-    <t>57,84%</t>
-  </si>
-  <si>
-    <t>87,91%</t>
-  </si>
-  <si>
-    <t>63,01%</t>
-  </si>
-  <si>
-    <t>50,02%</t>
-  </si>
-  <si>
-    <t>74,21%</t>
-  </si>
-  <si>
-    <t>69,23%</t>
-  </si>
-  <si>
-    <t>58,51%</t>
-  </si>
-  <si>
-    <t>77,78%</t>
-  </si>
-  <si>
-    <t>39,57%</t>
-  </si>
-  <si>
-    <t>28,55%</t>
-  </si>
-  <si>
-    <t>52,65%</t>
-  </si>
-  <si>
-    <t>50,67%</t>
-  </si>
-  <si>
-    <t>43,12%</t>
-  </si>
-  <si>
-    <t>58,26%</t>
-  </si>
-  <si>
-    <t>47,42%</t>
-  </si>
-  <si>
-    <t>41,04%</t>
-  </si>
-  <si>
-    <t>54,05%</t>
-  </si>
-  <si>
-    <t>60,43%</t>
-  </si>
-  <si>
-    <t>47,35%</t>
-  </si>
-  <si>
-    <t>71,45%</t>
-  </si>
-  <si>
-    <t>49,33%</t>
-  </si>
-  <si>
-    <t>41,74%</t>
-  </si>
-  <si>
-    <t>56,88%</t>
-  </si>
-  <si>
-    <t>52,58%</t>
-  </si>
-  <si>
-    <t>45,95%</t>
-  </si>
-  <si>
-    <t>58,96%</t>
-  </si>
-  <si>
-    <t>30,5%</t>
-  </si>
-  <si>
-    <t>45,48%</t>
-  </si>
-  <si>
-    <t>43,03%</t>
-  </si>
-  <si>
-    <t>37,02%</t>
-  </si>
-  <si>
-    <t>49,31%</t>
-  </si>
-  <si>
-    <t>40,45%</t>
-  </si>
-  <si>
-    <t>45,35%</t>
   </si>
   <si>
     <t>54,52%</t>
@@ -1974,7 +1980,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AD5AF64A-7B9E-4617-9E93-D7E4CCF59113}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F5D7A0C7-606E-4D36-A8C0-54ADBEB51B88}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -3028,13 +3034,13 @@
         <v>123077</v>
       </c>
       <c r="E22" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="F22" s="7" t="s">
         <v>126</v>
       </c>
-      <c r="F22" s="7" t="s">
+      <c r="G22" s="7" t="s">
         <v>127</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>128</v>
       </c>
       <c r="H22" s="7">
         <v>90</v>
@@ -3043,13 +3049,13 @@
         <v>93806</v>
       </c>
       <c r="J22" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="K22" s="7" t="s">
         <v>129</v>
       </c>
-      <c r="K22" s="7" t="s">
+      <c r="L22" s="7" t="s">
         <v>130</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>131</v>
       </c>
       <c r="M22" s="7">
         <v>209</v>
@@ -3058,13 +3064,13 @@
         <v>216883</v>
       </c>
       <c r="O22" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="P22" s="7" t="s">
         <v>132</v>
       </c>
-      <c r="P22" s="7" t="s">
+      <c r="Q22" s="7" t="s">
         <v>133</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>134</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3079,13 +3085,13 @@
         <v>119979</v>
       </c>
       <c r="E23" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="F23" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="G23" s="7" t="s">
         <v>135</v>
-      </c>
-      <c r="F23" s="7" t="s">
-        <v>136</v>
-      </c>
-      <c r="G23" s="7" t="s">
-        <v>137</v>
       </c>
       <c r="H23" s="7">
         <v>79</v>
@@ -3094,13 +3100,13 @@
         <v>81585</v>
       </c>
       <c r="J23" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="K23" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="L23" s="7" t="s">
         <v>138</v>
-      </c>
-      <c r="K23" s="7" t="s">
-        <v>139</v>
-      </c>
-      <c r="L23" s="7" t="s">
-        <v>140</v>
       </c>
       <c r="M23" s="7">
         <v>197</v>
@@ -3109,13 +3115,13 @@
         <v>201564</v>
       </c>
       <c r="O23" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="P23" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="Q23" s="7" t="s">
         <v>141</v>
-      </c>
-      <c r="P23" s="7" t="s">
-        <v>142</v>
-      </c>
-      <c r="Q23" s="7" t="s">
-        <v>143</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -3171,7 +3177,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
     </row>
   </sheetData>
@@ -3193,7 +3199,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D472C4F3-E297-4A9A-823D-70D988D10B04}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{000DCF1C-4938-4188-BFFA-6D15193EFAE7}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3210,7 +3216,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3317,13 +3323,13 @@
         <v>20639</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>146</v>
+        <v>124</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="H4" s="7">
         <v>9</v>
@@ -3332,13 +3338,13 @@
         <v>8981</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="M4" s="7">
         <v>30</v>
@@ -3347,13 +3353,13 @@
         <v>29619</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3368,13 +3374,13 @@
         <v>38991</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>155</v>
+        <v>116</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="H5" s="7">
         <v>23</v>
@@ -3383,13 +3389,13 @@
         <v>22694</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="M5" s="7">
         <v>63</v>
@@ -3398,13 +3404,13 @@
         <v>61686</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3472,13 +3478,13 @@
         <v>33283</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="H7" s="7">
         <v>10</v>
@@ -3487,13 +3493,13 @@
         <v>12336</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="M7" s="7">
         <v>41</v>
@@ -3502,13 +3508,13 @@
         <v>45619</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3523,13 +3529,13 @@
         <v>49037</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="H8" s="7">
         <v>26</v>
@@ -3538,13 +3544,13 @@
         <v>26738</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="M8" s="7">
         <v>75</v>
@@ -3553,13 +3559,13 @@
         <v>75774</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3627,13 +3633,13 @@
         <v>15467</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="H10" s="7">
         <v>11</v>
@@ -3642,13 +3648,13 @@
         <v>11530</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>185</v>
+        <v>137</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="M10" s="7">
         <v>25</v>
@@ -3657,13 +3663,13 @@
         <v>26997</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3678,13 +3684,13 @@
         <v>41099</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="H11" s="7">
         <v>18</v>
@@ -3693,13 +3699,13 @@
         <v>17858</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>194</v>
+        <v>130</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>195</v>
+        <v>189</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>196</v>
+        <v>190</v>
       </c>
       <c r="M11" s="7">
         <v>55</v>
@@ -3708,13 +3714,13 @@
         <v>58957</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>197</v>
+        <v>191</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>199</v>
+        <v>193</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3782,13 +3788,13 @@
         <v>8141</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>200</v>
+        <v>194</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>201</v>
+        <v>195</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>202</v>
+        <v>196</v>
       </c>
       <c r="H13" s="7">
         <v>17</v>
@@ -3797,13 +3803,13 @@
         <v>19599</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>203</v>
+        <v>197</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>204</v>
+        <v>198</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
       <c r="M13" s="7">
         <v>25</v>
@@ -3812,13 +3818,13 @@
         <v>27739</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>206</v>
+        <v>200</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>207</v>
+        <v>201</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>208</v>
+        <v>202</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3833,13 +3839,13 @@
         <v>29005</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>209</v>
+        <v>203</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>210</v>
+        <v>204</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>211</v>
+        <v>205</v>
       </c>
       <c r="H14" s="7">
         <v>14</v>
@@ -3848,13 +3854,13 @@
         <v>16457</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>212</v>
+        <v>206</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>213</v>
+        <v>207</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>214</v>
+        <v>208</v>
       </c>
       <c r="M14" s="7">
         <v>41</v>
@@ -3863,13 +3869,13 @@
         <v>45463</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>215</v>
+        <v>209</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>216</v>
+        <v>210</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3937,13 +3943,13 @@
         <v>4371</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>218</v>
+        <v>212</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>219</v>
+        <v>213</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>220</v>
+        <v>214</v>
       </c>
       <c r="H16" s="7">
         <v>13</v>
@@ -3952,13 +3958,13 @@
         <v>13941</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>221</v>
+        <v>215</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>222</v>
+        <v>216</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>223</v>
+        <v>217</v>
       </c>
       <c r="M16" s="7">
         <v>17</v>
@@ -3967,13 +3973,13 @@
         <v>18313</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>224</v>
+        <v>218</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>225</v>
+        <v>219</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>226</v>
+        <v>220</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3988,13 +3994,13 @@
         <v>8550</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>227</v>
+        <v>221</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>228</v>
+        <v>222</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>229</v>
+        <v>223</v>
       </c>
       <c r="H17" s="7">
         <v>25</v>
@@ -4003,13 +4009,13 @@
         <v>27816</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>230</v>
+        <v>224</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>231</v>
+        <v>225</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>232</v>
+        <v>226</v>
       </c>
       <c r="M17" s="7">
         <v>33</v>
@@ -4018,13 +4024,13 @@
         <v>36365</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>233</v>
+        <v>227</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>234</v>
+        <v>228</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>235</v>
+        <v>229</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4092,13 +4098,13 @@
         <v>16414</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>236</v>
+        <v>230</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>237</v>
+        <v>231</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>238</v>
+        <v>232</v>
       </c>
       <c r="H19" s="7">
         <v>30</v>
@@ -4107,13 +4113,13 @@
         <v>31944</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>239</v>
+        <v>233</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>241</v>
+        <v>235</v>
       </c>
       <c r="M19" s="7">
         <v>46</v>
@@ -4122,13 +4128,13 @@
         <v>48358</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>242</v>
+        <v>236</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>243</v>
+        <v>237</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>244</v>
+        <v>238</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4143,13 +4149,13 @@
         <v>22916</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>245</v>
+        <v>239</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>246</v>
+        <v>240</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>247</v>
+        <v>241</v>
       </c>
       <c r="H20" s="7">
         <v>45</v>
@@ -4158,13 +4164,13 @@
         <v>47579</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>248</v>
+        <v>242</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>249</v>
+        <v>243</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>250</v>
+        <v>244</v>
       </c>
       <c r="M20" s="7">
         <v>66</v>
@@ -4173,13 +4179,13 @@
         <v>70495</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>251</v>
+        <v>245</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>252</v>
+        <v>246</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>253</v>
+        <v>247</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4247,13 +4253,13 @@
         <v>98315</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>254</v>
+        <v>248</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>255</v>
+        <v>249</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>256</v>
+        <v>250</v>
       </c>
       <c r="H22" s="7">
         <v>90</v>
@@ -4262,13 +4268,13 @@
         <v>98331</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>257</v>
+        <v>251</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>258</v>
+        <v>252</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>259</v>
+        <v>253</v>
       </c>
       <c r="M22" s="7">
         <v>184</v>
@@ -4277,13 +4283,13 @@
         <v>196646</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>48</v>
+        <v>254</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>260</v>
+        <v>255</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>261</v>
+        <v>256</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4298,13 +4304,13 @@
         <v>189598</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>262</v>
+        <v>257</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>263</v>
+        <v>258</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>264</v>
+        <v>259</v>
       </c>
       <c r="H23" s="7">
         <v>151</v>
@@ -4313,13 +4319,13 @@
         <v>159141</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>266</v>
+        <v>261</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>267</v>
+        <v>262</v>
       </c>
       <c r="M23" s="7">
         <v>333</v>
@@ -4328,13 +4334,13 @@
         <v>348739</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>40</v>
+        <v>263</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -4390,7 +4396,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
     </row>
   </sheetData>
@@ -4412,7 +4418,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{87A5069D-CFA8-4EC8-AB22-8875C75A23E9}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FECAA27B-2899-4288-A785-41DCD559D990}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4429,7 +4435,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4536,13 +4542,13 @@
         <v>17360</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="H4" s="7">
         <v>5</v>
@@ -4551,13 +4557,13 @@
         <v>4977</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="M4" s="7">
         <v>21</v>
@@ -4566,13 +4572,13 @@
         <v>22336</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4587,13 +4593,13 @@
         <v>26620</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>282</v>
+        <v>278</v>
       </c>
       <c r="H5" s="7">
         <v>14</v>
@@ -4602,13 +4608,13 @@
         <v>13287</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
       <c r="M5" s="7">
         <v>39</v>
@@ -4617,13 +4623,13 @@
         <v>39908</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>286</v>
+        <v>282</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4691,13 +4697,13 @@
         <v>22131</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="H7" s="7">
         <v>9</v>
@@ -4706,13 +4712,13 @@
         <v>9232</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="M7" s="7">
         <v>31</v>
@@ -4721,13 +4727,13 @@
         <v>31363</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4742,13 +4748,13 @@
         <v>28726</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="H8" s="7">
         <v>14</v>
@@ -4757,13 +4763,13 @@
         <v>13447</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
       <c r="M8" s="7">
         <v>43</v>
@@ -4772,13 +4778,13 @@
         <v>42173</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>304</v>
+        <v>300</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>306</v>
+        <v>302</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4846,13 +4852,13 @@
         <v>20261</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>307</v>
+        <v>303</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="H10" s="7">
         <v>10</v>
@@ -4861,13 +4867,13 @@
         <v>11215</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
       <c r="M10" s="7">
         <v>29</v>
@@ -4876,13 +4882,13 @@
         <v>31476</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>315</v>
+        <v>311</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4897,13 +4903,13 @@
         <v>15597</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="H11" s="7">
         <v>13</v>
@@ -4912,13 +4918,13 @@
         <v>13833</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="M11" s="7">
         <v>27</v>
@@ -4927,13 +4933,13 @@
         <v>29430</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>322</v>
+        <v>318</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5001,13 +5007,13 @@
         <v>12461</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>326</v>
+        <v>322</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
       <c r="H13" s="7">
         <v>9</v>
@@ -5016,13 +5022,13 @@
         <v>10133</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="M13" s="7">
         <v>20</v>
@@ -5031,13 +5037,13 @@
         <v>22594</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>333</v>
+        <v>329</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5052,13 +5058,13 @@
         <v>16371</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>335</v>
+        <v>331</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>336</v>
+        <v>332</v>
       </c>
       <c r="H14" s="7">
         <v>13</v>
@@ -5067,13 +5073,13 @@
         <v>14352</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>338</v>
+        <v>334</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>339</v>
+        <v>335</v>
       </c>
       <c r="M14" s="7">
         <v>28</v>
@@ -5082,13 +5088,13 @@
         <v>30724</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>340</v>
+        <v>336</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>341</v>
+        <v>337</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>342</v>
+        <v>338</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5156,13 +5162,13 @@
         <v>4106</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>343</v>
+        <v>339</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>344</v>
+        <v>340</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>345</v>
+        <v>341</v>
       </c>
       <c r="H16" s="7">
         <v>12</v>
@@ -5174,10 +5180,10 @@
         <v>104</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>346</v>
+        <v>342</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>347</v>
+        <v>343</v>
       </c>
       <c r="M16" s="7">
         <v>16</v>
@@ -5186,13 +5192,13 @@
         <v>18521</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>115</v>
+        <v>344</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5207,13 +5213,13 @@
         <v>9883</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="H17" s="7">
         <v>14</v>
@@ -5225,10 +5231,10 @@
         <v>95</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="M17" s="7">
         <v>23</v>
@@ -5237,13 +5243,13 @@
         <v>25826</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>125</v>
+        <v>352</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5311,13 +5317,13 @@
         <v>12792</v>
       </c>
       <c r="E19" s="7" t="s">
+        <v>355</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>356</v>
+      </c>
+      <c r="G19" s="7" t="s">
         <v>357</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>358</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>359</v>
       </c>
       <c r="H19" s="7">
         <v>32</v>
@@ -5326,13 +5332,13 @@
         <v>37538</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>156</v>
+        <v>358</v>
       </c>
       <c r="K19" s="7" t="s">
+        <v>359</v>
+      </c>
+      <c r="L19" s="7" t="s">
         <v>360</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>361</v>
       </c>
       <c r="M19" s="7">
         <v>47</v>
@@ -5341,13 +5347,13 @@
         <v>50331</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>363</v>
+        <v>185</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>364</v>
+        <v>40</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -5362,13 +5368,13 @@
         <v>13325</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
       <c r="H20" s="7">
         <v>27</v>
@@ -5377,13 +5383,13 @@
         <v>33081</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>148</v>
+        <v>365</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="M20" s="7">
         <v>41</v>
@@ -5392,13 +5398,13 @@
         <v>46406</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>371</v>
+        <v>48</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>372</v>
+        <v>192</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5466,13 +5472,13 @@
         <v>89111</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>373</v>
+        <v>369</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>374</v>
+        <v>370</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>362</v>
+        <v>371</v>
       </c>
       <c r="H22" s="7">
         <v>77</v>
@@ -5481,13 +5487,13 @@
         <v>87509</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
       <c r="M22" s="7">
         <v>164</v>
@@ -5496,13 +5502,13 @@
         <v>176621</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5517,13 +5523,13 @@
         <v>110523</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>370</v>
+        <v>379</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="H23" s="7">
         <v>95</v>
@@ -5532,13 +5538,13 @@
         <v>103944</v>
       </c>
       <c r="J23" s="7" t="s">
+        <v>381</v>
+      </c>
+      <c r="K23" s="7" t="s">
+        <v>382</v>
+      </c>
+      <c r="L23" s="7" t="s">
         <v>383</v>
-      </c>
-      <c r="K23" s="7" t="s">
-        <v>384</v>
-      </c>
-      <c r="L23" s="7" t="s">
-        <v>385</v>
       </c>
       <c r="M23" s="7">
         <v>201</v>
@@ -5547,13 +5553,13 @@
         <v>214466</v>
       </c>
       <c r="O23" s="7" t="s">
+        <v>384</v>
+      </c>
+      <c r="P23" s="7" t="s">
+        <v>385</v>
+      </c>
+      <c r="Q23" s="7" t="s">
         <v>386</v>
-      </c>
-      <c r="P23" s="7" t="s">
-        <v>387</v>
-      </c>
-      <c r="Q23" s="7" t="s">
-        <v>388</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -5609,7 +5615,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
     </row>
   </sheetData>
@@ -5631,7 +5637,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2736B368-2FCB-4F60-AF6F-9B7DABD81DD0}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2B37A348-D645-4D22-AB9A-7946E9738078}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5648,7 +5654,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5755,13 +5761,13 @@
         <v>8376</v>
       </c>
       <c r="E4" s="7" t="s">
+        <v>388</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>389</v>
+      </c>
+      <c r="G4" s="7" t="s">
         <v>390</v>
-      </c>
-      <c r="F4" s="7" t="s">
-        <v>391</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>392</v>
       </c>
       <c r="H4" s="7">
         <v>4</v>
@@ -5770,13 +5776,13 @@
         <v>10201</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>393</v>
+        <v>277</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>232</v>
+        <v>392</v>
       </c>
       <c r="M4" s="7">
         <v>7</v>
@@ -5785,13 +5791,13 @@
         <v>18578</v>
       </c>
       <c r="O4" s="7" t="s">
+        <v>393</v>
+      </c>
+      <c r="P4" s="7" t="s">
+        <v>394</v>
+      </c>
+      <c r="Q4" s="7" t="s">
         <v>395</v>
-      </c>
-      <c r="P4" s="7" t="s">
-        <v>396</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>397</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5806,13 +5812,13 @@
         <v>9634</v>
       </c>
       <c r="E5" s="7" t="s">
+        <v>396</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>397</v>
+      </c>
+      <c r="G5" s="7" t="s">
         <v>398</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>399</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>400</v>
       </c>
       <c r="H5" s="7">
         <v>7</v>
@@ -5821,13 +5827,13 @@
         <v>12725</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>401</v>
+        <v>269</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>222</v>
+        <v>399</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="M5" s="7">
         <v>12</v>
@@ -5836,13 +5842,13 @@
         <v>22358</v>
       </c>
       <c r="O5" s="7" t="s">
+        <v>401</v>
+      </c>
+      <c r="P5" s="7" t="s">
+        <v>402</v>
+      </c>
+      <c r="Q5" s="7" t="s">
         <v>403</v>
-      </c>
-      <c r="P5" s="7" t="s">
-        <v>404</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>405</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5910,13 +5916,13 @@
         <v>12406</v>
       </c>
       <c r="E7" s="7" t="s">
+        <v>404</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>405</v>
+      </c>
+      <c r="G7" s="7" t="s">
         <v>406</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>407</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>408</v>
       </c>
       <c r="H7" s="7">
         <v>5</v>
@@ -5925,13 +5931,13 @@
         <v>5648</v>
       </c>
       <c r="J7" s="7" t="s">
+        <v>407</v>
+      </c>
+      <c r="K7" s="7" t="s">
+        <v>408</v>
+      </c>
+      <c r="L7" s="7" t="s">
         <v>409</v>
-      </c>
-      <c r="K7" s="7" t="s">
-        <v>410</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>411</v>
       </c>
       <c r="M7" s="7">
         <v>15</v>
@@ -5940,13 +5946,13 @@
         <v>18054</v>
       </c>
       <c r="O7" s="7" t="s">
+        <v>410</v>
+      </c>
+      <c r="P7" s="7" t="s">
+        <v>411</v>
+      </c>
+      <c r="Q7" s="7" t="s">
         <v>412</v>
-      </c>
-      <c r="P7" s="7" t="s">
-        <v>413</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>414</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5961,13 +5967,13 @@
         <v>14997</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>413</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>414</v>
+      </c>
+      <c r="G8" s="7" t="s">
         <v>415</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>416</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>417</v>
       </c>
       <c r="H8" s="7">
         <v>10</v>
@@ -5976,13 +5982,13 @@
         <v>10724</v>
       </c>
       <c r="J8" s="7" t="s">
+        <v>416</v>
+      </c>
+      <c r="K8" s="7" t="s">
+        <v>417</v>
+      </c>
+      <c r="L8" s="7" t="s">
         <v>418</v>
-      </c>
-      <c r="K8" s="7" t="s">
-        <v>419</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>420</v>
       </c>
       <c r="M8" s="7">
         <v>19</v>
@@ -5991,13 +5997,13 @@
         <v>25721</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>419</v>
+      </c>
+      <c r="P8" s="7" t="s">
+        <v>420</v>
+      </c>
+      <c r="Q8" s="7" t="s">
         <v>421</v>
-      </c>
-      <c r="P8" s="7" t="s">
-        <v>422</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>423</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -6065,13 +6071,13 @@
         <v>10683</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>422</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>423</v>
+      </c>
+      <c r="G10" s="7" t="s">
         <v>424</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>425</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>426</v>
       </c>
       <c r="H10" s="7">
         <v>15</v>
@@ -6080,13 +6086,13 @@
         <v>9914</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>425</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>426</v>
+      </c>
+      <c r="L10" s="7" t="s">
         <v>427</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>428</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>429</v>
       </c>
       <c r="M10" s="7">
         <v>25</v>
@@ -6095,13 +6101,13 @@
         <v>20597</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>428</v>
+      </c>
+      <c r="P10" s="7" t="s">
+        <v>429</v>
+      </c>
+      <c r="Q10" s="7" t="s">
         <v>430</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>431</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>432</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -6116,13 +6122,13 @@
         <v>26623</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>431</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>432</v>
+      </c>
+      <c r="G11" s="7" t="s">
         <v>433</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>434</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>435</v>
       </c>
       <c r="H11" s="7">
         <v>28</v>
@@ -6131,13 +6137,13 @@
         <v>19953</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>434</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>435</v>
+      </c>
+      <c r="L11" s="7" t="s">
         <v>436</v>
-      </c>
-      <c r="K11" s="7" t="s">
-        <v>437</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>438</v>
       </c>
       <c r="M11" s="7">
         <v>52</v>
@@ -6146,13 +6152,13 @@
         <v>46576</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>437</v>
+      </c>
+      <c r="P11" s="7" t="s">
+        <v>438</v>
+      </c>
+      <c r="Q11" s="7" t="s">
         <v>439</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>440</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>441</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -6220,13 +6226,13 @@
         <v>23047</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>440</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>441</v>
+      </c>
+      <c r="G13" s="7" t="s">
         <v>442</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>443</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>444</v>
       </c>
       <c r="H13" s="7">
         <v>19</v>
@@ -6235,13 +6241,13 @@
         <v>12802</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>443</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>444</v>
+      </c>
+      <c r="L13" s="7" t="s">
         <v>445</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>446</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>180</v>
       </c>
       <c r="M13" s="7">
         <v>38</v>
@@ -6250,13 +6256,13 @@
         <v>35848</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>446</v>
+      </c>
+      <c r="P13" s="7" t="s">
         <v>447</v>
       </c>
-      <c r="P13" s="7" t="s">
+      <c r="Q13" s="7" t="s">
         <v>448</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>449</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -6271,13 +6277,13 @@
         <v>29783</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>449</v>
+      </c>
+      <c r="F14" s="7" t="s">
         <v>450</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="G14" s="7" t="s">
         <v>451</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>452</v>
       </c>
       <c r="H14" s="7">
         <v>31</v>
@@ -6286,10 +6292,10 @@
         <v>18856</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>452</v>
+      </c>
+      <c r="K14" s="7" t="s">
         <v>453</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>172</v>
       </c>
       <c r="L14" s="7" t="s">
         <v>454</v>
@@ -6685,13 +6691,13 @@
         <v>76897</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>308</v>
+        <v>494</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="H22" s="7">
         <v>158</v>
@@ -6700,13 +6706,13 @@
         <v>99945</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="M22" s="7">
         <v>237</v>
@@ -6715,13 +6721,13 @@
         <v>176842</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -6736,13 +6742,13 @@
         <v>128065</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>318</v>
+        <v>502</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>501</v>
+        <v>503</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>502</v>
+        <v>504</v>
       </c>
       <c r="H23" s="7">
         <v>201</v>
@@ -6751,13 +6757,13 @@
         <v>132332</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>503</v>
+        <v>505</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>504</v>
+        <v>506</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>505</v>
+        <v>507</v>
       </c>
       <c r="M23" s="7">
         <v>334</v>
@@ -6766,13 +6772,13 @@
         <v>260397</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>506</v>
+        <v>508</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>507</v>
+        <v>509</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>286</v>
+        <v>282</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -6828,7 +6834,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P15A-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P15A-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9BF08279-AD87-40D9-843E-509FBADA0632}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{8FCE9F24-8584-457C-8E6A-36270550412C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{BAC429C3-4075-403E-AC39-96CC355FAA7B}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{776A1505-C57F-4E91-B609-7E078D70E084}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,9 +39,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="948" uniqueCount="510">
-  <si>
-    <t>Población que ha tenido un accidente en los últimos tres meses que le ha causado heridas o lesiones suficientes para limitar su actividad normal y/o para necesitar asistencia sanitaria en 2007 (Tasa respuesta: 6,24%)</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="948" uniqueCount="426">
+  <si>
+    <t>Población que ha tenido un accidente en los últimos tres meses que le ha causado heridas o lesiones suficientes para limitar su actividad normal y/o para necesitar asistencia sanitaria en 2007 (Tasa respuesta: 100,0%)</t>
   </si>
   <si>
     <t>Hombre</t>
@@ -71,64 +71,64 @@
     <t>16/24</t>
   </si>
   <si>
-    <t>Si</t>
-  </si>
-  <si>
-    <t>63,51%</t>
-  </si>
-  <si>
-    <t>50,64%</t>
-  </si>
-  <si>
-    <t>75,8%</t>
-  </si>
-  <si>
-    <t>47,12%</t>
-  </si>
-  <si>
-    <t>25,53%</t>
-  </si>
-  <si>
-    <t>66,15%</t>
-  </si>
-  <si>
-    <t>58,64%</t>
-  </si>
-  <si>
-    <t>47,17%</t>
-  </si>
-  <si>
-    <t>70,0%</t>
+    <t>Sí</t>
+  </si>
+  <si>
+    <t>6,82%</t>
+  </si>
+  <si>
+    <t>4,83%</t>
+  </si>
+  <si>
+    <t>9,48%</t>
+  </si>
+  <si>
+    <t>2,26%</t>
+  </si>
+  <si>
+    <t>1,15%</t>
+  </si>
+  <si>
+    <t>3,94%</t>
+  </si>
+  <si>
+    <t>4,61%</t>
+  </si>
+  <si>
+    <t>3,34%</t>
+  </si>
+  <si>
+    <t>6,03%</t>
   </si>
   <si>
     <t>No</t>
   </si>
   <si>
-    <t>36,49%</t>
-  </si>
-  <si>
-    <t>24,2%</t>
-  </si>
-  <si>
-    <t>49,36%</t>
-  </si>
-  <si>
-    <t>52,88%</t>
-  </si>
-  <si>
-    <t>33,85%</t>
-  </si>
-  <si>
-    <t>74,47%</t>
-  </si>
-  <si>
-    <t>41,36%</t>
-  </si>
-  <si>
-    <t>30,0%</t>
-  </si>
-  <si>
-    <t>52,83%</t>
+    <t>93,18%</t>
+  </si>
+  <si>
+    <t>90,52%</t>
+  </si>
+  <si>
+    <t>95,17%</t>
+  </si>
+  <si>
+    <t>97,74%</t>
+  </si>
+  <si>
+    <t>96,06%</t>
+  </si>
+  <si>
+    <t>98,85%</t>
+  </si>
+  <si>
+    <t>95,39%</t>
+  </si>
+  <si>
+    <t>93,97%</t>
+  </si>
+  <si>
+    <t>96,66%</t>
   </si>
   <si>
     <t>100%</t>
@@ -137,1438 +137,1186 @@
     <t>25/34</t>
   </si>
   <si>
-    <t>54,15%</t>
-  </si>
-  <si>
-    <t>41,58%</t>
-  </si>
-  <si>
-    <t>65,72%</t>
-  </si>
-  <si>
-    <t>52,6%</t>
-  </si>
-  <si>
-    <t>35,08%</t>
-  </si>
-  <si>
-    <t>69,85%</t>
-  </si>
-  <si>
-    <t>53,6%</t>
-  </si>
-  <si>
-    <t>43,48%</t>
-  </si>
-  <si>
-    <t>63,98%</t>
-  </si>
-  <si>
-    <t>45,85%</t>
-  </si>
-  <si>
-    <t>34,28%</t>
-  </si>
-  <si>
-    <t>58,42%</t>
-  </si>
-  <si>
-    <t>47,4%</t>
-  </si>
-  <si>
-    <t>30,15%</t>
-  </si>
-  <si>
-    <t>64,92%</t>
-  </si>
-  <si>
-    <t>46,4%</t>
-  </si>
-  <si>
-    <t>36,02%</t>
-  </si>
-  <si>
-    <t>56,52%</t>
+    <t>4,75%</t>
+  </si>
+  <si>
+    <t>3,36%</t>
+  </si>
+  <si>
+    <t>6,48%</t>
+  </si>
+  <si>
+    <t>2,97%</t>
+  </si>
+  <si>
+    <t>1,75%</t>
+  </si>
+  <si>
+    <t>4,64%</t>
+  </si>
+  <si>
+    <t>3,93%</t>
+  </si>
+  <si>
+    <t>2,84%</t>
+  </si>
+  <si>
+    <t>5,07%</t>
+  </si>
+  <si>
+    <t>95,25%</t>
+  </si>
+  <si>
+    <t>93,52%</t>
+  </si>
+  <si>
+    <t>96,64%</t>
+  </si>
+  <si>
+    <t>97,03%</t>
+  </si>
+  <si>
+    <t>95,36%</t>
+  </si>
+  <si>
+    <t>98,25%</t>
+  </si>
+  <si>
+    <t>96,07%</t>
+  </si>
+  <si>
+    <t>94,93%</t>
+  </si>
+  <si>
+    <t>97,16%</t>
   </si>
   <si>
     <t>35/44</t>
   </si>
   <si>
-    <t>32,54%</t>
-  </si>
-  <si>
-    <t>19,72%</t>
-  </si>
-  <si>
-    <t>47,34%</t>
-  </si>
-  <si>
-    <t>66,56%</t>
-  </si>
-  <si>
-    <t>43,41%</t>
-  </si>
-  <si>
-    <t>85,72%</t>
-  </si>
-  <si>
-    <t>42,92%</t>
-  </si>
-  <si>
-    <t>31,72%</t>
-  </si>
-  <si>
-    <t>56,55%</t>
-  </si>
-  <si>
-    <t>67,46%</t>
-  </si>
-  <si>
-    <t>52,66%</t>
-  </si>
-  <si>
-    <t>80,28%</t>
-  </si>
-  <si>
-    <t>33,44%</t>
-  </si>
-  <si>
-    <t>14,28%</t>
-  </si>
-  <si>
-    <t>56,59%</t>
-  </si>
-  <si>
-    <t>57,08%</t>
-  </si>
-  <si>
-    <t>43,45%</t>
-  </si>
-  <si>
-    <t>68,28%</t>
+    <t>2,34%</t>
+  </si>
+  <si>
+    <t>1,24%</t>
+  </si>
+  <si>
+    <t>3,75%</t>
+  </si>
+  <si>
+    <t>1,95%</t>
+  </si>
+  <si>
+    <t>1,01%</t>
+  </si>
+  <si>
+    <t>3,21%</t>
+  </si>
+  <si>
+    <t>2,13%</t>
+  </si>
+  <si>
+    <t>1,38%</t>
+  </si>
+  <si>
+    <t>2,98%</t>
+  </si>
+  <si>
+    <t>97,66%</t>
+  </si>
+  <si>
+    <t>96,25%</t>
+  </si>
+  <si>
+    <t>98,76%</t>
+  </si>
+  <si>
+    <t>98,05%</t>
+  </si>
+  <si>
+    <t>96,79%</t>
+  </si>
+  <si>
+    <t>98,99%</t>
+  </si>
+  <si>
+    <t>97,87%</t>
+  </si>
+  <si>
+    <t>97,02%</t>
+  </si>
+  <si>
+    <t>98,62%</t>
   </si>
   <si>
     <t>45/54</t>
   </si>
   <si>
-    <t>47,49%</t>
-  </si>
-  <si>
-    <t>31,16%</t>
-  </si>
-  <si>
-    <t>64,38%</t>
-  </si>
-  <si>
-    <t>48,6%</t>
-  </si>
-  <si>
-    <t>25,78%</t>
-  </si>
-  <si>
-    <t>70,94%</t>
-  </si>
-  <si>
-    <t>47,85%</t>
-  </si>
-  <si>
-    <t>35,13%</t>
-  </si>
-  <si>
-    <t>60,04%</t>
-  </si>
-  <si>
-    <t>52,51%</t>
-  </si>
-  <si>
-    <t>35,62%</t>
-  </si>
-  <si>
-    <t>68,84%</t>
-  </si>
-  <si>
-    <t>51,4%</t>
-  </si>
-  <si>
-    <t>29,06%</t>
-  </si>
-  <si>
-    <t>74,22%</t>
-  </si>
-  <si>
-    <t>52,15%</t>
-  </si>
-  <si>
-    <t>39,96%</t>
-  </si>
-  <si>
-    <t>64,87%</t>
+    <t>3,76%</t>
+  </si>
+  <si>
+    <t>2,28%</t>
+  </si>
+  <si>
+    <t>5,8%</t>
+  </si>
+  <si>
+    <t>1,87%</t>
+  </si>
+  <si>
+    <t>0,97%</t>
+  </si>
+  <si>
+    <t>3,66%</t>
+  </si>
+  <si>
+    <t>2,82%</t>
+  </si>
+  <si>
+    <t>1,88%</t>
+  </si>
+  <si>
+    <t>4,1%</t>
+  </si>
+  <si>
+    <t>96,24%</t>
+  </si>
+  <si>
+    <t>94,2%</t>
+  </si>
+  <si>
+    <t>97,72%</t>
+  </si>
+  <si>
+    <t>98,13%</t>
+  </si>
+  <si>
+    <t>96,34%</t>
+  </si>
+  <si>
+    <t>99,03%</t>
+  </si>
+  <si>
+    <t>97,18%</t>
+  </si>
+  <si>
+    <t>95,9%</t>
+  </si>
+  <si>
+    <t>98,12%</t>
   </si>
   <si>
     <t>55/64</t>
   </si>
   <si>
-    <t>49,75%</t>
-  </si>
-  <si>
-    <t>27,07%</t>
-  </si>
-  <si>
-    <t>74,37%</t>
-  </si>
-  <si>
-    <t>55,44%</t>
-  </si>
-  <si>
-    <t>30,43%</t>
-  </si>
-  <si>
-    <t>77,48%</t>
-  </si>
-  <si>
-    <t>52,52%</t>
-  </si>
-  <si>
-    <t>36,75%</t>
-  </si>
-  <si>
-    <t>67,71%</t>
-  </si>
-  <si>
-    <t>50,25%</t>
-  </si>
-  <si>
-    <t>25,63%</t>
-  </si>
-  <si>
-    <t>72,93%</t>
-  </si>
-  <si>
-    <t>44,56%</t>
-  </si>
-  <si>
-    <t>22,52%</t>
-  </si>
-  <si>
-    <t>69,57%</t>
-  </si>
-  <si>
-    <t>47,48%</t>
-  </si>
-  <si>
-    <t>32,29%</t>
-  </si>
-  <si>
-    <t>63,25%</t>
+    <t>2,42%</t>
+  </si>
+  <si>
+    <t>1,22%</t>
+  </si>
+  <si>
+    <t>4,8%</t>
+  </si>
+  <si>
+    <t>2,44%</t>
+  </si>
+  <si>
+    <t>1,2%</t>
+  </si>
+  <si>
+    <t>4,4%</t>
+  </si>
+  <si>
+    <t>2,43%</t>
+  </si>
+  <si>
+    <t>1,53%</t>
+  </si>
+  <si>
+    <t>3,8%</t>
+  </si>
+  <si>
+    <t>97,58%</t>
+  </si>
+  <si>
+    <t>95,2%</t>
+  </si>
+  <si>
+    <t>98,78%</t>
+  </si>
+  <si>
+    <t>97,56%</t>
+  </si>
+  <si>
+    <t>95,6%</t>
+  </si>
+  <si>
+    <t>98,8%</t>
+  </si>
+  <si>
+    <t>97,57%</t>
+  </si>
+  <si>
+    <t>96,2%</t>
+  </si>
+  <si>
+    <t>98,47%</t>
   </si>
   <si>
     <t>65 y más</t>
   </si>
   <si>
-    <t>54,03%</t>
-  </si>
-  <si>
-    <t>33,3%</t>
-  </si>
-  <si>
-    <t>75,3%</t>
-  </si>
-  <si>
-    <t>53,03%</t>
-  </si>
-  <si>
-    <t>41,41%</t>
-  </si>
-  <si>
-    <t>66,5%</t>
-  </si>
-  <si>
-    <t>53,27%</t>
-  </si>
-  <si>
-    <t>42,18%</t>
-  </si>
-  <si>
-    <t>65,39%</t>
-  </si>
-  <si>
-    <t>45,97%</t>
-  </si>
-  <si>
-    <t>24,7%</t>
-  </si>
-  <si>
-    <t>66,7%</t>
-  </si>
-  <si>
-    <t>46,97%</t>
-  </si>
-  <si>
-    <t>33,5%</t>
-  </si>
-  <si>
-    <t>58,59%</t>
-  </si>
-  <si>
-    <t>46,73%</t>
-  </si>
-  <si>
-    <t>34,61%</t>
-  </si>
-  <si>
-    <t>57,82%</t>
-  </si>
-  <si>
-    <t>44,1%</t>
-  </si>
-  <si>
-    <t>56,81%</t>
-  </si>
-  <si>
-    <t>53,48%</t>
-  </si>
-  <si>
-    <t>45,42%</t>
-  </si>
-  <si>
-    <t>60,77%</t>
-  </si>
-  <si>
-    <t>51,83%</t>
-  </si>
-  <si>
-    <t>47,31%</t>
-  </si>
-  <si>
-    <t>56,83%</t>
-  </si>
-  <si>
-    <t>43,19%</t>
-  </si>
-  <si>
-    <t>55,9%</t>
-  </si>
-  <si>
-    <t>46,52%</t>
-  </si>
-  <si>
-    <t>39,23%</t>
-  </si>
-  <si>
-    <t>54,58%</t>
-  </si>
-  <si>
-    <t>48,17%</t>
-  </si>
-  <si>
-    <t>43,17%</t>
-  </si>
-  <si>
-    <t>52,69%</t>
+    <t>2,11%</t>
+  </si>
+  <si>
+    <t>1,09%</t>
+  </si>
+  <si>
+    <t>4,69%</t>
+  </si>
+  <si>
+    <t>3,27%</t>
+  </si>
+  <si>
+    <t>6,62%</t>
+  </si>
+  <si>
+    <t>3,59%</t>
+  </si>
+  <si>
+    <t>2,59%</t>
+  </si>
+  <si>
+    <t>4,93%</t>
+  </si>
+  <si>
+    <t>97,89%</t>
+  </si>
+  <si>
+    <t>98,91%</t>
+  </si>
+  <si>
+    <t>95,31%</t>
+  </si>
+  <si>
+    <t>93,38%</t>
+  </si>
+  <si>
+    <t>96,73%</t>
+  </si>
+  <si>
+    <t>96,41%</t>
+  </si>
+  <si>
+    <t>95,07%</t>
+  </si>
+  <si>
+    <t>97,41%</t>
+  </si>
+  <si>
+    <t>3,14%</t>
+  </si>
+  <si>
+    <t>4,49%</t>
+  </si>
+  <si>
+    <t>2,78%</t>
+  </si>
+  <si>
+    <t>2,25%</t>
+  </si>
+  <si>
+    <t>3,37%</t>
+  </si>
+  <si>
+    <t>3,26%</t>
+  </si>
+  <si>
+    <t>2,86%</t>
+  </si>
+  <si>
+    <t>3,72%</t>
+  </si>
+  <si>
+    <t>95,51%</t>
+  </si>
+  <si>
+    <t>96,86%</t>
+  </si>
+  <si>
+    <t>97,22%</t>
+  </si>
+  <si>
+    <t>96,63%</t>
+  </si>
+  <si>
+    <t>97,75%</t>
+  </si>
+  <si>
+    <t>96,74%</t>
+  </si>
+  <si>
+    <t>96,28%</t>
+  </si>
+  <si>
+    <t>97,14%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
   </si>
   <si>
-    <t>Población que ha tenido un accidente en los últimos tres meses que le ha causado heridas o lesiones suficientes para limitar su actividad normal y/o para necesitar asistencia sanitaria en 2012 (Tasa respuesta: 7,95%)</t>
-  </si>
-  <si>
-    <t>23,63%</t>
-  </si>
-  <si>
-    <t>46,88%</t>
-  </si>
-  <si>
-    <t>28,35%</t>
-  </si>
-  <si>
-    <t>14,97%</t>
-  </si>
-  <si>
-    <t>45,24%</t>
-  </si>
-  <si>
-    <t>32,44%</t>
-  </si>
-  <si>
-    <t>24,1%</t>
-  </si>
-  <si>
-    <t>42,08%</t>
-  </si>
-  <si>
-    <t>53,12%</t>
-  </si>
-  <si>
-    <t>76,37%</t>
-  </si>
-  <si>
-    <t>71,65%</t>
-  </si>
-  <si>
-    <t>54,76%</t>
-  </si>
-  <si>
-    <t>85,03%</t>
-  </si>
-  <si>
-    <t>67,56%</t>
-  </si>
-  <si>
-    <t>57,92%</t>
-  </si>
-  <si>
-    <t>75,9%</t>
-  </si>
-  <si>
-    <t>40,43%</t>
-  </si>
-  <si>
-    <t>29,68%</t>
-  </si>
-  <si>
-    <t>52,41%</t>
-  </si>
-  <si>
-    <t>31,57%</t>
-  </si>
-  <si>
-    <t>16,62%</t>
-  </si>
-  <si>
-    <t>49,97%</t>
-  </si>
-  <si>
-    <t>37,58%</t>
-  </si>
-  <si>
-    <t>28,65%</t>
-  </si>
-  <si>
-    <t>47,69%</t>
-  </si>
-  <si>
-    <t>59,57%</t>
-  </si>
-  <si>
-    <t>47,59%</t>
-  </si>
-  <si>
-    <t>70,32%</t>
-  </si>
-  <si>
-    <t>68,43%</t>
-  </si>
-  <si>
-    <t>50,03%</t>
-  </si>
-  <si>
-    <t>83,38%</t>
-  </si>
-  <si>
-    <t>62,42%</t>
-  </si>
-  <si>
-    <t>52,31%</t>
-  </si>
-  <si>
-    <t>71,35%</t>
-  </si>
-  <si>
-    <t>27,34%</t>
-  </si>
-  <si>
-    <t>16,0%</t>
-  </si>
-  <si>
-    <t>41,32%</t>
-  </si>
-  <si>
-    <t>23,06%</t>
-  </si>
-  <si>
-    <t>60,48%</t>
-  </si>
-  <si>
-    <t>31,41%</t>
-  </si>
-  <si>
-    <t>21,18%</t>
-  </si>
-  <si>
-    <t>42,52%</t>
-  </si>
-  <si>
-    <t>72,66%</t>
-  </si>
-  <si>
-    <t>58,68%</t>
-  </si>
-  <si>
-    <t>84,0%</t>
-  </si>
-  <si>
-    <t>39,52%</t>
-  </si>
-  <si>
-    <t>76,94%</t>
-  </si>
-  <si>
-    <t>68,59%</t>
-  </si>
-  <si>
-    <t>57,48%</t>
-  </si>
-  <si>
-    <t>78,82%</t>
-  </si>
-  <si>
-    <t>21,91%</t>
-  </si>
-  <si>
-    <t>10,98%</t>
-  </si>
-  <si>
-    <t>39,13%</t>
-  </si>
-  <si>
-    <t>54,36%</t>
-  </si>
-  <si>
-    <t>37,29%</t>
-  </si>
-  <si>
-    <t>72,03%</t>
-  </si>
-  <si>
-    <t>37,89%</t>
-  </si>
-  <si>
-    <t>26,36%</t>
-  </si>
-  <si>
-    <t>50,28%</t>
-  </si>
-  <si>
-    <t>78,09%</t>
-  </si>
-  <si>
-    <t>60,87%</t>
-  </si>
-  <si>
-    <t>89,02%</t>
-  </si>
-  <si>
-    <t>45,64%</t>
-  </si>
-  <si>
-    <t>27,97%</t>
-  </si>
-  <si>
-    <t>62,71%</t>
-  </si>
-  <si>
-    <t>62,11%</t>
-  </si>
-  <si>
-    <t>49,72%</t>
-  </si>
-  <si>
-    <t>73,64%</t>
-  </si>
-  <si>
-    <t>33,83%</t>
-  </si>
-  <si>
-    <t>8,79%</t>
-  </si>
-  <si>
-    <t>59,8%</t>
-  </si>
-  <si>
-    <t>33,39%</t>
-  </si>
-  <si>
-    <t>19,43%</t>
-  </si>
-  <si>
-    <t>48,61%</t>
-  </si>
-  <si>
-    <t>33,49%</t>
-  </si>
-  <si>
-    <t>21,94%</t>
-  </si>
-  <si>
-    <t>47,99%</t>
-  </si>
-  <si>
-    <t>66,17%</t>
-  </si>
-  <si>
-    <t>40,2%</t>
-  </si>
-  <si>
-    <t>91,21%</t>
-  </si>
-  <si>
-    <t>66,61%</t>
-  </si>
-  <si>
-    <t>51,39%</t>
-  </si>
-  <si>
-    <t>80,57%</t>
-  </si>
-  <si>
-    <t>66,51%</t>
-  </si>
-  <si>
-    <t>52,01%</t>
-  </si>
-  <si>
-    <t>78,06%</t>
-  </si>
-  <si>
-    <t>41,73%</t>
-  </si>
-  <si>
-    <t>27,84%</t>
-  </si>
-  <si>
-    <t>59,13%</t>
-  </si>
-  <si>
-    <t>40,17%</t>
-  </si>
-  <si>
-    <t>29,46%</t>
-  </si>
-  <si>
-    <t>50,97%</t>
-  </si>
-  <si>
-    <t>40,69%</t>
-  </si>
-  <si>
-    <t>31,26%</t>
-  </si>
-  <si>
-    <t>49,26%</t>
-  </si>
-  <si>
-    <t>58,27%</t>
-  </si>
-  <si>
-    <t>40,87%</t>
-  </si>
-  <si>
-    <t>72,16%</t>
-  </si>
-  <si>
-    <t>59,83%</t>
-  </si>
-  <si>
-    <t>49,03%</t>
-  </si>
-  <si>
-    <t>70,54%</t>
-  </si>
-  <si>
-    <t>59,31%</t>
-  </si>
-  <si>
-    <t>50,74%</t>
-  </si>
-  <si>
-    <t>68,74%</t>
-  </si>
-  <si>
-    <t>34,15%</t>
-  </si>
-  <si>
-    <t>28,54%</t>
-  </si>
-  <si>
-    <t>39,59%</t>
-  </si>
-  <si>
-    <t>38,19%</t>
-  </si>
-  <si>
-    <t>32,33%</t>
-  </si>
-  <si>
-    <t>44,59%</t>
-  </si>
-  <si>
-    <t>36,06%</t>
-  </si>
-  <si>
-    <t>32,03%</t>
-  </si>
-  <si>
-    <t>40,8%</t>
-  </si>
-  <si>
-    <t>65,85%</t>
-  </si>
-  <si>
-    <t>60,41%</t>
-  </si>
-  <si>
-    <t>71,46%</t>
-  </si>
-  <si>
-    <t>61,81%</t>
-  </si>
-  <si>
-    <t>55,41%</t>
-  </si>
-  <si>
-    <t>67,67%</t>
-  </si>
-  <si>
-    <t>63,94%</t>
-  </si>
-  <si>
-    <t>59,2%</t>
-  </si>
-  <si>
-    <t>67,97%</t>
-  </si>
-  <si>
-    <t>Población que ha tenido un accidente en los últimos tres meses que le ha causado heridas o lesiones suficientes para limitar su actividad normal y/o para necesitar asistencia sanitaria en 2016 (Tasa respuesta: 5,56%)</t>
-  </si>
-  <si>
-    <t>39,47%</t>
-  </si>
-  <si>
-    <t>24,41%</t>
-  </si>
-  <si>
-    <t>55,5%</t>
-  </si>
-  <si>
-    <t>27,25%</t>
-  </si>
-  <si>
-    <t>10,91%</t>
-  </si>
-  <si>
-    <t>52,27%</t>
-  </si>
-  <si>
-    <t>35,88%</t>
-  </si>
-  <si>
-    <t>25,12%</t>
-  </si>
-  <si>
-    <t>47,88%</t>
-  </si>
-  <si>
-    <t>60,53%</t>
-  </si>
-  <si>
-    <t>44,5%</t>
-  </si>
-  <si>
-    <t>75,59%</t>
-  </si>
-  <si>
-    <t>72,75%</t>
-  </si>
-  <si>
-    <t>47,73%</t>
-  </si>
-  <si>
-    <t>89,09%</t>
-  </si>
-  <si>
-    <t>64,12%</t>
-  </si>
-  <si>
-    <t>52,12%</t>
-  </si>
-  <si>
-    <t>74,88%</t>
-  </si>
-  <si>
-    <t>43,52%</t>
-  </si>
-  <si>
-    <t>30,28%</t>
-  </si>
-  <si>
-    <t>57,56%</t>
-  </si>
-  <si>
-    <t>40,71%</t>
-  </si>
-  <si>
-    <t>18,4%</t>
-  </si>
-  <si>
-    <t>60,76%</t>
-  </si>
-  <si>
-    <t>42,65%</t>
-  </si>
-  <si>
-    <t>33,14%</t>
-  </si>
-  <si>
-    <t>55,31%</t>
-  </si>
-  <si>
-    <t>56,48%</t>
-  </si>
-  <si>
-    <t>42,44%</t>
-  </si>
-  <si>
-    <t>69,72%</t>
-  </si>
-  <si>
-    <t>59,29%</t>
-  </si>
-  <si>
-    <t>39,24%</t>
-  </si>
-  <si>
-    <t>81,6%</t>
-  </si>
-  <si>
-    <t>57,35%</t>
-  </si>
-  <si>
-    <t>44,69%</t>
-  </si>
-  <si>
-    <t>66,86%</t>
-  </si>
-  <si>
-    <t>56,5%</t>
-  </si>
-  <si>
-    <t>38,53%</t>
-  </si>
-  <si>
-    <t>73,73%</t>
-  </si>
-  <si>
-    <t>44,77%</t>
-  </si>
-  <si>
-    <t>23,55%</t>
-  </si>
-  <si>
-    <t>66,05%</t>
-  </si>
-  <si>
-    <t>51,68%</t>
-  </si>
-  <si>
-    <t>38,55%</t>
-  </si>
-  <si>
-    <t>65,33%</t>
-  </si>
-  <si>
-    <t>43,5%</t>
-  </si>
-  <si>
-    <t>26,27%</t>
-  </si>
-  <si>
-    <t>61,47%</t>
-  </si>
-  <si>
-    <t>55,23%</t>
-  </si>
-  <si>
-    <t>33,95%</t>
-  </si>
-  <si>
-    <t>76,45%</t>
-  </si>
-  <si>
-    <t>48,32%</t>
-  </si>
-  <si>
-    <t>34,67%</t>
-  </si>
-  <si>
-    <t>61,45%</t>
-  </si>
-  <si>
-    <t>43,22%</t>
-  </si>
-  <si>
-    <t>26,18%</t>
-  </si>
-  <si>
-    <t>65,43%</t>
-  </si>
-  <si>
-    <t>41,38%</t>
-  </si>
-  <si>
-    <t>23,14%</t>
-  </si>
-  <si>
-    <t>65,36%</t>
-  </si>
-  <si>
-    <t>42,38%</t>
-  </si>
-  <si>
-    <t>29,37%</t>
-  </si>
-  <si>
-    <t>56,75%</t>
-  </si>
-  <si>
-    <t>56,78%</t>
-  </si>
-  <si>
-    <t>34,57%</t>
-  </si>
-  <si>
-    <t>73,82%</t>
-  </si>
-  <si>
-    <t>58,62%</t>
-  </si>
-  <si>
-    <t>34,64%</t>
-  </si>
-  <si>
-    <t>76,86%</t>
-  </si>
-  <si>
-    <t>57,62%</t>
-  </si>
-  <si>
-    <t>43,25%</t>
-  </si>
-  <si>
-    <t>70,63%</t>
-  </si>
-  <si>
-    <t>29,35%</t>
-  </si>
-  <si>
-    <t>7,33%</t>
-  </si>
-  <si>
-    <t>59,76%</t>
-  </si>
-  <si>
-    <t>27,01%</t>
-  </si>
-  <si>
-    <t>67,09%</t>
-  </si>
-  <si>
-    <t>41,76%</t>
-  </si>
-  <si>
-    <t>26,03%</t>
-  </si>
-  <si>
-    <t>57,39%</t>
-  </si>
-  <si>
-    <t>70,65%</t>
-  </si>
-  <si>
-    <t>40,24%</t>
-  </si>
-  <si>
-    <t>92,67%</t>
-  </si>
-  <si>
-    <t>32,91%</t>
-  </si>
-  <si>
-    <t>72,99%</t>
-  </si>
-  <si>
-    <t>58,24%</t>
-  </si>
-  <si>
-    <t>42,61%</t>
-  </si>
-  <si>
-    <t>73,97%</t>
-  </si>
-  <si>
-    <t>48,98%</t>
-  </si>
-  <si>
-    <t>30,59%</t>
-  </si>
-  <si>
-    <t>66,48%</t>
-  </si>
-  <si>
-    <t>53,16%</t>
-  </si>
-  <si>
-    <t>40,36%</t>
-  </si>
-  <si>
-    <t>66,2%</t>
-  </si>
-  <si>
-    <t>52,03%</t>
-  </si>
-  <si>
-    <t>51,02%</t>
-  </si>
-  <si>
-    <t>33,52%</t>
-  </si>
-  <si>
-    <t>69,41%</t>
-  </si>
-  <si>
-    <t>46,84%</t>
-  </si>
-  <si>
-    <t>33,8%</t>
-  </si>
-  <si>
-    <t>59,64%</t>
-  </si>
-  <si>
-    <t>47,97%</t>
-  </si>
-  <si>
-    <t>44,64%</t>
-  </si>
-  <si>
-    <t>37,56%</t>
-  </si>
-  <si>
-    <t>51,63%</t>
-  </si>
-  <si>
-    <t>45,71%</t>
-  </si>
-  <si>
-    <t>37,66%</t>
-  </si>
-  <si>
-    <t>52,57%</t>
-  </si>
-  <si>
-    <t>45,16%</t>
-  </si>
-  <si>
-    <t>40,02%</t>
-  </si>
-  <si>
-    <t>50,82%</t>
-  </si>
-  <si>
-    <t>55,36%</t>
-  </si>
-  <si>
-    <t>48,37%</t>
-  </si>
-  <si>
-    <t>62,44%</t>
-  </si>
-  <si>
-    <t>54,29%</t>
-  </si>
-  <si>
-    <t>47,43%</t>
-  </si>
-  <si>
-    <t>62,34%</t>
-  </si>
-  <si>
-    <t>54,84%</t>
-  </si>
-  <si>
-    <t>49,18%</t>
-  </si>
-  <si>
-    <t>59,98%</t>
-  </si>
-  <si>
-    <t>Población que ha tenido un accidente en los últimos tres meses que le ha causado heridas o lesiones suficientes para limitar su actividad normal y/o para necesitar asistencia sanitaria en 2023 (Tasa respuesta: 6,53%)</t>
-  </si>
-  <si>
-    <t>46,51%</t>
-  </si>
-  <si>
-    <t>12,48%</t>
-  </si>
-  <si>
-    <t>85,85%</t>
-  </si>
-  <si>
-    <t>13,27%</t>
-  </si>
-  <si>
-    <t>79,61%</t>
-  </si>
-  <si>
-    <t>45,38%</t>
-  </si>
-  <si>
-    <t>20,96%</t>
-  </si>
-  <si>
-    <t>72,15%</t>
-  </si>
-  <si>
-    <t>53,49%</t>
-  </si>
-  <si>
-    <t>14,15%</t>
-  </si>
-  <si>
-    <t>87,52%</t>
-  </si>
-  <si>
-    <t>20,39%</t>
-  </si>
-  <si>
-    <t>86,73%</t>
-  </si>
-  <si>
-    <t>54,62%</t>
-  </si>
-  <si>
-    <t>27,85%</t>
-  </si>
-  <si>
-    <t>79,04%</t>
-  </si>
-  <si>
-    <t>45,27%</t>
-  </si>
-  <si>
-    <t>21,3%</t>
-  </si>
-  <si>
-    <t>70,76%</t>
-  </si>
-  <si>
-    <t>34,5%</t>
-  </si>
-  <si>
-    <t>13,62%</t>
-  </si>
-  <si>
-    <t>61,6%</t>
-  </si>
-  <si>
-    <t>41,24%</t>
-  </si>
-  <si>
-    <t>22,51%</t>
-  </si>
-  <si>
-    <t>59,3%</t>
-  </si>
-  <si>
-    <t>54,73%</t>
-  </si>
-  <si>
-    <t>29,24%</t>
-  </si>
-  <si>
-    <t>78,7%</t>
-  </si>
-  <si>
-    <t>65,5%</t>
-  </si>
-  <si>
-    <t>38,4%</t>
-  </si>
-  <si>
-    <t>86,38%</t>
-  </si>
-  <si>
-    <t>58,76%</t>
-  </si>
-  <si>
-    <t>40,7%</t>
-  </si>
-  <si>
-    <t>77,49%</t>
-  </si>
-  <si>
-    <t>28,64%</t>
-  </si>
-  <si>
-    <t>14,91%</t>
-  </si>
-  <si>
-    <t>46,42%</t>
-  </si>
-  <si>
-    <t>33,19%</t>
-  </si>
-  <si>
-    <t>20,14%</t>
-  </si>
-  <si>
-    <t>50,08%</t>
-  </si>
-  <si>
-    <t>30,66%</t>
-  </si>
-  <si>
-    <t>21,12%</t>
-  </si>
-  <si>
-    <t>43,26%</t>
-  </si>
-  <si>
-    <t>71,36%</t>
-  </si>
-  <si>
-    <t>53,58%</t>
-  </si>
-  <si>
-    <t>85,09%</t>
-  </si>
-  <si>
-    <t>66,81%</t>
-  </si>
-  <si>
-    <t>49,92%</t>
-  </si>
-  <si>
-    <t>79,86%</t>
-  </si>
-  <si>
-    <t>69,34%</t>
-  </si>
-  <si>
-    <t>56,74%</t>
-  </si>
-  <si>
-    <t>78,88%</t>
-  </si>
-  <si>
-    <t>43,62%</t>
-  </si>
-  <si>
-    <t>29,88%</t>
-  </si>
-  <si>
-    <t>58,54%</t>
-  </si>
-  <si>
-    <t>40,44%</t>
-  </si>
-  <si>
-    <t>25,08%</t>
-  </si>
-  <si>
-    <t>54,59%</t>
-  </si>
-  <si>
-    <t>42,43%</t>
-  </si>
-  <si>
-    <t>32,05%</t>
-  </si>
-  <si>
-    <t>52,97%</t>
-  </si>
-  <si>
-    <t>56,38%</t>
-  </si>
-  <si>
-    <t>41,46%</t>
-  </si>
-  <si>
-    <t>70,12%</t>
-  </si>
-  <si>
-    <t>59,56%</t>
-  </si>
-  <si>
-    <t>45,41%</t>
-  </si>
-  <si>
-    <t>74,92%</t>
-  </si>
-  <si>
-    <t>57,57%</t>
-  </si>
-  <si>
-    <t>47,03%</t>
-  </si>
-  <si>
-    <t>67,95%</t>
-  </si>
-  <si>
-    <t>23,04%</t>
-  </si>
-  <si>
-    <t>12,09%</t>
-  </si>
-  <si>
-    <t>42,16%</t>
-  </si>
-  <si>
-    <t>36,99%</t>
-  </si>
-  <si>
-    <t>25,79%</t>
-  </si>
-  <si>
-    <t>49,98%</t>
-  </si>
-  <si>
-    <t>30,77%</t>
-  </si>
-  <si>
-    <t>22,22%</t>
-  </si>
-  <si>
-    <t>41,49%</t>
-  </si>
-  <si>
-    <t>76,96%</t>
-  </si>
-  <si>
-    <t>57,84%</t>
-  </si>
-  <si>
-    <t>87,91%</t>
-  </si>
-  <si>
-    <t>63,01%</t>
-  </si>
-  <si>
-    <t>50,02%</t>
-  </si>
-  <si>
-    <t>74,21%</t>
-  </si>
-  <si>
-    <t>69,23%</t>
-  </si>
-  <si>
-    <t>58,51%</t>
-  </si>
-  <si>
-    <t>77,78%</t>
-  </si>
-  <si>
-    <t>39,57%</t>
-  </si>
-  <si>
-    <t>28,55%</t>
-  </si>
-  <si>
-    <t>52,65%</t>
-  </si>
-  <si>
-    <t>50,67%</t>
-  </si>
-  <si>
-    <t>43,12%</t>
-  </si>
-  <si>
-    <t>58,26%</t>
-  </si>
-  <si>
-    <t>47,42%</t>
-  </si>
-  <si>
-    <t>41,04%</t>
-  </si>
-  <si>
-    <t>54,05%</t>
-  </si>
-  <si>
-    <t>60,43%</t>
-  </si>
-  <si>
-    <t>47,35%</t>
-  </si>
-  <si>
-    <t>71,45%</t>
-  </si>
-  <si>
-    <t>49,33%</t>
-  </si>
-  <si>
-    <t>41,74%</t>
-  </si>
-  <si>
-    <t>56,88%</t>
-  </si>
-  <si>
-    <t>52,58%</t>
-  </si>
-  <si>
-    <t>45,95%</t>
-  </si>
-  <si>
-    <t>58,96%</t>
-  </si>
-  <si>
-    <t>37,52%</t>
-  </si>
-  <si>
-    <t>30,5%</t>
-  </si>
-  <si>
-    <t>45,48%</t>
-  </si>
-  <si>
-    <t>43,03%</t>
-  </si>
-  <si>
-    <t>37,02%</t>
-  </si>
-  <si>
-    <t>49,31%</t>
-  </si>
-  <si>
-    <t>40,45%</t>
-  </si>
-  <si>
-    <t>45,35%</t>
-  </si>
-  <si>
-    <t>62,48%</t>
-  </si>
-  <si>
-    <t>54,52%</t>
-  </si>
-  <si>
-    <t>69,5%</t>
-  </si>
-  <si>
-    <t>56,97%</t>
-  </si>
-  <si>
-    <t>50,69%</t>
-  </si>
-  <si>
-    <t>62,98%</t>
-  </si>
-  <si>
-    <t>59,55%</t>
-  </si>
-  <si>
-    <t>54,65%</t>
+    <t>Población que ha tenido un accidente en los últimos tres meses que le ha causado heridas o lesiones suficientes para limitar su actividad normal y/o para necesitar asistencia sanitaria en 2012 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>4,54%</t>
+  </si>
+  <si>
+    <t>2,88%</t>
+  </si>
+  <si>
+    <t>6,76%</t>
+  </si>
+  <si>
+    <t>2,09%</t>
+  </si>
+  <si>
+    <t>0,9%</t>
+  </si>
+  <si>
+    <t>3,65%</t>
+  </si>
+  <si>
+    <t>3,35%</t>
+  </si>
+  <si>
+    <t>2,35%</t>
+  </si>
+  <si>
+    <t>4,91%</t>
+  </si>
+  <si>
+    <t>95,46%</t>
+  </si>
+  <si>
+    <t>93,24%</t>
+  </si>
+  <si>
+    <t>97,12%</t>
+  </si>
+  <si>
+    <t>97,91%</t>
+  </si>
+  <si>
+    <t>96,35%</t>
+  </si>
+  <si>
+    <t>99,1%</t>
+  </si>
+  <si>
+    <t>96,65%</t>
+  </si>
+  <si>
+    <t>95,09%</t>
+  </si>
+  <si>
+    <t>97,65%</t>
+  </si>
+  <si>
+    <t>4,84%</t>
+  </si>
+  <si>
+    <t>3,42%</t>
+  </si>
+  <si>
+    <t>7,07%</t>
+  </si>
+  <si>
+    <t>2,02%</t>
+  </si>
+  <si>
+    <t>1,0%</t>
+  </si>
+  <si>
+    <t>3,71%</t>
+  </si>
+  <si>
+    <t>3,52%</t>
+  </si>
+  <si>
+    <t>2,53%</t>
+  </si>
+  <si>
+    <t>4,85%</t>
+  </si>
+  <si>
+    <t>95,16%</t>
+  </si>
+  <si>
+    <t>92,93%</t>
+  </si>
+  <si>
+    <t>96,58%</t>
+  </si>
+  <si>
+    <t>97,98%</t>
+  </si>
+  <si>
+    <t>96,29%</t>
+  </si>
+  <si>
+    <t>99,0%</t>
+  </si>
+  <si>
+    <t>96,48%</t>
+  </si>
+  <si>
+    <t>95,15%</t>
+  </si>
+  <si>
+    <t>97,47%</t>
+  </si>
+  <si>
+    <t>2,27%</t>
+  </si>
+  <si>
+    <t>1,27%</t>
+  </si>
+  <si>
+    <t>3,84%</t>
+  </si>
+  <si>
+    <t>1,62%</t>
+  </si>
+  <si>
+    <t>0,83%</t>
+  </si>
+  <si>
+    <t>1,94%</t>
+  </si>
+  <si>
+    <t>2,92%</t>
+  </si>
+  <si>
+    <t>97,73%</t>
+  </si>
+  <si>
+    <t>96,16%</t>
+  </si>
+  <si>
+    <t>98,73%</t>
+  </si>
+  <si>
+    <t>98,38%</t>
+  </si>
+  <si>
+    <t>99,17%</t>
+  </si>
+  <si>
+    <t>98,06%</t>
+  </si>
+  <si>
+    <t>97,08%</t>
+  </si>
+  <si>
+    <t>1,32%</t>
+  </si>
+  <si>
+    <t>0,65%</t>
+  </si>
+  <si>
+    <t>2,6%</t>
+  </si>
+  <si>
+    <t>3,18%</t>
+  </si>
+  <si>
+    <t>1,86%</t>
+  </si>
+  <si>
+    <t>4,97%</t>
+  </si>
+  <si>
+    <t>1,5%</t>
+  </si>
+  <si>
+    <t>98,68%</t>
+  </si>
+  <si>
+    <t>97,4%</t>
+  </si>
+  <si>
+    <t>99,35%</t>
+  </si>
+  <si>
+    <t>96,82%</t>
+  </si>
+  <si>
+    <t>95,03%</t>
+  </si>
+  <si>
+    <t>98,14%</t>
+  </si>
+  <si>
+    <t>98,5%</t>
+  </si>
+  <si>
+    <t>1,02%</t>
+  </si>
+  <si>
+    <t>0,25%</t>
+  </si>
+  <si>
+    <t>2,41%</t>
+  </si>
+  <si>
+    <t>3,11%</t>
+  </si>
+  <si>
+    <t>1,64%</t>
+  </si>
+  <si>
+    <t>5,09%</t>
+  </si>
+  <si>
+    <t>1,23%</t>
+  </si>
+  <si>
+    <t>98,98%</t>
+  </si>
+  <si>
+    <t>97,59%</t>
+  </si>
+  <si>
+    <t>99,75%</t>
+  </si>
+  <si>
+    <t>96,89%</t>
+  </si>
+  <si>
+    <t>94,91%</t>
+  </si>
+  <si>
+    <t>98,36%</t>
+  </si>
+  <si>
+    <t>98,77%</t>
+  </si>
+  <si>
+    <t>2,93%</t>
+  </si>
+  <si>
+    <t>1,79%</t>
+  </si>
+  <si>
+    <t>4,65%</t>
+  </si>
+  <si>
+    <t>4,3%</t>
+  </si>
+  <si>
+    <t>6,08%</t>
+  </si>
+  <si>
+    <t>2,71%</t>
+  </si>
+  <si>
+    <t>4,81%</t>
+  </si>
+  <si>
+    <t>97,07%</t>
+  </si>
+  <si>
+    <t>95,35%</t>
+  </si>
+  <si>
+    <t>98,21%</t>
+  </si>
+  <si>
+    <t>95,7%</t>
+  </si>
+  <si>
+    <t>93,92%</t>
+  </si>
+  <si>
+    <t>95,19%</t>
+  </si>
+  <si>
+    <t>97,29%</t>
+  </si>
+  <si>
+    <t>2,87%</t>
+  </si>
+  <si>
+    <t>2,3%</t>
+  </si>
+  <si>
+    <t>3,5%</t>
+  </si>
+  <si>
+    <t>2,76%</t>
+  </si>
+  <si>
+    <t>3,38%</t>
+  </si>
+  <si>
+    <t>3,25%</t>
+  </si>
+  <si>
+    <t>97,13%</t>
+  </si>
+  <si>
+    <t>96,5%</t>
+  </si>
+  <si>
+    <t>97,7%</t>
+  </si>
+  <si>
+    <t>97,24%</t>
+  </si>
+  <si>
+    <t>96,62%</t>
+  </si>
+  <si>
+    <t>96,75%</t>
+  </si>
+  <si>
+    <t>Población que ha tenido un accidente en los últimos tres meses que le ha causado heridas o lesiones suficientes para limitar su actividad normal y/o para necesitar asistencia sanitaria en 2016 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>4,14%</t>
+  </si>
+  <si>
+    <t>2,55%</t>
+  </si>
+  <si>
+    <t>6,41%</t>
+  </si>
+  <si>
+    <t>1,26%</t>
+  </si>
+  <si>
+    <t>0,49%</t>
+  </si>
+  <si>
+    <t>2,74%</t>
+  </si>
+  <si>
+    <t>1,66%</t>
+  </si>
+  <si>
+    <t>4,13%</t>
+  </si>
+  <si>
+    <t>95,86%</t>
+  </si>
+  <si>
+    <t>93,59%</t>
+  </si>
+  <si>
+    <t>97,45%</t>
+  </si>
+  <si>
+    <t>98,74%</t>
+  </si>
+  <si>
+    <t>99,51%</t>
+  </si>
+  <si>
+    <t>97,26%</t>
+  </si>
+  <si>
+    <t>95,87%</t>
+  </si>
+  <si>
+    <t>98,34%</t>
+  </si>
+  <si>
+    <t>2,47%</t>
+  </si>
+  <si>
+    <t>5,48%</t>
+  </si>
+  <si>
+    <t>0,79%</t>
+  </si>
+  <si>
+    <t>3,1%</t>
+  </si>
+  <si>
+    <t>2,72%</t>
+  </si>
+  <si>
+    <t>1,92%</t>
+  </si>
+  <si>
+    <t>3,74%</t>
+  </si>
+  <si>
+    <t>94,52%</t>
+  </si>
+  <si>
+    <t>97,53%</t>
+  </si>
+  <si>
+    <t>96,9%</t>
+  </si>
+  <si>
+    <t>99,21%</t>
+  </si>
+  <si>
+    <t>97,28%</t>
+  </si>
+  <si>
+    <t>96,26%</t>
+  </si>
+  <si>
+    <t>98,08%</t>
+  </si>
+  <si>
+    <t>3,03%</t>
+  </si>
+  <si>
+    <t>4,68%</t>
+  </si>
+  <si>
+    <t>1,7%</t>
+  </si>
+  <si>
+    <t>0,89%</t>
+  </si>
+  <si>
+    <t>2,37%</t>
+  </si>
+  <si>
+    <t>1,57%</t>
+  </si>
+  <si>
+    <t>3,3%</t>
+  </si>
+  <si>
+    <t>96,97%</t>
+  </si>
+  <si>
+    <t>95,32%</t>
+  </si>
+  <si>
+    <t>98,3%</t>
+  </si>
+  <si>
+    <t>99,11%</t>
+  </si>
+  <si>
+    <t>97,63%</t>
+  </si>
+  <si>
+    <t>96,7%</t>
+  </si>
+  <si>
+    <t>98,43%</t>
+  </si>
+  <si>
+    <t>1,93%</t>
+  </si>
+  <si>
+    <t>0,99%</t>
+  </si>
+  <si>
+    <t>3,47%</t>
+  </si>
+  <si>
+    <t>1,56%</t>
+  </si>
+  <si>
+    <t>0,76%</t>
+  </si>
+  <si>
+    <t>1,74%</t>
+  </si>
+  <si>
+    <t>1,05%</t>
+  </si>
+  <si>
+    <t>2,61%</t>
+  </si>
+  <si>
+    <t>98,07%</t>
+  </si>
+  <si>
+    <t>96,53%</t>
+  </si>
+  <si>
+    <t>99,01%</t>
+  </si>
+  <si>
+    <t>98,44%</t>
+  </si>
+  <si>
+    <t>99,24%</t>
+  </si>
+  <si>
+    <t>98,26%</t>
+  </si>
+  <si>
+    <t>97,39%</t>
+  </si>
+  <si>
+    <t>98,95%</t>
+  </si>
+  <si>
+    <t>0,86%</t>
+  </si>
+  <si>
+    <t>0,22%</t>
+  </si>
+  <si>
+    <t>2,9%</t>
+  </si>
+  <si>
+    <t>1,46%</t>
+  </si>
+  <si>
+    <t>4,89%</t>
+  </si>
+  <si>
+    <t>1,9%</t>
+  </si>
+  <si>
+    <t>1,17%</t>
+  </si>
+  <si>
+    <t>99,14%</t>
+  </si>
+  <si>
+    <t>99,78%</t>
+  </si>
+  <si>
+    <t>97,1%</t>
+  </si>
+  <si>
+    <t>95,11%</t>
+  </si>
+  <si>
+    <t>98,54%</t>
+  </si>
+  <si>
+    <t>98,1%</t>
+  </si>
+  <si>
+    <t>98,83%</t>
+  </si>
+  <si>
+    <t>2,16%</t>
+  </si>
+  <si>
+    <t>1,31%</t>
+  </si>
+  <si>
+    <t>3,56%</t>
+  </si>
+  <si>
+    <t>6,54%</t>
+  </si>
+  <si>
+    <t>3,68%</t>
+  </si>
+  <si>
+    <t>2,69%</t>
+  </si>
+  <si>
+    <t>4,77%</t>
+  </si>
+  <si>
+    <t>97,84%</t>
+  </si>
+  <si>
+    <t>96,44%</t>
+  </si>
+  <si>
+    <t>98,69%</t>
+  </si>
+  <si>
+    <t>93,46%</t>
+  </si>
+  <si>
+    <t>96,32%</t>
+  </si>
+  <si>
+    <t>95,23%</t>
+  </si>
+  <si>
+    <t>97,31%</t>
+  </si>
+  <si>
+    <t>2,63%</t>
+  </si>
+  <si>
+    <t>1,97%</t>
+  </si>
+  <si>
+    <t>2,2%</t>
+  </si>
+  <si>
+    <t>2,96%</t>
+  </si>
+  <si>
+    <t>97,37%</t>
+  </si>
+  <si>
+    <t>98,03%</t>
+  </si>
+  <si>
+    <t>97,04%</t>
+  </si>
+  <si>
+    <t>97,8%</t>
+  </si>
+  <si>
+    <t>Población que ha tenido un accidente en los últimos tres meses que le ha causado heridas o lesiones suficientes para limitar su actividad normal y/o para necesitar asistencia sanitaria en 2023 (Tasa respuesta: 99,97%)</t>
+  </si>
+  <si>
+    <t>2,22%</t>
+  </si>
+  <si>
+    <t>0,5%</t>
+  </si>
+  <si>
+    <t>6,33%</t>
+  </si>
+  <si>
+    <t>6,91%</t>
+  </si>
+  <si>
+    <t>2,54%</t>
+  </si>
+  <si>
+    <t>5,37%</t>
+  </si>
+  <si>
+    <t>97,78%</t>
+  </si>
+  <si>
+    <t>93,67%</t>
+  </si>
+  <si>
+    <t>99,5%</t>
+  </si>
+  <si>
+    <t>93,09%</t>
+  </si>
+  <si>
+    <t>97,46%</t>
+  </si>
+  <si>
+    <t>94,63%</t>
+  </si>
+  <si>
+    <t>1,33%</t>
+  </si>
+  <si>
+    <t>5,53%</t>
+  </si>
+  <si>
+    <t>1,13%</t>
+  </si>
+  <si>
+    <t>0,42%</t>
+  </si>
+  <si>
+    <t>2,56%</t>
+  </si>
+  <si>
+    <t>94,47%</t>
+  </si>
+  <si>
+    <t>98,67%</t>
+  </si>
+  <si>
+    <t>98,87%</t>
+  </si>
+  <si>
+    <t>97,44%</t>
+  </si>
+  <si>
+    <t>99,58%</t>
+  </si>
+  <si>
+    <t>3,49%</t>
+  </si>
+  <si>
+    <t>0,94%</t>
+  </si>
+  <si>
+    <t>2,68%</t>
+  </si>
+  <si>
+    <t>1,81%</t>
+  </si>
+  <si>
+    <t>1,16%</t>
+  </si>
+  <si>
+    <t>96,51%</t>
+  </si>
+  <si>
+    <t>97,32%</t>
+  </si>
+  <si>
+    <t>99,06%</t>
+  </si>
+  <si>
+    <t>98,19%</t>
+  </si>
+  <si>
+    <t>98,84%</t>
+  </si>
+  <si>
+    <t>5,11%</t>
+  </si>
+  <si>
+    <t>1,71%</t>
+  </si>
+  <si>
+    <t>1,06%</t>
+  </si>
+  <si>
+    <t>3,39%</t>
+  </si>
+  <si>
+    <t>94,89%</t>
+  </si>
+  <si>
+    <t>98,29%</t>
+  </si>
+  <si>
+    <t>98,94%</t>
+  </si>
+  <si>
+    <t>96,61%</t>
+  </si>
+  <si>
+    <t>1,18%</t>
+  </si>
+  <si>
+    <t>0,55%</t>
+  </si>
+  <si>
+    <t>3,33%</t>
+  </si>
+  <si>
+    <t>1,77%</t>
+  </si>
+  <si>
+    <t>1,21%</t>
+  </si>
+  <si>
+    <t>2,51%</t>
+  </si>
+  <si>
+    <t>98,82%</t>
+  </si>
+  <si>
+    <t>99,45%</t>
+  </si>
+  <si>
+    <t>96,67%</t>
+  </si>
+  <si>
+    <t>98,23%</t>
+  </si>
+  <si>
+    <t>97,49%</t>
+  </si>
+  <si>
+    <t>98,79%</t>
+  </si>
+  <si>
+    <t>2,19%</t>
+  </si>
+  <si>
+    <t>1,51%</t>
+  </si>
+  <si>
+    <t>4,6%</t>
+  </si>
+  <si>
+    <t>3,2%</t>
+  </si>
+  <si>
+    <t>5,81%</t>
+  </si>
+  <si>
+    <t>3,63%</t>
+  </si>
+  <si>
+    <t>2,81%</t>
+  </si>
+  <si>
+    <t>4,45%</t>
+  </si>
+  <si>
+    <t>97,81%</t>
+  </si>
+  <si>
+    <t>98,49%</t>
+  </si>
+  <si>
+    <t>95,4%</t>
+  </si>
+  <si>
+    <t>94,19%</t>
+  </si>
+  <si>
+    <t>96,8%</t>
+  </si>
+  <si>
+    <t>96,37%</t>
+  </si>
+  <si>
+    <t>95,55%</t>
+  </si>
+  <si>
+    <t>97,19%</t>
+  </si>
+  <si>
+    <t>1,76%</t>
+  </si>
+  <si>
+    <t>2,62%</t>
+  </si>
+  <si>
+    <t>2,17%</t>
+  </si>
+  <si>
+    <t>3,22%</t>
+  </si>
+  <si>
+    <t>2,46%</t>
+  </si>
+  <si>
+    <t>2,1%</t>
+  </si>
+  <si>
+    <t>2,85%</t>
+  </si>
+  <si>
+    <t>98,24%</t>
+  </si>
+  <si>
+    <t>97,38%</t>
+  </si>
+  <si>
+    <t>96,78%</t>
+  </si>
+  <si>
+    <t>97,83%</t>
+  </si>
+  <si>
+    <t>97,54%</t>
+  </si>
+  <si>
+    <t>97,15%</t>
+  </si>
+  <si>
+    <t>97,9%</t>
   </si>
 </sst>
 </file>
@@ -1980,7 +1728,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F5D7A0C7-606E-4D36-A8C0-54ADBEB51B88}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1D01FE80-E14A-4E69-92F5-110052F49AC6}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2149,10 +1897,10 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>20</v>
+        <v>466</v>
       </c>
       <c r="D5" s="7">
-        <v>19371</v>
+        <v>460349</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>21</v>
@@ -2164,10 +1912,10 @@
         <v>23</v>
       </c>
       <c r="H5" s="7">
-        <v>12</v>
+        <v>478</v>
       </c>
       <c r="I5" s="7">
-        <v>11881</v>
+        <v>456902</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>24</v>
@@ -2179,10 +1927,10 @@
         <v>26</v>
       </c>
       <c r="M5" s="7">
-        <v>32</v>
+        <v>944</v>
       </c>
       <c r="N5" s="7">
-        <v>31252</v>
+        <v>917251</v>
       </c>
       <c r="O5" s="7" t="s">
         <v>27</v>
@@ -2200,10 +1948,10 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>53</v>
+        <v>499</v>
       </c>
       <c r="D6" s="7">
-        <v>53086</v>
+        <v>494064</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>30</v>
@@ -2215,10 +1963,10 @@
         <v>30</v>
       </c>
       <c r="H6" s="7">
-        <v>23</v>
+        <v>489</v>
       </c>
       <c r="I6" s="7">
-        <v>22468</v>
+        <v>467489</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>30</v>
@@ -2230,10 +1978,10 @@
         <v>30</v>
       </c>
       <c r="M6" s="7">
-        <v>76</v>
+        <v>988</v>
       </c>
       <c r="N6" s="7">
-        <v>75554</v>
+        <v>961553</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>30</v>
@@ -2304,10 +2052,10 @@
         <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>29</v>
+        <v>670</v>
       </c>
       <c r="D8" s="7">
-        <v>29579</v>
+        <v>700553</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>41</v>
@@ -2319,10 +2067,10 @@
         <v>43</v>
       </c>
       <c r="H8" s="7">
-        <v>15</v>
+        <v>574</v>
       </c>
       <c r="I8" s="7">
-        <v>16716</v>
+        <v>606941</v>
       </c>
       <c r="J8" s="7" t="s">
         <v>44</v>
@@ -2334,10 +2082,10 @@
         <v>46</v>
       </c>
       <c r="M8" s="7">
-        <v>44</v>
+        <v>1244</v>
       </c>
       <c r="N8" s="7">
-        <v>46295</v>
+        <v>1307493</v>
       </c>
       <c r="O8" s="7" t="s">
         <v>47</v>
@@ -2355,10 +2103,10 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>62</v>
+        <v>703</v>
       </c>
       <c r="D9" s="7">
-        <v>64515</v>
+        <v>735489</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>30</v>
@@ -2370,10 +2118,10 @@
         <v>30</v>
       </c>
       <c r="H9" s="7">
-        <v>32</v>
+        <v>591</v>
       </c>
       <c r="I9" s="7">
-        <v>35269</v>
+        <v>625494</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -2385,10 +2133,10 @@
         <v>30</v>
       </c>
       <c r="M9" s="7">
-        <v>94</v>
+        <v>1294</v>
       </c>
       <c r="N9" s="7">
-        <v>99784</v>
+        <v>1360982</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -2459,10 +2207,10 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>29</v>
+        <v>599</v>
       </c>
       <c r="D11" s="7">
-        <v>30958</v>
+        <v>623737</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>60</v>
@@ -2474,10 +2222,10 @@
         <v>62</v>
       </c>
       <c r="H11" s="7">
-        <v>7</v>
+        <v>645</v>
       </c>
       <c r="I11" s="7">
-        <v>6741</v>
+        <v>676328</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>63</v>
@@ -2489,10 +2237,10 @@
         <v>65</v>
       </c>
       <c r="M11" s="7">
-        <v>36</v>
+        <v>1244</v>
       </c>
       <c r="N11" s="7">
-        <v>37699</v>
+        <v>1300065</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>66</v>
@@ -2510,10 +2258,10 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>43</v>
+        <v>613</v>
       </c>
       <c r="D12" s="7">
-        <v>45889</v>
+        <v>638668</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>30</v>
@@ -2525,10 +2273,10 @@
         <v>30</v>
       </c>
       <c r="H12" s="7">
-        <v>20</v>
+        <v>658</v>
       </c>
       <c r="I12" s="7">
-        <v>20157</v>
+        <v>689744</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -2540,10 +2288,10 @@
         <v>30</v>
       </c>
       <c r="M12" s="7">
-        <v>63</v>
+        <v>1271</v>
       </c>
       <c r="N12" s="7">
-        <v>66046</v>
+        <v>1328412</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -2614,10 +2362,10 @@
         <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>20</v>
+        <v>465</v>
       </c>
       <c r="D14" s="7">
-        <v>21601</v>
+        <v>499609</v>
       </c>
       <c r="E14" s="7" t="s">
         <v>79</v>
@@ -2629,10 +2377,10 @@
         <v>81</v>
       </c>
       <c r="H14" s="7">
-        <v>10</v>
+        <v>493</v>
       </c>
       <c r="I14" s="7">
-        <v>10221</v>
+        <v>505977</v>
       </c>
       <c r="J14" s="7" t="s">
         <v>82</v>
@@ -2644,10 +2392,10 @@
         <v>84</v>
       </c>
       <c r="M14" s="7">
-        <v>30</v>
+        <v>958</v>
       </c>
       <c r="N14" s="7">
-        <v>31821</v>
+        <v>1005586</v>
       </c>
       <c r="O14" s="7" t="s">
         <v>85</v>
@@ -2665,10 +2413,10 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>39</v>
+        <v>484</v>
       </c>
       <c r="D15" s="7">
-        <v>41139</v>
+        <v>519147</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>30</v>
@@ -2680,10 +2428,10 @@
         <v>30</v>
       </c>
       <c r="H15" s="7">
-        <v>19</v>
+        <v>502</v>
       </c>
       <c r="I15" s="7">
-        <v>19886</v>
+        <v>515642</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -2695,10 +2443,10 @@
         <v>30</v>
       </c>
       <c r="M15" s="7">
-        <v>58</v>
+        <v>986</v>
       </c>
       <c r="N15" s="7">
-        <v>61024</v>
+        <v>1034789</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
@@ -2769,10 +2517,10 @@
         <v>20</v>
       </c>
       <c r="C17" s="7">
-        <v>10</v>
+        <v>383</v>
       </c>
       <c r="D17" s="7">
-        <v>9465</v>
+        <v>377339</v>
       </c>
       <c r="E17" s="7" t="s">
         <v>98</v>
@@ -2784,10 +2532,10 @@
         <v>100</v>
       </c>
       <c r="H17" s="7">
-        <v>8</v>
+        <v>386</v>
       </c>
       <c r="I17" s="7">
-        <v>7933</v>
+        <v>394115</v>
       </c>
       <c r="J17" s="7" t="s">
         <v>101</v>
@@ -2799,10 +2547,10 @@
         <v>103</v>
       </c>
       <c r="M17" s="7">
-        <v>18</v>
+        <v>769</v>
       </c>
       <c r="N17" s="7">
-        <v>17398</v>
+        <v>771454</v>
       </c>
       <c r="O17" s="7" t="s">
         <v>104</v>
@@ -2820,10 +2568,10 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
-        <v>19</v>
+        <v>392</v>
       </c>
       <c r="D18" s="7">
-        <v>18836</v>
+        <v>386710</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>30</v>
@@ -2835,10 +2583,10 @@
         <v>30</v>
       </c>
       <c r="H18" s="7">
-        <v>18</v>
+        <v>396</v>
       </c>
       <c r="I18" s="7">
-        <v>17804</v>
+        <v>403986</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>30</v>
@@ -2850,10 +2598,10 @@
         <v>30</v>
       </c>
       <c r="M18" s="7">
-        <v>37</v>
+        <v>788</v>
       </c>
       <c r="N18" s="7">
-        <v>36640</v>
+        <v>790696</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>30</v>
@@ -2885,7 +2633,7 @@
         <v>109</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>110</v>
+        <v>75</v>
       </c>
       <c r="H19" s="7">
         <v>30</v>
@@ -2894,28 +2642,28 @@
         <v>31714</v>
       </c>
       <c r="J19" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="K19" s="7" t="s">
         <v>111</v>
       </c>
-      <c r="K19" s="7" t="s">
+      <c r="L19" s="7" t="s">
         <v>112</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>113</v>
       </c>
       <c r="M19" s="7">
         <v>41</v>
       </c>
       <c r="N19" s="7">
-        <v>42300</v>
+        <v>42299</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="P19" s="7" t="s">
         <v>114</v>
       </c>
-      <c r="P19" s="7" t="s">
+      <c r="Q19" s="7" t="s">
         <v>115</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>116</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2924,49 +2672,49 @@
         <v>20</v>
       </c>
       <c r="C20" s="7">
-        <v>10</v>
+        <v>512</v>
       </c>
       <c r="D20" s="7">
-        <v>9007</v>
+        <v>491881</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="G20" s="7" t="s">
         <v>117</v>
       </c>
-      <c r="F20" s="7" t="s">
+      <c r="H20" s="7">
+        <v>631</v>
+      </c>
+      <c r="I20" s="7">
+        <v>645128</v>
+      </c>
+      <c r="J20" s="7" t="s">
         <v>118</v>
       </c>
-      <c r="G20" s="7" t="s">
+      <c r="K20" s="7" t="s">
         <v>119</v>
       </c>
-      <c r="H20" s="7">
-        <v>27</v>
-      </c>
-      <c r="I20" s="7">
-        <v>28093</v>
-      </c>
-      <c r="J20" s="7" t="s">
+      <c r="L20" s="7" t="s">
         <v>120</v>
       </c>
-      <c r="K20" s="7" t="s">
+      <c r="M20" s="7">
+        <v>1143</v>
+      </c>
+      <c r="N20" s="7">
+        <v>1137009</v>
+      </c>
+      <c r="O20" s="7" t="s">
         <v>121</v>
       </c>
-      <c r="L20" s="7" t="s">
+      <c r="P20" s="7" t="s">
         <v>122</v>
       </c>
-      <c r="M20" s="7">
-        <v>37</v>
-      </c>
-      <c r="N20" s="7">
-        <v>37099</v>
-      </c>
-      <c r="O20" s="7" t="s">
+      <c r="Q20" s="7" t="s">
         <v>123</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>124</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>125</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2975,10 +2723,10 @@
         <v>3</v>
       </c>
       <c r="C21" s="7">
-        <v>21</v>
+        <v>523</v>
       </c>
       <c r="D21" s="7">
-        <v>19592</v>
+        <v>502466</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>30</v>
@@ -2990,10 +2738,10 @@
         <v>30</v>
       </c>
       <c r="H21" s="7">
-        <v>57</v>
+        <v>661</v>
       </c>
       <c r="I21" s="7">
-        <v>59807</v>
+        <v>676842</v>
       </c>
       <c r="J21" s="7" t="s">
         <v>30</v>
@@ -3005,10 +2753,10 @@
         <v>30</v>
       </c>
       <c r="M21" s="7">
-        <v>78</v>
+        <v>1184</v>
       </c>
       <c r="N21" s="7">
-        <v>79399</v>
+        <v>1179308</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>30</v>
@@ -3034,13 +2782,13 @@
         <v>123077</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>12</v>
+        <v>70</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="H22" s="7">
         <v>90</v>
@@ -3049,13 +2797,13 @@
         <v>93806</v>
       </c>
       <c r="J22" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="K22" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="L22" s="7" t="s">
         <v>128</v>
-      </c>
-      <c r="K22" s="7" t="s">
-        <v>129</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>130</v>
       </c>
       <c r="M22" s="7">
         <v>209</v>
@@ -3064,13 +2812,13 @@
         <v>216883</v>
       </c>
       <c r="O22" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="P22" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="Q22" s="7" t="s">
         <v>131</v>
-      </c>
-      <c r="P22" s="7" t="s">
-        <v>132</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>133</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3079,49 +2827,49 @@
         <v>20</v>
       </c>
       <c r="C23" s="7">
-        <v>118</v>
+        <v>3095</v>
       </c>
       <c r="D23" s="7">
-        <v>119979</v>
+        <v>3153467</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>23</v>
+        <v>79</v>
       </c>
       <c r="F23" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="G23" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="H23" s="7">
+        <v>3207</v>
+      </c>
+      <c r="I23" s="7">
+        <v>3285392</v>
+      </c>
+      <c r="J23" s="7" t="s">
         <v>134</v>
       </c>
-      <c r="G23" s="7" t="s">
+      <c r="K23" s="7" t="s">
         <v>135</v>
       </c>
-      <c r="H23" s="7">
-        <v>79</v>
-      </c>
-      <c r="I23" s="7">
-        <v>81585</v>
-      </c>
-      <c r="J23" s="7" t="s">
+      <c r="L23" s="7" t="s">
         <v>136</v>
       </c>
-      <c r="K23" s="7" t="s">
+      <c r="M23" s="7">
+        <v>6302</v>
+      </c>
+      <c r="N23" s="7">
+        <v>6438857</v>
+      </c>
+      <c r="O23" s="7" t="s">
         <v>137</v>
       </c>
-      <c r="L23" s="7" t="s">
+      <c r="P23" s="7" t="s">
         <v>138</v>
       </c>
-      <c r="M23" s="7">
-        <v>197</v>
-      </c>
-      <c r="N23" s="7">
-        <v>201564</v>
-      </c>
-      <c r="O23" s="7" t="s">
+      <c r="Q23" s="7" t="s">
         <v>139</v>
-      </c>
-      <c r="P23" s="7" t="s">
-        <v>140</v>
-      </c>
-      <c r="Q23" s="7" t="s">
-        <v>141</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -3130,10 +2878,10 @@
         <v>3</v>
       </c>
       <c r="C24" s="7">
-        <v>237</v>
+        <v>3214</v>
       </c>
       <c r="D24" s="7">
-        <v>243056</v>
+        <v>3276544</v>
       </c>
       <c r="E24" s="7" t="s">
         <v>30</v>
@@ -3145,10 +2893,10 @@
         <v>30</v>
       </c>
       <c r="H24" s="7">
-        <v>169</v>
+        <v>3297</v>
       </c>
       <c r="I24" s="7">
-        <v>175391</v>
+        <v>3379198</v>
       </c>
       <c r="J24" s="7" t="s">
         <v>30</v>
@@ -3160,10 +2908,10 @@
         <v>30</v>
       </c>
       <c r="M24" s="7">
-        <v>406</v>
+        <v>6511</v>
       </c>
       <c r="N24" s="7">
-        <v>418447</v>
+        <v>6655740</v>
       </c>
       <c r="O24" s="7" t="s">
         <v>30</v>
@@ -3177,7 +2925,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
     </row>
   </sheetData>
@@ -3199,7 +2947,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{000DCF1C-4938-4188-BFFA-6D15193EFAE7}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CC5DD5DE-A9E6-44A8-A1D2-1031AC11FBFB}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3216,7 +2964,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3323,28 +3071,28 @@
         <v>20639</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>124</v>
+        <v>142</v>
       </c>
       <c r="F4" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="G4" s="7" t="s">
         <v>144</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>145</v>
       </c>
       <c r="H4" s="7">
         <v>9</v>
       </c>
       <c r="I4" s="7">
-        <v>8981</v>
+        <v>8980</v>
       </c>
       <c r="J4" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="K4" s="7" t="s">
         <v>146</v>
       </c>
-      <c r="K4" s="7" t="s">
+      <c r="L4" s="7" t="s">
         <v>147</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>148</v>
       </c>
       <c r="M4" s="7">
         <v>30</v>
@@ -3353,13 +3101,13 @@
         <v>29619</v>
       </c>
       <c r="O4" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="P4" s="7" t="s">
         <v>149</v>
       </c>
-      <c r="P4" s="7" t="s">
+      <c r="Q4" s="7" t="s">
         <v>150</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>151</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3368,13 +3116,13 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>40</v>
+        <v>425</v>
       </c>
       <c r="D5" s="7">
-        <v>38991</v>
+        <v>433507</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>116</v>
+        <v>151</v>
       </c>
       <c r="F5" s="7" t="s">
         <v>152</v>
@@ -3383,10 +3131,10 @@
         <v>153</v>
       </c>
       <c r="H5" s="7">
-        <v>23</v>
+        <v>412</v>
       </c>
       <c r="I5" s="7">
-        <v>22694</v>
+        <v>421250</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>154</v>
@@ -3398,10 +3146,10 @@
         <v>156</v>
       </c>
       <c r="M5" s="7">
-        <v>63</v>
+        <v>837</v>
       </c>
       <c r="N5" s="7">
-        <v>61686</v>
+        <v>854757</v>
       </c>
       <c r="O5" s="7" t="s">
         <v>157</v>
@@ -3419,10 +3167,10 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>61</v>
+        <v>446</v>
       </c>
       <c r="D6" s="7">
-        <v>59630</v>
+        <v>454146</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>30</v>
@@ -3434,10 +3182,10 @@
         <v>30</v>
       </c>
       <c r="H6" s="7">
-        <v>32</v>
+        <v>421</v>
       </c>
       <c r="I6" s="7">
-        <v>31675</v>
+        <v>430230</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>30</v>
@@ -3449,10 +3197,10 @@
         <v>30</v>
       </c>
       <c r="M6" s="7">
-        <v>93</v>
+        <v>867</v>
       </c>
       <c r="N6" s="7">
-        <v>91305</v>
+        <v>884376</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>30</v>
@@ -3523,10 +3271,10 @@
         <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>49</v>
+        <v>636</v>
       </c>
       <c r="D8" s="7">
-        <v>49037</v>
+        <v>653804</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>169</v>
@@ -3538,10 +3286,10 @@
         <v>171</v>
       </c>
       <c r="H8" s="7">
-        <v>26</v>
+        <v>561</v>
       </c>
       <c r="I8" s="7">
-        <v>26738</v>
+        <v>597919</v>
       </c>
       <c r="J8" s="7" t="s">
         <v>172</v>
@@ -3553,10 +3301,10 @@
         <v>174</v>
       </c>
       <c r="M8" s="7">
-        <v>75</v>
+        <v>1197</v>
       </c>
       <c r="N8" s="7">
-        <v>75774</v>
+        <v>1251723</v>
       </c>
       <c r="O8" s="7" t="s">
         <v>175</v>
@@ -3574,10 +3322,10 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>80</v>
+        <v>667</v>
       </c>
       <c r="D9" s="7">
-        <v>82320</v>
+        <v>687087</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>30</v>
@@ -3589,10 +3337,10 @@
         <v>30</v>
       </c>
       <c r="H9" s="7">
-        <v>36</v>
+        <v>571</v>
       </c>
       <c r="I9" s="7">
-        <v>39074</v>
+        <v>610255</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -3604,10 +3352,10 @@
         <v>30</v>
       </c>
       <c r="M9" s="7">
-        <v>116</v>
+        <v>1238</v>
       </c>
       <c r="N9" s="7">
-        <v>121393</v>
+        <v>1297342</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -3648,13 +3396,13 @@
         <v>11530</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>137</v>
+        <v>181</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>182</v>
+        <v>39</v>
       </c>
       <c r="M10" s="7">
         <v>25</v>
@@ -3666,10 +3414,10 @@
         <v>183</v>
       </c>
       <c r="P10" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="Q10" s="7" t="s">
         <v>184</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>185</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3678,49 +3426,49 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>37</v>
+        <v>637</v>
       </c>
       <c r="D11" s="7">
-        <v>41099</v>
+        <v>666396</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>185</v>
+      </c>
+      <c r="F11" s="7" t="s">
         <v>186</v>
       </c>
-      <c r="F11" s="7" t="s">
+      <c r="G11" s="7" t="s">
         <v>187</v>
       </c>
-      <c r="G11" s="7" t="s">
+      <c r="H11" s="7">
+        <v>656</v>
+      </c>
+      <c r="I11" s="7">
+        <v>699320</v>
+      </c>
+      <c r="J11" s="7" t="s">
         <v>188</v>
       </c>
-      <c r="H11" s="7">
-        <v>18</v>
-      </c>
-      <c r="I11" s="7">
-        <v>17858</v>
-      </c>
-      <c r="J11" s="7" t="s">
-        <v>130</v>
-      </c>
       <c r="K11" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="L11" s="7" t="s">
         <v>189</v>
       </c>
-      <c r="L11" s="7" t="s">
+      <c r="M11" s="7">
+        <v>1293</v>
+      </c>
+      <c r="N11" s="7">
+        <v>1365715</v>
+      </c>
+      <c r="O11" s="7" t="s">
         <v>190</v>
       </c>
-      <c r="M11" s="7">
-        <v>55</v>
-      </c>
-      <c r="N11" s="7">
-        <v>58957</v>
-      </c>
-      <c r="O11" s="7" t="s">
+      <c r="P11" s="7" t="s">
         <v>191</v>
       </c>
-      <c r="P11" s="7" t="s">
-        <v>192</v>
-      </c>
       <c r="Q11" s="7" t="s">
-        <v>193</v>
+        <v>62</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3729,10 +3477,10 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>51</v>
+        <v>651</v>
       </c>
       <c r="D12" s="7">
-        <v>56566</v>
+        <v>681863</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>30</v>
@@ -3744,10 +3492,10 @@
         <v>30</v>
       </c>
       <c r="H12" s="7">
-        <v>29</v>
+        <v>667</v>
       </c>
       <c r="I12" s="7">
-        <v>29388</v>
+        <v>710850</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -3759,10 +3507,10 @@
         <v>30</v>
       </c>
       <c r="M12" s="7">
-        <v>80</v>
+        <v>1318</v>
       </c>
       <c r="N12" s="7">
-        <v>85954</v>
+        <v>1392712</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -3788,13 +3536,13 @@
         <v>8141</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>192</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>193</v>
+      </c>
+      <c r="G13" s="7" t="s">
         <v>194</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>195</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>196</v>
       </c>
       <c r="H13" s="7">
         <v>17</v>
@@ -3803,13 +3551,13 @@
         <v>19599</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>195</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>196</v>
+      </c>
+      <c r="L13" s="7" t="s">
         <v>197</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>198</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>199</v>
       </c>
       <c r="M13" s="7">
         <v>25</v>
@@ -3818,13 +3566,13 @@
         <v>27739</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>200</v>
+        <v>127</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>202</v>
+        <v>56</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3833,49 +3581,49 @@
         <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>27</v>
+        <v>540</v>
       </c>
       <c r="D14" s="7">
-        <v>29005</v>
+        <v>606476</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>199</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>200</v>
+      </c>
+      <c r="G14" s="7" t="s">
+        <v>201</v>
+      </c>
+      <c r="H14" s="7">
+        <v>522</v>
+      </c>
+      <c r="I14" s="7">
+        <v>596600</v>
+      </c>
+      <c r="J14" s="7" t="s">
+        <v>202</v>
+      </c>
+      <c r="K14" s="7" t="s">
         <v>203</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="L14" s="7" t="s">
         <v>204</v>
       </c>
-      <c r="G14" s="7" t="s">
+      <c r="M14" s="7">
+        <v>1062</v>
+      </c>
+      <c r="N14" s="7">
+        <v>1203077</v>
+      </c>
+      <c r="O14" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>205</v>
-      </c>
-      <c r="H14" s="7">
-        <v>14</v>
-      </c>
-      <c r="I14" s="7">
-        <v>16457</v>
-      </c>
-      <c r="J14" s="7" t="s">
-        <v>206</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>207</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>208</v>
-      </c>
-      <c r="M14" s="7">
-        <v>41</v>
-      </c>
-      <c r="N14" s="7">
-        <v>45463</v>
-      </c>
-      <c r="O14" s="7" t="s">
-        <v>209</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>210</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>211</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3884,10 +3632,10 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>35</v>
+        <v>548</v>
       </c>
       <c r="D15" s="7">
-        <v>37146</v>
+        <v>614617</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>30</v>
@@ -3899,10 +3647,10 @@
         <v>30</v>
       </c>
       <c r="H15" s="7">
-        <v>31</v>
+        <v>539</v>
       </c>
       <c r="I15" s="7">
-        <v>36056</v>
+        <v>616199</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -3914,10 +3662,10 @@
         <v>30</v>
       </c>
       <c r="M15" s="7">
-        <v>66</v>
+        <v>1087</v>
       </c>
       <c r="N15" s="7">
-        <v>73202</v>
+        <v>1230816</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
@@ -3943,13 +3691,13 @@
         <v>4371</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>212</v>
+        <v>206</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>213</v>
+        <v>207</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>214</v>
+        <v>208</v>
       </c>
       <c r="H16" s="7">
         <v>13</v>
@@ -3958,13 +3706,13 @@
         <v>13941</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>215</v>
+        <v>209</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>216</v>
+        <v>210</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
       <c r="M16" s="7">
         <v>17</v>
@@ -3973,13 +3721,13 @@
         <v>18313</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>218</v>
+        <v>145</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>219</v>
+        <v>212</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>220</v>
+        <v>195</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3988,49 +3736,49 @@
         <v>20</v>
       </c>
       <c r="C17" s="7">
-        <v>8</v>
+        <v>389</v>
       </c>
       <c r="D17" s="7">
-        <v>8550</v>
+        <v>425058</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>221</v>
+        <v>213</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>222</v>
+        <v>214</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>223</v>
+        <v>215</v>
       </c>
       <c r="H17" s="7">
-        <v>25</v>
+        <v>393</v>
       </c>
       <c r="I17" s="7">
-        <v>27816</v>
+        <v>433859</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>224</v>
+        <v>216</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>225</v>
+        <v>217</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>226</v>
+        <v>218</v>
       </c>
       <c r="M17" s="7">
-        <v>33</v>
+        <v>782</v>
       </c>
       <c r="N17" s="7">
-        <v>36365</v>
+        <v>858916</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>227</v>
+        <v>154</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>228</v>
+        <v>202</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>229</v>
+        <v>219</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4039,10 +3787,10 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
-        <v>12</v>
+        <v>393</v>
       </c>
       <c r="D18" s="7">
-        <v>12921</v>
+        <v>429429</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>30</v>
@@ -4054,10 +3802,10 @@
         <v>30</v>
       </c>
       <c r="H18" s="7">
-        <v>38</v>
+        <v>406</v>
       </c>
       <c r="I18" s="7">
-        <v>41757</v>
+        <v>447800</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>30</v>
@@ -4069,10 +3817,10 @@
         <v>30</v>
       </c>
       <c r="M18" s="7">
-        <v>50</v>
+        <v>799</v>
       </c>
       <c r="N18" s="7">
-        <v>54678</v>
+        <v>877229</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>30</v>
@@ -4098,13 +3846,13 @@
         <v>16414</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>230</v>
+        <v>220</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>231</v>
+        <v>221</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>232</v>
+        <v>222</v>
       </c>
       <c r="H19" s="7">
         <v>30</v>
@@ -4113,13 +3861,13 @@
         <v>31944</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>233</v>
+        <v>223</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>234</v>
+        <v>220</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>235</v>
+        <v>224</v>
       </c>
       <c r="M19" s="7">
         <v>46</v>
@@ -4128,13 +3876,13 @@
         <v>48358</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>236</v>
+        <v>165</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>237</v>
+        <v>225</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>238</v>
+        <v>226</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4143,49 +3891,49 @@
         <v>20</v>
       </c>
       <c r="C20" s="7">
-        <v>21</v>
+        <v>488</v>
       </c>
       <c r="D20" s="7">
-        <v>22916</v>
+        <v>543223</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>239</v>
+        <v>227</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>240</v>
+        <v>228</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>241</v>
+        <v>229</v>
       </c>
       <c r="H20" s="7">
-        <v>45</v>
+        <v>664</v>
       </c>
       <c r="I20" s="7">
-        <v>47579</v>
+        <v>711031</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>242</v>
+        <v>230</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>243</v>
+        <v>231</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>244</v>
+        <v>227</v>
       </c>
       <c r="M20" s="7">
-        <v>66</v>
+        <v>1152</v>
       </c>
       <c r="N20" s="7">
-        <v>70495</v>
+        <v>1254254</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>245</v>
+        <v>173</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>246</v>
+        <v>232</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>247</v>
+        <v>233</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4194,10 +3942,10 @@
         <v>3</v>
       </c>
       <c r="C21" s="7">
-        <v>37</v>
+        <v>504</v>
       </c>
       <c r="D21" s="7">
-        <v>39330</v>
+        <v>559637</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>30</v>
@@ -4209,10 +3957,10 @@
         <v>30</v>
       </c>
       <c r="H21" s="7">
-        <v>75</v>
+        <v>694</v>
       </c>
       <c r="I21" s="7">
-        <v>79523</v>
+        <v>742975</v>
       </c>
       <c r="J21" s="7" t="s">
         <v>30</v>
@@ -4224,10 +3972,10 @@
         <v>30</v>
       </c>
       <c r="M21" s="7">
-        <v>112</v>
+        <v>1198</v>
       </c>
       <c r="N21" s="7">
-        <v>118853</v>
+        <v>1302612</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>30</v>
@@ -4253,13 +4001,13 @@
         <v>98315</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>248</v>
+        <v>234</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>249</v>
+        <v>235</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>250</v>
+        <v>236</v>
       </c>
       <c r="H22" s="7">
         <v>90</v>
@@ -4268,13 +4016,13 @@
         <v>98331</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>251</v>
+        <v>237</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>252</v>
+        <v>14</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>253</v>
+        <v>238</v>
       </c>
       <c r="M22" s="7">
         <v>184</v>
@@ -4283,13 +4031,13 @@
         <v>196646</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>254</v>
+        <v>76</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>255</v>
+        <v>208</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>256</v>
+        <v>239</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4298,49 +4046,49 @@
         <v>20</v>
       </c>
       <c r="C23" s="7">
-        <v>182</v>
+        <v>3115</v>
       </c>
       <c r="D23" s="7">
-        <v>189598</v>
+        <v>3328464</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>257</v>
+        <v>240</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>258</v>
+        <v>241</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>259</v>
+        <v>242</v>
       </c>
       <c r="H23" s="7">
-        <v>151</v>
+        <v>3208</v>
       </c>
       <c r="I23" s="7">
-        <v>159141</v>
+        <v>3459978</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>260</v>
+        <v>243</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>261</v>
+        <v>244</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>262</v>
+        <v>24</v>
       </c>
       <c r="M23" s="7">
-        <v>333</v>
+        <v>6323</v>
       </c>
       <c r="N23" s="7">
-        <v>348739</v>
+        <v>6788442</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>263</v>
+        <v>85</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>264</v>
+        <v>245</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>265</v>
+        <v>214</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -4349,10 +4097,10 @@
         <v>3</v>
       </c>
       <c r="C24" s="7">
-        <v>276</v>
+        <v>3209</v>
       </c>
       <c r="D24" s="7">
-        <v>287913</v>
+        <v>3426779</v>
       </c>
       <c r="E24" s="7" t="s">
         <v>30</v>
@@ -4364,10 +4112,10 @@
         <v>30</v>
       </c>
       <c r="H24" s="7">
-        <v>241</v>
+        <v>3298</v>
       </c>
       <c r="I24" s="7">
-        <v>257472</v>
+        <v>3558309</v>
       </c>
       <c r="J24" s="7" t="s">
         <v>30</v>
@@ -4379,10 +4127,10 @@
         <v>30</v>
       </c>
       <c r="M24" s="7">
-        <v>517</v>
+        <v>6507</v>
       </c>
       <c r="N24" s="7">
-        <v>545385</v>
+        <v>6985088</v>
       </c>
       <c r="O24" s="7" t="s">
         <v>30</v>
@@ -4396,7 +4144,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
     </row>
   </sheetData>
@@ -4418,7 +4166,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FECAA27B-2899-4288-A785-41DCD559D990}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B8B1AAB6-2B27-4941-8267-3FC76522C810}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4435,7 +4183,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>266</v>
+        <v>246</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4539,16 +4287,16 @@
         <v>16</v>
       </c>
       <c r="D4" s="7">
-        <v>17360</v>
+        <v>17359</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>267</v>
+        <v>247</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>268</v>
+        <v>248</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>269</v>
+        <v>249</v>
       </c>
       <c r="H4" s="7">
         <v>5</v>
@@ -4557,13 +4305,13 @@
         <v>4977</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>270</v>
+        <v>250</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>271</v>
+        <v>251</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>272</v>
+        <v>39</v>
       </c>
       <c r="M4" s="7">
         <v>21</v>
@@ -4572,13 +4320,13 @@
         <v>22336</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>273</v>
+        <v>252</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>274</v>
+        <v>253</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>275</v>
+        <v>254</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4587,49 +4335,49 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>25</v>
+        <v>377</v>
       </c>
       <c r="D5" s="7">
-        <v>26620</v>
+        <v>402104</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>276</v>
+        <v>255</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>277</v>
+        <v>256</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>278</v>
+        <v>257</v>
       </c>
       <c r="H5" s="7">
-        <v>14</v>
+        <v>399</v>
       </c>
       <c r="I5" s="7">
-        <v>13287</v>
+        <v>390778</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>279</v>
+        <v>258</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>280</v>
+        <v>49</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>281</v>
+        <v>259</v>
       </c>
       <c r="M5" s="7">
-        <v>39</v>
+        <v>776</v>
       </c>
       <c r="N5" s="7">
-        <v>39908</v>
+        <v>792882</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>282</v>
+        <v>260</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>283</v>
+        <v>261</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>284</v>
+        <v>262</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4638,10 +4386,10 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>41</v>
+        <v>393</v>
       </c>
       <c r="D6" s="7">
-        <v>43980</v>
+        <v>419463</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>30</v>
@@ -4653,10 +4401,10 @@
         <v>30</v>
       </c>
       <c r="H6" s="7">
-        <v>19</v>
+        <v>404</v>
       </c>
       <c r="I6" s="7">
-        <v>18264</v>
+        <v>395755</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>30</v>
@@ -4668,10 +4416,10 @@
         <v>30</v>
       </c>
       <c r="M6" s="7">
-        <v>60</v>
+        <v>797</v>
       </c>
       <c r="N6" s="7">
-        <v>62244</v>
+        <v>815218</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>30</v>
@@ -4697,13 +4445,13 @@
         <v>22131</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>285</v>
+        <v>53</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>286</v>
+        <v>263</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>287</v>
+        <v>264</v>
       </c>
       <c r="H7" s="7">
         <v>9</v>
@@ -4712,13 +4460,13 @@
         <v>9232</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>288</v>
+        <v>210</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>289</v>
+        <v>265</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>290</v>
+        <v>266</v>
       </c>
       <c r="M7" s="7">
         <v>31</v>
@@ -4727,13 +4475,13 @@
         <v>31363</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>291</v>
+        <v>267</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>292</v>
+        <v>268</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>293</v>
+        <v>269</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4742,49 +4490,49 @@
         <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>29</v>
+        <v>545</v>
       </c>
       <c r="D8" s="7">
-        <v>28726</v>
+        <v>568365</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>294</v>
+        <v>61</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>295</v>
+        <v>270</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>296</v>
+        <v>271</v>
       </c>
       <c r="H8" s="7">
-        <v>14</v>
+        <v>570</v>
       </c>
       <c r="I8" s="7">
-        <v>13447</v>
+        <v>554312</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>297</v>
+        <v>218</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>298</v>
+        <v>272</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>299</v>
+        <v>273</v>
       </c>
       <c r="M8" s="7">
-        <v>43</v>
+        <v>1115</v>
       </c>
       <c r="N8" s="7">
-        <v>42173</v>
+        <v>1122677</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>300</v>
+        <v>274</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>301</v>
+        <v>275</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>302</v>
+        <v>276</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4793,10 +4541,10 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>51</v>
+        <v>567</v>
       </c>
       <c r="D9" s="7">
-        <v>50857</v>
+        <v>590496</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>30</v>
@@ -4808,10 +4556,10 @@
         <v>30</v>
       </c>
       <c r="H9" s="7">
-        <v>23</v>
+        <v>579</v>
       </c>
       <c r="I9" s="7">
-        <v>22679</v>
+        <v>563544</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -4823,10 +4571,10 @@
         <v>30</v>
       </c>
       <c r="M9" s="7">
-        <v>74</v>
+        <v>1146</v>
       </c>
       <c r="N9" s="7">
-        <v>73536</v>
+        <v>1154040</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -4852,13 +4600,13 @@
         <v>20261</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>303</v>
+        <v>277</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>304</v>
+        <v>73</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>305</v>
+        <v>278</v>
       </c>
       <c r="H10" s="7">
         <v>10</v>
@@ -4867,13 +4615,13 @@
         <v>11215</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>306</v>
+        <v>279</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>307</v>
+        <v>280</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>308</v>
+        <v>266</v>
       </c>
       <c r="M10" s="7">
         <v>29</v>
@@ -4882,13 +4630,13 @@
         <v>31476</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>309</v>
+        <v>281</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>310</v>
+        <v>282</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>311</v>
+        <v>283</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4897,49 +4645,49 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>14</v>
+        <v>619</v>
       </c>
       <c r="D11" s="7">
-        <v>15597</v>
+        <v>648836</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>312</v>
+        <v>284</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>313</v>
+        <v>285</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>314</v>
+        <v>82</v>
       </c>
       <c r="H11" s="7">
-        <v>13</v>
+        <v>655</v>
       </c>
       <c r="I11" s="7">
-        <v>13833</v>
+        <v>650171</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>315</v>
+        <v>286</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>316</v>
+        <v>272</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>317</v>
+        <v>287</v>
       </c>
       <c r="M11" s="7">
-        <v>27</v>
+        <v>1274</v>
       </c>
       <c r="N11" s="7">
-        <v>29430</v>
+        <v>1299007</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>318</v>
+        <v>288</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>319</v>
+        <v>289</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>320</v>
+        <v>290</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4948,10 +4696,10 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>33</v>
+        <v>638</v>
       </c>
       <c r="D12" s="7">
-        <v>35858</v>
+        <v>669097</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>30</v>
@@ -4963,10 +4711,10 @@
         <v>30</v>
       </c>
       <c r="H12" s="7">
-        <v>23</v>
+        <v>665</v>
       </c>
       <c r="I12" s="7">
-        <v>25048</v>
+        <v>661386</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -4978,10 +4726,10 @@
         <v>30</v>
       </c>
       <c r="M12" s="7">
-        <v>56</v>
+        <v>1303</v>
       </c>
       <c r="N12" s="7">
-        <v>60906</v>
+        <v>1330483</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -5007,13 +4755,13 @@
         <v>12461</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>321</v>
+        <v>291</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>322</v>
+        <v>292</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>323</v>
+        <v>293</v>
       </c>
       <c r="H13" s="7">
         <v>9</v>
@@ -5022,13 +4770,13 @@
         <v>10133</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>324</v>
+        <v>294</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>325</v>
+        <v>295</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>326</v>
+        <v>220</v>
       </c>
       <c r="M13" s="7">
         <v>20</v>
@@ -5037,13 +4785,13 @@
         <v>22594</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>327</v>
+        <v>296</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>328</v>
+        <v>297</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>329</v>
+        <v>298</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5052,49 +4800,49 @@
         <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>15</v>
+        <v>571</v>
       </c>
       <c r="D14" s="7">
-        <v>16371</v>
+        <v>633587</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>330</v>
+        <v>299</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>331</v>
+        <v>300</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>332</v>
+        <v>301</v>
       </c>
       <c r="H14" s="7">
-        <v>13</v>
+        <v>593</v>
       </c>
       <c r="I14" s="7">
-        <v>14352</v>
+        <v>638944</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>333</v>
+        <v>302</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>334</v>
+        <v>227</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>335</v>
+        <v>303</v>
       </c>
       <c r="M14" s="7">
-        <v>28</v>
+        <v>1164</v>
       </c>
       <c r="N14" s="7">
-        <v>30724</v>
+        <v>1272531</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>336</v>
+        <v>304</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>337</v>
+        <v>305</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>338</v>
+        <v>306</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5103,10 +4851,10 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>26</v>
+        <v>582</v>
       </c>
       <c r="D15" s="7">
-        <v>28832</v>
+        <v>646048</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>30</v>
@@ -5118,10 +4866,10 @@
         <v>30</v>
       </c>
       <c r="H15" s="7">
-        <v>22</v>
+        <v>602</v>
       </c>
       <c r="I15" s="7">
-        <v>24485</v>
+        <v>649077</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -5133,10 +4881,10 @@
         <v>30</v>
       </c>
       <c r="M15" s="7">
-        <v>48</v>
+        <v>1184</v>
       </c>
       <c r="N15" s="7">
-        <v>53318</v>
+        <v>1295125</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
@@ -5162,43 +4910,43 @@
         <v>4106</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>339</v>
+        <v>307</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>340</v>
+        <v>308</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>341</v>
+        <v>108</v>
       </c>
       <c r="H16" s="7">
         <v>12</v>
       </c>
       <c r="I16" s="7">
-        <v>14415</v>
+        <v>14416</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>104</v>
+        <v>309</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>342</v>
+        <v>310</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>343</v>
+        <v>311</v>
       </c>
       <c r="M16" s="7">
         <v>16</v>
       </c>
       <c r="N16" s="7">
-        <v>18521</v>
+        <v>18522</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>344</v>
+        <v>312</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>345</v>
+        <v>313</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>346</v>
+        <v>220</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5207,49 +4955,49 @@
         <v>20</v>
       </c>
       <c r="C17" s="7">
-        <v>9</v>
+        <v>420</v>
       </c>
       <c r="D17" s="7">
-        <v>9883</v>
+        <v>473812</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>347</v>
+        <v>314</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>348</v>
+        <v>116</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>349</v>
+        <v>315</v>
       </c>
       <c r="H17" s="7">
-        <v>14</v>
+        <v>421</v>
       </c>
       <c r="I17" s="7">
-        <v>15943</v>
+        <v>482433</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>95</v>
+        <v>316</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>350</v>
+        <v>317</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>351</v>
+        <v>318</v>
       </c>
       <c r="M17" s="7">
-        <v>23</v>
+        <v>841</v>
       </c>
       <c r="N17" s="7">
-        <v>25826</v>
+        <v>956245</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>352</v>
+        <v>319</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>353</v>
+        <v>227</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>354</v>
+        <v>320</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5258,10 +5006,10 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
-        <v>13</v>
+        <v>424</v>
       </c>
       <c r="D18" s="7">
-        <v>13989</v>
+        <v>477918</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>30</v>
@@ -5273,10 +5021,10 @@
         <v>30</v>
       </c>
       <c r="H18" s="7">
-        <v>26</v>
+        <v>433</v>
       </c>
       <c r="I18" s="7">
-        <v>30358</v>
+        <v>496849</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>30</v>
@@ -5288,10 +5036,10 @@
         <v>30</v>
       </c>
       <c r="M18" s="7">
-        <v>39</v>
+        <v>857</v>
       </c>
       <c r="N18" s="7">
-        <v>44347</v>
+        <v>974767</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>30</v>
@@ -5317,13 +5065,13 @@
         <v>12792</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>355</v>
+        <v>321</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>356</v>
+        <v>322</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>357</v>
+        <v>323</v>
       </c>
       <c r="H19" s="7">
         <v>32</v>
@@ -5332,28 +5080,28 @@
         <v>37538</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>358</v>
+        <v>12</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>359</v>
+        <v>161</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>360</v>
+        <v>324</v>
       </c>
       <c r="M19" s="7">
         <v>47</v>
       </c>
       <c r="N19" s="7">
-        <v>50331</v>
+        <v>50330</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>361</v>
+        <v>325</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>185</v>
+        <v>326</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>40</v>
+        <v>327</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -5362,49 +5110,49 @@
         <v>20</v>
       </c>
       <c r="C20" s="7">
-        <v>14</v>
+        <v>612</v>
       </c>
       <c r="D20" s="7">
-        <v>13325</v>
+        <v>578536</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>362</v>
+        <v>328</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>363</v>
+        <v>329</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>364</v>
+        <v>330</v>
       </c>
       <c r="H20" s="7">
-        <v>27</v>
+        <v>623</v>
       </c>
       <c r="I20" s="7">
-        <v>33081</v>
+        <v>740393</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>365</v>
+        <v>23</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>366</v>
+        <v>331</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>367</v>
+        <v>171</v>
       </c>
       <c r="M20" s="7">
-        <v>41</v>
+        <v>1235</v>
       </c>
       <c r="N20" s="7">
-        <v>46406</v>
+        <v>1318929</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>368</v>
+        <v>332</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>48</v>
+        <v>333</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>192</v>
+        <v>334</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5413,10 +5161,10 @@
         <v>3</v>
       </c>
       <c r="C21" s="7">
-        <v>29</v>
+        <v>627</v>
       </c>
       <c r="D21" s="7">
-        <v>26117</v>
+        <v>591328</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>30</v>
@@ -5428,10 +5176,10 @@
         <v>30</v>
       </c>
       <c r="H21" s="7">
-        <v>59</v>
+        <v>655</v>
       </c>
       <c r="I21" s="7">
-        <v>70619</v>
+        <v>777931</v>
       </c>
       <c r="J21" s="7" t="s">
         <v>30</v>
@@ -5443,10 +5191,10 @@
         <v>30</v>
       </c>
       <c r="M21" s="7">
-        <v>88</v>
+        <v>1282</v>
       </c>
       <c r="N21" s="7">
-        <v>96737</v>
+        <v>1369259</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>30</v>
@@ -5472,28 +5220,28 @@
         <v>89111</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>369</v>
+        <v>335</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>370</v>
+        <v>145</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>371</v>
+        <v>56</v>
       </c>
       <c r="H22" s="7">
         <v>77</v>
       </c>
       <c r="I22" s="7">
-        <v>87509</v>
+        <v>87510</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>372</v>
+        <v>263</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>373</v>
+        <v>336</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>374</v>
+        <v>209</v>
       </c>
       <c r="M22" s="7">
         <v>164</v>
@@ -5502,13 +5250,13 @@
         <v>176621</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>375</v>
+        <v>248</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>376</v>
+        <v>337</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>377</v>
+        <v>338</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5517,49 +5265,49 @@
         <v>20</v>
       </c>
       <c r="C23" s="7">
-        <v>106</v>
+        <v>3144</v>
       </c>
       <c r="D23" s="7">
-        <v>110523</v>
+        <v>3305239</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>378</v>
+        <v>339</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>379</v>
+        <v>64</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>380</v>
+        <v>154</v>
       </c>
       <c r="H23" s="7">
-        <v>95</v>
+        <v>3261</v>
       </c>
       <c r="I23" s="7">
-        <v>103944</v>
+        <v>3457032</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>381</v>
+        <v>271</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>382</v>
+        <v>216</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>383</v>
+        <v>340</v>
       </c>
       <c r="M23" s="7">
-        <v>201</v>
+        <v>6405</v>
       </c>
       <c r="N23" s="7">
-        <v>214466</v>
+        <v>6762271</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>384</v>
+        <v>257</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>385</v>
+        <v>341</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>386</v>
+        <v>342</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -5568,10 +5316,10 @@
         <v>3</v>
       </c>
       <c r="C24" s="7">
-        <v>193</v>
+        <v>3231</v>
       </c>
       <c r="D24" s="7">
-        <v>199634</v>
+        <v>3394350</v>
       </c>
       <c r="E24" s="7" t="s">
         <v>30</v>
@@ -5583,10 +5331,10 @@
         <v>30</v>
       </c>
       <c r="H24" s="7">
-        <v>172</v>
+        <v>3338</v>
       </c>
       <c r="I24" s="7">
-        <v>191453</v>
+        <v>3544542</v>
       </c>
       <c r="J24" s="7" t="s">
         <v>30</v>
@@ -5598,10 +5346,10 @@
         <v>30</v>
       </c>
       <c r="M24" s="7">
-        <v>365</v>
+        <v>6569</v>
       </c>
       <c r="N24" s="7">
-        <v>391087</v>
+        <v>6938892</v>
       </c>
       <c r="O24" s="7" t="s">
         <v>30</v>
@@ -5615,7 +5363,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
     </row>
   </sheetData>
@@ -5637,7 +5385,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2B37A348-D645-4D22-AB9A-7946E9738078}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A189B344-A255-48D9-9B76-0732CCE9163D}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5654,7 +5402,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>387</v>
+        <v>343</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5761,13 +5509,13 @@
         <v>8376</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>388</v>
+        <v>344</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>389</v>
+        <v>345</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>390</v>
+        <v>346</v>
       </c>
       <c r="H4" s="7">
         <v>4</v>
@@ -5776,13 +5524,13 @@
         <v>10201</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>277</v>
+        <v>234</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>391</v>
+        <v>295</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>392</v>
+        <v>347</v>
       </c>
       <c r="M4" s="7">
         <v>7</v>
@@ -5791,13 +5539,13 @@
         <v>18578</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>393</v>
+        <v>348</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>394</v>
+        <v>15</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>395</v>
+        <v>349</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5806,49 +5554,49 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>5</v>
+        <v>169</v>
       </c>
       <c r="D5" s="7">
-        <v>9634</v>
+        <v>369303</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>396</v>
+        <v>350</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>397</v>
+        <v>351</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>398</v>
+        <v>352</v>
       </c>
       <c r="H5" s="7">
-        <v>7</v>
+        <v>203</v>
       </c>
       <c r="I5" s="7">
-        <v>12725</v>
+        <v>344756</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>269</v>
+        <v>240</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>399</v>
+        <v>353</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>400</v>
+        <v>303</v>
       </c>
       <c r="M5" s="7">
-        <v>12</v>
+        <v>372</v>
       </c>
       <c r="N5" s="7">
-        <v>22358</v>
+        <v>714058</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>401</v>
+        <v>354</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>402</v>
+        <v>355</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>403</v>
+        <v>26</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5857,10 +5605,10 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>8</v>
+        <v>172</v>
       </c>
       <c r="D6" s="7">
-        <v>18010</v>
+        <v>377679</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>30</v>
@@ -5872,10 +5620,10 @@
         <v>30</v>
       </c>
       <c r="H6" s="7">
-        <v>11</v>
+        <v>207</v>
       </c>
       <c r="I6" s="7">
-        <v>22926</v>
+        <v>354957</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>30</v>
@@ -5887,10 +5635,10 @@
         <v>30</v>
       </c>
       <c r="M6" s="7">
-        <v>19</v>
+        <v>379</v>
       </c>
       <c r="N6" s="7">
-        <v>40936</v>
+        <v>732636</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>30</v>
@@ -5916,13 +5664,13 @@
         <v>12406</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>404</v>
+        <v>309</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>405</v>
+        <v>356</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>406</v>
+        <v>357</v>
       </c>
       <c r="H7" s="7">
         <v>5</v>
@@ -5931,13 +5679,13 @@
         <v>5648</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>407</v>
+        <v>358</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>408</v>
+        <v>359</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>409</v>
+        <v>360</v>
       </c>
       <c r="M7" s="7">
         <v>15</v>
@@ -5946,13 +5694,13 @@
         <v>18054</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>410</v>
+        <v>54</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>411</v>
+        <v>109</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>412</v>
+        <v>18</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5961,49 +5709,49 @@
         <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>9</v>
+        <v>292</v>
       </c>
       <c r="D8" s="7">
-        <v>14997</v>
+        <v>415990</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>413</v>
+        <v>316</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>414</v>
+        <v>361</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>415</v>
+        <v>362</v>
       </c>
       <c r="H8" s="7">
-        <v>10</v>
+        <v>455</v>
       </c>
       <c r="I8" s="7">
-        <v>10724</v>
+        <v>492929</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>416</v>
+        <v>363</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>417</v>
+        <v>364</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>418</v>
+        <v>365</v>
       </c>
       <c r="M8" s="7">
-        <v>19</v>
+        <v>747</v>
       </c>
       <c r="N8" s="7">
-        <v>25721</v>
+        <v>908919</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>419</v>
+        <v>63</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>420</v>
+        <v>29</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>421</v>
+        <v>117</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -6012,10 +5760,10 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>19</v>
+        <v>302</v>
       </c>
       <c r="D9" s="7">
-        <v>27403</v>
+        <v>428396</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>30</v>
@@ -6027,10 +5775,10 @@
         <v>30</v>
       </c>
       <c r="H9" s="7">
-        <v>15</v>
+        <v>460</v>
       </c>
       <c r="I9" s="7">
-        <v>16372</v>
+        <v>498577</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -6042,10 +5790,10 @@
         <v>30</v>
       </c>
       <c r="M9" s="7">
-        <v>34</v>
+        <v>762</v>
       </c>
       <c r="N9" s="7">
-        <v>43775</v>
+        <v>926973</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -6071,13 +5819,13 @@
         <v>10683</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>422</v>
+        <v>268</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>423</v>
+        <v>292</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>424</v>
+        <v>366</v>
       </c>
       <c r="H10" s="7">
         <v>15</v>
@@ -6086,13 +5834,13 @@
         <v>9914</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>425</v>
+        <v>279</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>426</v>
+        <v>367</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>427</v>
+        <v>368</v>
       </c>
       <c r="M10" s="7">
         <v>25</v>
@@ -6101,13 +5849,13 @@
         <v>20597</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>428</v>
+        <v>369</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>429</v>
+        <v>370</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>430</v>
+        <v>126</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -6116,49 +5864,49 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>24</v>
+        <v>536</v>
       </c>
       <c r="D11" s="7">
-        <v>26623</v>
+        <v>546569</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>431</v>
+        <v>276</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>432</v>
+        <v>371</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>433</v>
+        <v>301</v>
       </c>
       <c r="H11" s="7">
-        <v>28</v>
+        <v>831</v>
       </c>
       <c r="I11" s="7">
-        <v>19953</v>
+        <v>573562</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>434</v>
+        <v>286</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>435</v>
+        <v>372</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>436</v>
+        <v>373</v>
       </c>
       <c r="M11" s="7">
-        <v>52</v>
+        <v>1367</v>
       </c>
       <c r="N11" s="7">
-        <v>46576</v>
+        <v>1120130</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>437</v>
+        <v>374</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>438</v>
+        <v>134</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>439</v>
+        <v>375</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -6167,10 +5915,10 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>34</v>
+        <v>546</v>
       </c>
       <c r="D12" s="7">
-        <v>37306</v>
+        <v>557252</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>30</v>
@@ -6182,10 +5930,10 @@
         <v>30</v>
       </c>
       <c r="H12" s="7">
-        <v>43</v>
+        <v>846</v>
       </c>
       <c r="I12" s="7">
-        <v>29867</v>
+        <v>583476</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -6197,10 +5945,10 @@
         <v>30</v>
       </c>
       <c r="M12" s="7">
-        <v>77</v>
+        <v>1392</v>
       </c>
       <c r="N12" s="7">
-        <v>67173</v>
+        <v>1140727</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -6223,16 +5971,16 @@
         <v>19</v>
       </c>
       <c r="D13" s="7">
-        <v>23047</v>
+        <v>23046</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>440</v>
+        <v>195</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>441</v>
+        <v>183</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>442</v>
+        <v>376</v>
       </c>
       <c r="H13" s="7">
         <v>19</v>
@@ -6241,13 +5989,13 @@
         <v>12802</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>443</v>
+        <v>377</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>444</v>
+        <v>378</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>445</v>
+        <v>368</v>
       </c>
       <c r="M13" s="7">
         <v>38</v>
@@ -6256,13 +6004,13 @@
         <v>35848</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>446</v>
+        <v>92</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>447</v>
+        <v>36</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>448</v>
+        <v>379</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -6271,49 +6019,49 @@
         <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>34</v>
+        <v>646</v>
       </c>
       <c r="D14" s="7">
-        <v>29783</v>
+        <v>700944</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>449</v>
+        <v>202</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>450</v>
+        <v>380</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>451</v>
+        <v>190</v>
       </c>
       <c r="H14" s="7">
-        <v>31</v>
+        <v>1122</v>
       </c>
       <c r="I14" s="7">
-        <v>18856</v>
+        <v>734459</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>452</v>
+        <v>381</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>453</v>
+        <v>372</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>454</v>
+        <v>382</v>
       </c>
       <c r="M14" s="7">
-        <v>65</v>
+        <v>1768</v>
       </c>
       <c r="N14" s="7">
-        <v>48640</v>
+        <v>1435404</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>455</v>
+        <v>101</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>456</v>
+        <v>383</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>457</v>
+        <v>46</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -6322,10 +6070,10 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>53</v>
+        <v>665</v>
       </c>
       <c r="D15" s="7">
-        <v>52830</v>
+        <v>723990</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>30</v>
@@ -6337,10 +6085,10 @@
         <v>30</v>
       </c>
       <c r="H15" s="7">
-        <v>50</v>
+        <v>1141</v>
       </c>
       <c r="I15" s="7">
-        <v>31658</v>
+        <v>747261</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -6352,10 +6100,10 @@
         <v>30</v>
       </c>
       <c r="M15" s="7">
-        <v>103</v>
+        <v>1806</v>
       </c>
       <c r="N15" s="7">
-        <v>84488</v>
+        <v>1471252</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
@@ -6381,13 +6129,13 @@
         <v>7084</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>458</v>
+        <v>384</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>459</v>
+        <v>385</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>460</v>
+        <v>178</v>
       </c>
       <c r="H16" s="7">
         <v>22</v>
@@ -6396,13 +6144,13 @@
         <v>14129</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>461</v>
+        <v>281</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>462</v>
+        <v>310</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>463</v>
+        <v>386</v>
       </c>
       <c r="M16" s="7">
         <v>31</v>
@@ -6411,13 +6159,13 @@
         <v>21213</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>464</v>
+        <v>387</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>465</v>
+        <v>388</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>466</v>
+        <v>389</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -6426,49 +6174,49 @@
         <v>20</v>
       </c>
       <c r="C17" s="7">
-        <v>25</v>
+        <v>654</v>
       </c>
       <c r="D17" s="7">
-        <v>23662</v>
+        <v>593073</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>467</v>
+        <v>390</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>468</v>
+        <v>185</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>469</v>
+        <v>391</v>
       </c>
       <c r="H17" s="7">
-        <v>40</v>
+        <v>980</v>
       </c>
       <c r="I17" s="7">
-        <v>24067</v>
+        <v>582934</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>470</v>
+        <v>288</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>471</v>
+        <v>392</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>472</v>
+        <v>318</v>
       </c>
       <c r="M17" s="7">
-        <v>65</v>
+        <v>1634</v>
       </c>
       <c r="N17" s="7">
-        <v>47729</v>
+        <v>1176007</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>473</v>
+        <v>393</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>474</v>
+        <v>394</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>475</v>
+        <v>395</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -6477,10 +6225,10 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
-        <v>34</v>
+        <v>663</v>
       </c>
       <c r="D18" s="7">
-        <v>30746</v>
+        <v>600157</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>30</v>
@@ -6492,10 +6240,10 @@
         <v>30</v>
       </c>
       <c r="H18" s="7">
-        <v>62</v>
+        <v>1002</v>
       </c>
       <c r="I18" s="7">
-        <v>38196</v>
+        <v>597063</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>30</v>
@@ -6507,10 +6255,10 @@
         <v>30</v>
       </c>
       <c r="M18" s="7">
-        <v>96</v>
+        <v>1665</v>
       </c>
       <c r="N18" s="7">
-        <v>68942</v>
+        <v>1197220</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>30</v>
@@ -6536,13 +6284,13 @@
         <v>15302</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>476</v>
+        <v>396</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>477</v>
+        <v>397</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>478</v>
+        <v>129</v>
       </c>
       <c r="H19" s="7">
         <v>93</v>
@@ -6551,13 +6299,13 @@
         <v>47251</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>479</v>
+        <v>398</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>480</v>
+        <v>399</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>481</v>
+        <v>400</v>
       </c>
       <c r="M19" s="7">
         <v>121</v>
@@ -6566,13 +6314,13 @@
         <v>62553</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>482</v>
+        <v>401</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>483</v>
+        <v>402</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>484</v>
+        <v>403</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -6581,49 +6329,49 @@
         <v>20</v>
       </c>
       <c r="C20" s="7">
-        <v>36</v>
+        <v>1000</v>
       </c>
       <c r="D20" s="7">
-        <v>23365</v>
+        <v>682452</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>485</v>
+        <v>404</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>486</v>
+        <v>137</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>487</v>
+        <v>405</v>
       </c>
       <c r="H20" s="7">
-        <v>85</v>
+        <v>1615</v>
       </c>
       <c r="I20" s="7">
-        <v>46007</v>
+        <v>979386</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>488</v>
+        <v>406</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>489</v>
+        <v>407</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>490</v>
+        <v>408</v>
       </c>
       <c r="M20" s="7">
-        <v>121</v>
+        <v>2615</v>
       </c>
       <c r="N20" s="7">
-        <v>69372</v>
+        <v>1661839</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>491</v>
+        <v>409</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>492</v>
+        <v>410</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>493</v>
+        <v>411</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -6632,10 +6380,10 @@
         <v>3</v>
       </c>
       <c r="C21" s="7">
-        <v>64</v>
+        <v>1028</v>
       </c>
       <c r="D21" s="7">
-        <v>38667</v>
+        <v>697754</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>30</v>
@@ -6647,10 +6395,10 @@
         <v>30</v>
       </c>
       <c r="H21" s="7">
-        <v>178</v>
+        <v>1708</v>
       </c>
       <c r="I21" s="7">
-        <v>93258</v>
+        <v>1026637</v>
       </c>
       <c r="J21" s="7" t="s">
         <v>30</v>
@@ -6662,10 +6410,10 @@
         <v>30</v>
       </c>
       <c r="M21" s="7">
-        <v>242</v>
+        <v>2736</v>
       </c>
       <c r="N21" s="7">
-        <v>131925</v>
+        <v>1724392</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>30</v>
@@ -6691,13 +6439,13 @@
         <v>76897</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>494</v>
+        <v>178</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>495</v>
+        <v>412</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>496</v>
+        <v>184</v>
       </c>
       <c r="H22" s="7">
         <v>158</v>
@@ -6706,13 +6454,13 @@
         <v>99945</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>497</v>
+        <v>413</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>498</v>
+        <v>414</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>499</v>
+        <v>415</v>
       </c>
       <c r="M22" s="7">
         <v>237</v>
@@ -6721,13 +6469,13 @@
         <v>176842</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>500</v>
+        <v>416</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>273</v>
+        <v>417</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>501</v>
+        <v>418</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -6736,49 +6484,49 @@
         <v>20</v>
       </c>
       <c r="C23" s="7">
-        <v>133</v>
+        <v>3297</v>
       </c>
       <c r="D23" s="7">
-        <v>128065</v>
+        <v>3308331</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>502</v>
+        <v>185</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>503</v>
+        <v>191</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>504</v>
+        <v>419</v>
       </c>
       <c r="H23" s="7">
-        <v>201</v>
+        <v>5206</v>
       </c>
       <c r="I23" s="7">
-        <v>132332</v>
+        <v>3708027</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>505</v>
+        <v>420</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>506</v>
+        <v>421</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>507</v>
+        <v>422</v>
       </c>
       <c r="M23" s="7">
-        <v>334</v>
+        <v>8503</v>
       </c>
       <c r="N23" s="7">
-        <v>260397</v>
+        <v>7016358</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>508</v>
+        <v>423</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>509</v>
+        <v>424</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>282</v>
+        <v>425</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -6787,10 +6535,10 @@
         <v>3</v>
       </c>
       <c r="C24" s="7">
-        <v>212</v>
+        <v>3376</v>
       </c>
       <c r="D24" s="7">
-        <v>204962</v>
+        <v>3385228</v>
       </c>
       <c r="E24" s="7" t="s">
         <v>30</v>
@@ -6802,10 +6550,10 @@
         <v>30</v>
       </c>
       <c r="H24" s="7">
-        <v>359</v>
+        <v>5364</v>
       </c>
       <c r="I24" s="7">
-        <v>232277</v>
+        <v>3807972</v>
       </c>
       <c r="J24" s="7" t="s">
         <v>30</v>
@@ -6817,10 +6565,10 @@
         <v>30</v>
       </c>
       <c r="M24" s="7">
-        <v>571</v>
+        <v>8740</v>
       </c>
       <c r="N24" s="7">
-        <v>437239</v>
+        <v>7193200</v>
       </c>
       <c r="O24" s="7" t="s">
         <v>30</v>
@@ -6834,7 +6582,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P15A-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P15A-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8FCE9F24-8584-457C-8E6A-36270550412C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{80D205E0-F889-4DDA-902B-52EE34C2572A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{776A1505-C57F-4E91-B609-7E078D70E084}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{37D3B1D1-2B58-47FD-B0BE-D0FEA3D9A674}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="948" uniqueCount="426">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1072" uniqueCount="487">
   <si>
     <t>Población que ha tenido un accidente en los últimos tres meses que le ha causado heridas o lesiones suficientes para limitar su actividad normal y/o para necesitar asistencia sanitaria en 2007 (Tasa respuesta: 100,0%)</t>
   </si>
@@ -68,7 +68,7 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>16/24</t>
+    <t>16-24</t>
   </si>
   <si>
     <t>Sí</t>
@@ -134,7 +134,7 @@
     <t>100%</t>
   </si>
   <si>
-    <t>25/34</t>
+    <t>25-34</t>
   </si>
   <si>
     <t>4,75%</t>
@@ -191,7 +191,7 @@
     <t>97,16%</t>
   </si>
   <si>
-    <t>35/44</t>
+    <t>35-44</t>
   </si>
   <si>
     <t>2,34%</t>
@@ -248,7 +248,7 @@
     <t>98,62%</t>
   </si>
   <si>
-    <t>45/54</t>
+    <t>45-54</t>
   </si>
   <si>
     <t>3,76%</t>
@@ -305,7 +305,7 @@
     <t>98,12%</t>
   </si>
   <si>
-    <t>55/64</t>
+    <t>55-64</t>
   </si>
   <si>
     <t>2,42%</t>
@@ -362,630 +362,735 @@
     <t>98,47%</t>
   </si>
   <si>
-    <t>65 y más</t>
+    <t>65-74</t>
+  </si>
+  <si>
+    <t>1,59%</t>
+  </si>
+  <si>
+    <t>0,61%</t>
+  </si>
+  <si>
+    <t>3,53%</t>
+  </si>
+  <si>
+    <t>2,66%</t>
+  </si>
+  <si>
+    <t>1,3%</t>
+  </si>
+  <si>
+    <t>4,81%</t>
+  </si>
+  <si>
+    <t>2,17%</t>
+  </si>
+  <si>
+    <t>1,18%</t>
+  </si>
+  <si>
+    <t>3,43%</t>
+  </si>
+  <si>
+    <t>98,41%</t>
+  </si>
+  <si>
+    <t>96,47%</t>
+  </si>
+  <si>
+    <t>99,39%</t>
+  </si>
+  <si>
+    <t>97,34%</t>
+  </si>
+  <si>
+    <t>95,19%</t>
+  </si>
+  <si>
+    <t>98,7%</t>
+  </si>
+  <si>
+    <t>97,83%</t>
+  </si>
+  <si>
+    <t>96,57%</t>
+  </si>
+  <si>
+    <t>98,82%</t>
+  </si>
+  <si>
+    <t>75 o más</t>
+  </si>
+  <si>
+    <t>2,83%</t>
+  </si>
+  <si>
+    <t>6,11%</t>
+  </si>
+  <si>
+    <t>6,77%</t>
+  </si>
+  <si>
+    <t>4,36%</t>
+  </si>
+  <si>
+    <t>10,34%</t>
+  </si>
+  <si>
+    <t>5,25%</t>
+  </si>
+  <si>
+    <t>3,6%</t>
+  </si>
+  <si>
+    <t>7,67%</t>
+  </si>
+  <si>
+    <t>97,17%</t>
+  </si>
+  <si>
+    <t>93,89%</t>
+  </si>
+  <si>
+    <t>93,23%</t>
+  </si>
+  <si>
+    <t>89,66%</t>
+  </si>
+  <si>
+    <t>95,64%</t>
+  </si>
+  <si>
+    <t>94,75%</t>
+  </si>
+  <si>
+    <t>92,33%</t>
+  </si>
+  <si>
+    <t>96,4%</t>
+  </si>
+  <si>
+    <t>3,14%</t>
+  </si>
+  <si>
+    <t>4,49%</t>
+  </si>
+  <si>
+    <t>2,78%</t>
+  </si>
+  <si>
+    <t>2,25%</t>
+  </si>
+  <si>
+    <t>3,37%</t>
+  </si>
+  <si>
+    <t>3,26%</t>
+  </si>
+  <si>
+    <t>2,86%</t>
+  </si>
+  <si>
+    <t>3,72%</t>
+  </si>
+  <si>
+    <t>95,51%</t>
+  </si>
+  <si>
+    <t>96,86%</t>
+  </si>
+  <si>
+    <t>97,22%</t>
+  </si>
+  <si>
+    <t>96,63%</t>
+  </si>
+  <si>
+    <t>97,75%</t>
+  </si>
+  <si>
+    <t>96,74%</t>
+  </si>
+  <si>
+    <t>96,28%</t>
+  </si>
+  <si>
+    <t>97,14%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población que ha tenido un accidente en los últimos tres meses que le ha causado heridas o lesiones suficientes para limitar su actividad normal y/o para necesitar asistencia sanitaria en 2012 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>4,54%</t>
+  </si>
+  <si>
+    <t>2,88%</t>
+  </si>
+  <si>
+    <t>6,76%</t>
+  </si>
+  <si>
+    <t>2,09%</t>
+  </si>
+  <si>
+    <t>0,9%</t>
+  </si>
+  <si>
+    <t>3,65%</t>
+  </si>
+  <si>
+    <t>3,35%</t>
+  </si>
+  <si>
+    <t>2,35%</t>
+  </si>
+  <si>
+    <t>4,91%</t>
+  </si>
+  <si>
+    <t>95,46%</t>
+  </si>
+  <si>
+    <t>93,24%</t>
+  </si>
+  <si>
+    <t>97,12%</t>
+  </si>
+  <si>
+    <t>97,91%</t>
+  </si>
+  <si>
+    <t>96,35%</t>
+  </si>
+  <si>
+    <t>99,1%</t>
+  </si>
+  <si>
+    <t>96,65%</t>
+  </si>
+  <si>
+    <t>95,09%</t>
+  </si>
+  <si>
+    <t>97,65%</t>
+  </si>
+  <si>
+    <t>4,84%</t>
+  </si>
+  <si>
+    <t>3,42%</t>
+  </si>
+  <si>
+    <t>7,07%</t>
+  </si>
+  <si>
+    <t>2,02%</t>
+  </si>
+  <si>
+    <t>1,0%</t>
+  </si>
+  <si>
+    <t>3,71%</t>
+  </si>
+  <si>
+    <t>3,52%</t>
+  </si>
+  <si>
+    <t>2,53%</t>
+  </si>
+  <si>
+    <t>4,85%</t>
+  </si>
+  <si>
+    <t>95,16%</t>
+  </si>
+  <si>
+    <t>92,93%</t>
+  </si>
+  <si>
+    <t>96,58%</t>
+  </si>
+  <si>
+    <t>97,98%</t>
+  </si>
+  <si>
+    <t>96,29%</t>
+  </si>
+  <si>
+    <t>99,0%</t>
+  </si>
+  <si>
+    <t>96,48%</t>
+  </si>
+  <si>
+    <t>95,15%</t>
+  </si>
+  <si>
+    <t>97,47%</t>
+  </si>
+  <si>
+    <t>2,27%</t>
+  </si>
+  <si>
+    <t>1,27%</t>
+  </si>
+  <si>
+    <t>3,84%</t>
+  </si>
+  <si>
+    <t>1,62%</t>
+  </si>
+  <si>
+    <t>0,83%</t>
+  </si>
+  <si>
+    <t>1,94%</t>
+  </si>
+  <si>
+    <t>2,92%</t>
+  </si>
+  <si>
+    <t>97,73%</t>
+  </si>
+  <si>
+    <t>96,16%</t>
+  </si>
+  <si>
+    <t>98,73%</t>
+  </si>
+  <si>
+    <t>98,38%</t>
+  </si>
+  <si>
+    <t>99,17%</t>
+  </si>
+  <si>
+    <t>98,06%</t>
+  </si>
+  <si>
+    <t>97,08%</t>
+  </si>
+  <si>
+    <t>1,32%</t>
+  </si>
+  <si>
+    <t>0,65%</t>
+  </si>
+  <si>
+    <t>2,6%</t>
+  </si>
+  <si>
+    <t>3,18%</t>
+  </si>
+  <si>
+    <t>1,86%</t>
+  </si>
+  <si>
+    <t>4,97%</t>
+  </si>
+  <si>
+    <t>1,5%</t>
+  </si>
+  <si>
+    <t>98,68%</t>
+  </si>
+  <si>
+    <t>97,4%</t>
+  </si>
+  <si>
+    <t>99,35%</t>
+  </si>
+  <si>
+    <t>96,82%</t>
+  </si>
+  <si>
+    <t>95,03%</t>
+  </si>
+  <si>
+    <t>98,14%</t>
+  </si>
+  <si>
+    <t>98,5%</t>
+  </si>
+  <si>
+    <t>1,02%</t>
+  </si>
+  <si>
+    <t>0,25%</t>
+  </si>
+  <si>
+    <t>2,41%</t>
+  </si>
+  <si>
+    <t>3,11%</t>
+  </si>
+  <si>
+    <t>1,64%</t>
+  </si>
+  <si>
+    <t>5,09%</t>
+  </si>
+  <si>
+    <t>1,23%</t>
+  </si>
+  <si>
+    <t>98,98%</t>
+  </si>
+  <si>
+    <t>97,59%</t>
+  </si>
+  <si>
+    <t>99,75%</t>
+  </si>
+  <si>
+    <t>96,89%</t>
+  </si>
+  <si>
+    <t>94,91%</t>
+  </si>
+  <si>
+    <t>98,36%</t>
+  </si>
+  <si>
+    <t>98,77%</t>
+  </si>
+  <si>
+    <t>2,58%</t>
+  </si>
+  <si>
+    <t>3,63%</t>
+  </si>
+  <si>
+    <t>2,14%</t>
+  </si>
+  <si>
+    <t>5,84%</t>
+  </si>
+  <si>
+    <t>1,96%</t>
+  </si>
+  <si>
+    <t>4,66%</t>
+  </si>
+  <si>
+    <t>97,42%</t>
+  </si>
+  <si>
+    <t>96,37%</t>
+  </si>
+  <si>
+    <t>94,16%</t>
+  </si>
+  <si>
+    <t>97,86%</t>
+  </si>
+  <si>
+    <t>95,34%</t>
+  </si>
+  <si>
+    <t>98,04%</t>
+  </si>
+  <si>
+    <t>3,38%</t>
+  </si>
+  <si>
+    <t>1,63%</t>
+  </si>
+  <si>
+    <t>6,37%</t>
+  </si>
+  <si>
+    <t>2,95%</t>
+  </si>
+  <si>
+    <t>7,57%</t>
+  </si>
+  <si>
+    <t>4,31%</t>
+  </si>
+  <si>
+    <t>2,81%</t>
+  </si>
+  <si>
+    <t>6,26%</t>
+  </si>
+  <si>
+    <t>96,62%</t>
+  </si>
+  <si>
+    <t>93,63%</t>
+  </si>
+  <si>
+    <t>98,37%</t>
+  </si>
+  <si>
+    <t>92,43%</t>
+  </si>
+  <si>
+    <t>97,05%</t>
+  </si>
+  <si>
+    <t>95,69%</t>
+  </si>
+  <si>
+    <t>93,74%</t>
+  </si>
+  <si>
+    <t>97,19%</t>
+  </si>
+  <si>
+    <t>2,87%</t>
+  </si>
+  <si>
+    <t>2,3%</t>
+  </si>
+  <si>
+    <t>3,5%</t>
+  </si>
+  <si>
+    <t>2,76%</t>
+  </si>
+  <si>
+    <t>3,25%</t>
+  </si>
+  <si>
+    <t>97,13%</t>
+  </si>
+  <si>
+    <t>96,5%</t>
+  </si>
+  <si>
+    <t>97,7%</t>
+  </si>
+  <si>
+    <t>97,24%</t>
+  </si>
+  <si>
+    <t>96,75%</t>
+  </si>
+  <si>
+    <t>Población que ha tenido un accidente en los últimos tres meses que le ha causado heridas o lesiones suficientes para limitar su actividad normal y/o para necesitar asistencia sanitaria en 2016 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>4,14%</t>
+  </si>
+  <si>
+    <t>2,55%</t>
+  </si>
+  <si>
+    <t>6,41%</t>
+  </si>
+  <si>
+    <t>1,26%</t>
+  </si>
+  <si>
+    <t>0,49%</t>
+  </si>
+  <si>
+    <t>2,74%</t>
+  </si>
+  <si>
+    <t>1,66%</t>
+  </si>
+  <si>
+    <t>4,13%</t>
+  </si>
+  <si>
+    <t>95,86%</t>
+  </si>
+  <si>
+    <t>93,59%</t>
+  </si>
+  <si>
+    <t>97,45%</t>
+  </si>
+  <si>
+    <t>98,74%</t>
+  </si>
+  <si>
+    <t>99,51%</t>
+  </si>
+  <si>
+    <t>97,26%</t>
+  </si>
+  <si>
+    <t>95,87%</t>
+  </si>
+  <si>
+    <t>98,34%</t>
+  </si>
+  <si>
+    <t>2,47%</t>
+  </si>
+  <si>
+    <t>5,48%</t>
+  </si>
+  <si>
+    <t>0,79%</t>
+  </si>
+  <si>
+    <t>3,1%</t>
+  </si>
+  <si>
+    <t>2,72%</t>
+  </si>
+  <si>
+    <t>1,92%</t>
+  </si>
+  <si>
+    <t>3,74%</t>
+  </si>
+  <si>
+    <t>94,52%</t>
+  </si>
+  <si>
+    <t>97,53%</t>
+  </si>
+  <si>
+    <t>96,9%</t>
+  </si>
+  <si>
+    <t>99,21%</t>
+  </si>
+  <si>
+    <t>97,28%</t>
+  </si>
+  <si>
+    <t>96,26%</t>
+  </si>
+  <si>
+    <t>98,08%</t>
+  </si>
+  <si>
+    <t>3,03%</t>
+  </si>
+  <si>
+    <t>4,68%</t>
+  </si>
+  <si>
+    <t>1,7%</t>
+  </si>
+  <si>
+    <t>0,89%</t>
+  </si>
+  <si>
+    <t>2,37%</t>
+  </si>
+  <si>
+    <t>1,57%</t>
+  </si>
+  <si>
+    <t>3,3%</t>
+  </si>
+  <si>
+    <t>96,97%</t>
+  </si>
+  <si>
+    <t>95,32%</t>
+  </si>
+  <si>
+    <t>98,3%</t>
+  </si>
+  <si>
+    <t>99,11%</t>
+  </si>
+  <si>
+    <t>97,63%</t>
+  </si>
+  <si>
+    <t>96,7%</t>
+  </si>
+  <si>
+    <t>98,43%</t>
+  </si>
+  <si>
+    <t>1,93%</t>
+  </si>
+  <si>
+    <t>0,99%</t>
+  </si>
+  <si>
+    <t>3,47%</t>
+  </si>
+  <si>
+    <t>1,56%</t>
+  </si>
+  <si>
+    <t>0,76%</t>
+  </si>
+  <si>
+    <t>2,93%</t>
+  </si>
+  <si>
+    <t>1,74%</t>
+  </si>
+  <si>
+    <t>1,05%</t>
+  </si>
+  <si>
+    <t>2,61%</t>
+  </si>
+  <si>
+    <t>98,07%</t>
+  </si>
+  <si>
+    <t>96,53%</t>
+  </si>
+  <si>
+    <t>99,01%</t>
+  </si>
+  <si>
+    <t>98,44%</t>
+  </si>
+  <si>
+    <t>97,07%</t>
+  </si>
+  <si>
+    <t>99,24%</t>
+  </si>
+  <si>
+    <t>98,26%</t>
+  </si>
+  <si>
+    <t>97,39%</t>
+  </si>
+  <si>
+    <t>98,95%</t>
+  </si>
+  <si>
+    <t>0,86%</t>
+  </si>
+  <si>
+    <t>0,22%</t>
   </si>
   <si>
     <t>2,11%</t>
   </si>
   <si>
-    <t>1,09%</t>
-  </si>
-  <si>
-    <t>4,69%</t>
-  </si>
-  <si>
-    <t>3,27%</t>
-  </si>
-  <si>
-    <t>6,62%</t>
-  </si>
-  <si>
-    <t>3,59%</t>
-  </si>
-  <si>
-    <t>2,59%</t>
-  </si>
-  <si>
-    <t>4,93%</t>
+    <t>2,9%</t>
+  </si>
+  <si>
+    <t>1,46%</t>
+  </si>
+  <si>
+    <t>4,89%</t>
+  </si>
+  <si>
+    <t>1,9%</t>
+  </si>
+  <si>
+    <t>1,17%</t>
+  </si>
+  <si>
+    <t>99,14%</t>
   </si>
   <si>
     <t>97,89%</t>
   </si>
   <si>
-    <t>98,91%</t>
-  </si>
-  <si>
-    <t>95,31%</t>
-  </si>
-  <si>
-    <t>93,38%</t>
-  </si>
-  <si>
-    <t>96,73%</t>
-  </si>
-  <si>
-    <t>96,41%</t>
-  </si>
-  <si>
-    <t>95,07%</t>
-  </si>
-  <si>
-    <t>97,41%</t>
-  </si>
-  <si>
-    <t>3,14%</t>
-  </si>
-  <si>
-    <t>4,49%</t>
-  </si>
-  <si>
-    <t>2,78%</t>
-  </si>
-  <si>
-    <t>2,25%</t>
-  </si>
-  <si>
-    <t>3,37%</t>
-  </si>
-  <si>
-    <t>3,26%</t>
-  </si>
-  <si>
-    <t>2,86%</t>
-  </si>
-  <si>
-    <t>3,72%</t>
-  </si>
-  <si>
-    <t>95,51%</t>
-  </si>
-  <si>
-    <t>96,86%</t>
-  </si>
-  <si>
-    <t>97,22%</t>
-  </si>
-  <si>
-    <t>96,63%</t>
-  </si>
-  <si>
-    <t>97,75%</t>
-  </si>
-  <si>
-    <t>96,74%</t>
-  </si>
-  <si>
-    <t>96,28%</t>
-  </si>
-  <si>
-    <t>97,14%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población que ha tenido un accidente en los últimos tres meses que le ha causado heridas o lesiones suficientes para limitar su actividad normal y/o para necesitar asistencia sanitaria en 2012 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>4,54%</t>
-  </si>
-  <si>
-    <t>2,88%</t>
-  </si>
-  <si>
-    <t>6,76%</t>
-  </si>
-  <si>
-    <t>2,09%</t>
-  </si>
-  <si>
-    <t>0,9%</t>
-  </si>
-  <si>
-    <t>3,65%</t>
-  </si>
-  <si>
-    <t>3,35%</t>
-  </si>
-  <si>
-    <t>2,35%</t>
-  </si>
-  <si>
-    <t>4,91%</t>
-  </si>
-  <si>
-    <t>95,46%</t>
-  </si>
-  <si>
-    <t>93,24%</t>
-  </si>
-  <si>
-    <t>97,12%</t>
-  </si>
-  <si>
-    <t>97,91%</t>
-  </si>
-  <si>
-    <t>96,35%</t>
-  </si>
-  <si>
-    <t>99,1%</t>
-  </si>
-  <si>
-    <t>96,65%</t>
-  </si>
-  <si>
-    <t>95,09%</t>
-  </si>
-  <si>
-    <t>97,65%</t>
-  </si>
-  <si>
-    <t>4,84%</t>
-  </si>
-  <si>
-    <t>3,42%</t>
-  </si>
-  <si>
-    <t>7,07%</t>
-  </si>
-  <si>
-    <t>2,02%</t>
-  </si>
-  <si>
-    <t>1,0%</t>
-  </si>
-  <si>
-    <t>3,71%</t>
-  </si>
-  <si>
-    <t>3,52%</t>
-  </si>
-  <si>
-    <t>2,53%</t>
-  </si>
-  <si>
-    <t>4,85%</t>
-  </si>
-  <si>
-    <t>95,16%</t>
-  </si>
-  <si>
-    <t>92,93%</t>
-  </si>
-  <si>
-    <t>96,58%</t>
-  </si>
-  <si>
-    <t>97,98%</t>
-  </si>
-  <si>
-    <t>96,29%</t>
-  </si>
-  <si>
-    <t>99,0%</t>
-  </si>
-  <si>
-    <t>96,48%</t>
-  </si>
-  <si>
-    <t>95,15%</t>
-  </si>
-  <si>
-    <t>97,47%</t>
-  </si>
-  <si>
-    <t>2,27%</t>
-  </si>
-  <si>
-    <t>1,27%</t>
-  </si>
-  <si>
-    <t>3,84%</t>
-  </si>
-  <si>
-    <t>1,62%</t>
-  </si>
-  <si>
-    <t>0,83%</t>
-  </si>
-  <si>
-    <t>1,94%</t>
-  </si>
-  <si>
-    <t>2,92%</t>
-  </si>
-  <si>
-    <t>97,73%</t>
-  </si>
-  <si>
-    <t>96,16%</t>
-  </si>
-  <si>
-    <t>98,73%</t>
-  </si>
-  <si>
-    <t>98,38%</t>
-  </si>
-  <si>
-    <t>99,17%</t>
-  </si>
-  <si>
-    <t>98,06%</t>
-  </si>
-  <si>
-    <t>97,08%</t>
-  </si>
-  <si>
-    <t>1,32%</t>
-  </si>
-  <si>
-    <t>0,65%</t>
-  </si>
-  <si>
-    <t>2,6%</t>
-  </si>
-  <si>
-    <t>3,18%</t>
-  </si>
-  <si>
-    <t>1,86%</t>
-  </si>
-  <si>
-    <t>4,97%</t>
-  </si>
-  <si>
-    <t>1,5%</t>
-  </si>
-  <si>
-    <t>98,68%</t>
-  </si>
-  <si>
-    <t>97,4%</t>
-  </si>
-  <si>
-    <t>99,35%</t>
-  </si>
-  <si>
-    <t>96,82%</t>
-  </si>
-  <si>
-    <t>95,03%</t>
-  </si>
-  <si>
-    <t>98,14%</t>
-  </si>
-  <si>
-    <t>98,5%</t>
-  </si>
-  <si>
-    <t>1,02%</t>
-  </si>
-  <si>
-    <t>0,25%</t>
-  </si>
-  <si>
-    <t>2,41%</t>
-  </si>
-  <si>
-    <t>3,11%</t>
-  </si>
-  <si>
-    <t>1,64%</t>
-  </si>
-  <si>
-    <t>5,09%</t>
-  </si>
-  <si>
-    <t>1,23%</t>
-  </si>
-  <si>
-    <t>98,98%</t>
-  </si>
-  <si>
-    <t>97,59%</t>
-  </si>
-  <si>
-    <t>99,75%</t>
-  </si>
-  <si>
-    <t>96,89%</t>
-  </si>
-  <si>
-    <t>94,91%</t>
-  </si>
-  <si>
-    <t>98,36%</t>
-  </si>
-  <si>
-    <t>98,77%</t>
-  </si>
-  <si>
-    <t>2,93%</t>
-  </si>
-  <si>
-    <t>1,79%</t>
-  </si>
-  <si>
-    <t>4,65%</t>
-  </si>
-  <si>
-    <t>4,3%</t>
-  </si>
-  <si>
-    <t>6,08%</t>
-  </si>
-  <si>
-    <t>2,71%</t>
-  </si>
-  <si>
-    <t>4,81%</t>
-  </si>
-  <si>
-    <t>97,07%</t>
-  </si>
-  <si>
-    <t>95,35%</t>
-  </si>
-  <si>
-    <t>98,21%</t>
-  </si>
-  <si>
-    <t>95,7%</t>
-  </si>
-  <si>
-    <t>93,92%</t>
-  </si>
-  <si>
-    <t>95,19%</t>
-  </si>
-  <si>
-    <t>97,29%</t>
-  </si>
-  <si>
-    <t>2,87%</t>
-  </si>
-  <si>
-    <t>2,3%</t>
-  </si>
-  <si>
-    <t>3,5%</t>
-  </si>
-  <si>
-    <t>2,76%</t>
-  </si>
-  <si>
-    <t>3,38%</t>
-  </si>
-  <si>
-    <t>3,25%</t>
-  </si>
-  <si>
-    <t>97,13%</t>
-  </si>
-  <si>
-    <t>96,5%</t>
-  </si>
-  <si>
-    <t>97,7%</t>
-  </si>
-  <si>
-    <t>97,24%</t>
-  </si>
-  <si>
-    <t>96,62%</t>
-  </si>
-  <si>
-    <t>96,75%</t>
-  </si>
-  <si>
-    <t>Población que ha tenido un accidente en los últimos tres meses que le ha causado heridas o lesiones suficientes para limitar su actividad normal y/o para necesitar asistencia sanitaria en 2016 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>4,14%</t>
-  </si>
-  <si>
-    <t>2,55%</t>
-  </si>
-  <si>
-    <t>6,41%</t>
-  </si>
-  <si>
-    <t>1,26%</t>
-  </si>
-  <si>
-    <t>0,49%</t>
-  </si>
-  <si>
-    <t>2,74%</t>
-  </si>
-  <si>
-    <t>1,66%</t>
-  </si>
-  <si>
-    <t>4,13%</t>
-  </si>
-  <si>
-    <t>95,86%</t>
-  </si>
-  <si>
-    <t>93,59%</t>
-  </si>
-  <si>
-    <t>97,45%</t>
-  </si>
-  <si>
-    <t>98,74%</t>
-  </si>
-  <si>
-    <t>99,51%</t>
-  </si>
-  <si>
-    <t>97,26%</t>
-  </si>
-  <si>
-    <t>95,87%</t>
-  </si>
-  <si>
-    <t>98,34%</t>
-  </si>
-  <si>
-    <t>2,47%</t>
-  </si>
-  <si>
-    <t>5,48%</t>
-  </si>
-  <si>
-    <t>0,79%</t>
-  </si>
-  <si>
-    <t>3,1%</t>
-  </si>
-  <si>
-    <t>2,72%</t>
-  </si>
-  <si>
-    <t>1,92%</t>
-  </si>
-  <si>
-    <t>3,74%</t>
-  </si>
-  <si>
-    <t>94,52%</t>
-  </si>
-  <si>
-    <t>97,53%</t>
-  </si>
-  <si>
-    <t>96,9%</t>
-  </si>
-  <si>
-    <t>99,21%</t>
-  </si>
-  <si>
-    <t>97,28%</t>
-  </si>
-  <si>
-    <t>96,26%</t>
-  </si>
-  <si>
-    <t>98,08%</t>
-  </si>
-  <si>
-    <t>3,03%</t>
-  </si>
-  <si>
-    <t>4,68%</t>
-  </si>
-  <si>
-    <t>1,7%</t>
-  </si>
-  <si>
-    <t>0,89%</t>
-  </si>
-  <si>
-    <t>2,37%</t>
-  </si>
-  <si>
-    <t>1,57%</t>
-  </si>
-  <si>
-    <t>3,3%</t>
-  </si>
-  <si>
-    <t>96,97%</t>
-  </si>
-  <si>
-    <t>95,32%</t>
-  </si>
-  <si>
-    <t>98,3%</t>
-  </si>
-  <si>
-    <t>99,11%</t>
-  </si>
-  <si>
-    <t>97,63%</t>
-  </si>
-  <si>
-    <t>96,7%</t>
-  </si>
-  <si>
-    <t>98,43%</t>
-  </si>
-  <si>
-    <t>1,93%</t>
-  </si>
-  <si>
-    <t>0,99%</t>
-  </si>
-  <si>
-    <t>3,47%</t>
-  </si>
-  <si>
-    <t>1,56%</t>
-  </si>
-  <si>
-    <t>0,76%</t>
-  </si>
-  <si>
-    <t>1,74%</t>
-  </si>
-  <si>
-    <t>1,05%</t>
-  </si>
-  <si>
-    <t>2,61%</t>
-  </si>
-  <si>
-    <t>98,07%</t>
-  </si>
-  <si>
-    <t>96,53%</t>
-  </si>
-  <si>
-    <t>99,01%</t>
-  </si>
-  <si>
-    <t>98,44%</t>
-  </si>
-  <si>
-    <t>99,24%</t>
-  </si>
-  <si>
-    <t>98,26%</t>
-  </si>
-  <si>
-    <t>97,39%</t>
-  </si>
-  <si>
-    <t>98,95%</t>
-  </si>
-  <si>
-    <t>0,86%</t>
-  </si>
-  <si>
-    <t>0,22%</t>
-  </si>
-  <si>
-    <t>2,9%</t>
-  </si>
-  <si>
-    <t>1,46%</t>
-  </si>
-  <si>
-    <t>4,89%</t>
-  </si>
-  <si>
-    <t>1,9%</t>
-  </si>
-  <si>
-    <t>1,17%</t>
-  </si>
-  <si>
-    <t>99,14%</t>
-  </si>
-  <si>
     <t>99,78%</t>
   </si>
   <si>
@@ -1004,46 +1109,94 @@
     <t>98,83%</t>
   </si>
   <si>
-    <t>2,16%</t>
-  </si>
-  <si>
-    <t>1,31%</t>
-  </si>
-  <si>
-    <t>3,56%</t>
-  </si>
-  <si>
-    <t>6,54%</t>
-  </si>
-  <si>
-    <t>3,68%</t>
-  </si>
-  <si>
-    <t>2,69%</t>
-  </si>
-  <si>
-    <t>4,77%</t>
-  </si>
-  <si>
-    <t>97,84%</t>
-  </si>
-  <si>
-    <t>96,44%</t>
-  </si>
-  <si>
-    <t>98,69%</t>
-  </si>
-  <si>
-    <t>93,46%</t>
-  </si>
-  <si>
-    <t>96,32%</t>
-  </si>
-  <si>
-    <t>95,23%</t>
-  </si>
-  <si>
-    <t>97,31%</t>
+    <t>1,41%</t>
+  </si>
+  <si>
+    <t>0,53%</t>
+  </si>
+  <si>
+    <t>4,23%</t>
+  </si>
+  <si>
+    <t>6,74%</t>
+  </si>
+  <si>
+    <t>2,91%</t>
+  </si>
+  <si>
+    <t>1,78%</t>
+  </si>
+  <si>
+    <t>4,41%</t>
+  </si>
+  <si>
+    <t>98,59%</t>
+  </si>
+  <si>
+    <t>99,47%</t>
+  </si>
+  <si>
+    <t>95,77%</t>
+  </si>
+  <si>
+    <t>93,26%</t>
+  </si>
+  <si>
+    <t>97,09%</t>
+  </si>
+  <si>
+    <t>95,59%</t>
+  </si>
+  <si>
+    <t>98,22%</t>
+  </si>
+  <si>
+    <t>3,15%</t>
+  </si>
+  <si>
+    <t>1,58%</t>
+  </si>
+  <si>
+    <t>5,46%</t>
+  </si>
+  <si>
+    <t>5,38%</t>
+  </si>
+  <si>
+    <t>8,03%</t>
+  </si>
+  <si>
+    <t>4,51%</t>
+  </si>
+  <si>
+    <t>3,0%</t>
+  </si>
+  <si>
+    <t>6,64%</t>
+  </si>
+  <si>
+    <t>96,85%</t>
+  </si>
+  <si>
+    <t>94,54%</t>
+  </si>
+  <si>
+    <t>98,42%</t>
+  </si>
+  <si>
+    <t>94,62%</t>
+  </si>
+  <si>
+    <t>91,97%</t>
+  </si>
+  <si>
+    <t>95,49%</t>
+  </si>
+  <si>
+    <t>93,36%</t>
+  </si>
+  <si>
+    <t>97,0%</t>
   </si>
   <si>
     <t>2,63%</t>
@@ -1073,250 +1226,280 @@
     <t>Población que ha tenido un accidente en los últimos tres meses que le ha causado heridas o lesiones suficientes para limitar su actividad normal y/o para necesitar asistencia sanitaria en 2023 (Tasa respuesta: 99,97%)</t>
   </si>
   <si>
-    <t>2,22%</t>
-  </si>
-  <si>
-    <t>0,5%</t>
+    <t>5,67%</t>
+  </si>
+  <si>
+    <t>0,78%</t>
+  </si>
+  <si>
+    <t>6,89%</t>
+  </si>
+  <si>
+    <t>2,33%</t>
+  </si>
+  <si>
+    <t>4,88%</t>
+  </si>
+  <si>
+    <t>94,33%</t>
+  </si>
+  <si>
+    <t>93,11%</t>
+  </si>
+  <si>
+    <t>99,22%</t>
+  </si>
+  <si>
+    <t>97,67%</t>
+  </si>
+  <si>
+    <t>95,12%</t>
+  </si>
+  <si>
+    <t>1,21%</t>
+  </si>
+  <si>
+    <t>5,5%</t>
+  </si>
+  <si>
+    <t>0,34%</t>
+  </si>
+  <si>
+    <t>2,32%</t>
+  </si>
+  <si>
+    <t>1,8%</t>
+  </si>
+  <si>
+    <t>0,98%</t>
+  </si>
+  <si>
+    <t>3,23%</t>
+  </si>
+  <si>
+    <t>94,5%</t>
+  </si>
+  <si>
+    <t>98,79%</t>
+  </si>
+  <si>
+    <t>97,68%</t>
+  </si>
+  <si>
+    <t>99,66%</t>
+  </si>
+  <si>
+    <t>98,2%</t>
+  </si>
+  <si>
+    <t>96,77%</t>
+  </si>
+  <si>
+    <t>99,02%</t>
+  </si>
+  <si>
+    <t>3,46%</t>
+  </si>
+  <si>
+    <t>1,72%</t>
+  </si>
+  <si>
+    <t>0,95%</t>
+  </si>
+  <si>
+    <t>2,68%</t>
+  </si>
+  <si>
+    <t>1,81%</t>
+  </si>
+  <si>
+    <t>2,77%</t>
+  </si>
+  <si>
+    <t>96,54%</t>
+  </si>
+  <si>
+    <t>98,28%</t>
+  </si>
+  <si>
+    <t>97,32%</t>
+  </si>
+  <si>
+    <t>99,05%</t>
+  </si>
+  <si>
+    <t>98,19%</t>
+  </si>
+  <si>
+    <t>97,23%</t>
+  </si>
+  <si>
+    <t>2,57%</t>
+  </si>
+  <si>
+    <t>2,08%</t>
+  </si>
+  <si>
+    <t>1,28%</t>
+  </si>
+  <si>
+    <t>3,01%</t>
+  </si>
+  <si>
+    <t>97,43%</t>
+  </si>
+  <si>
+    <t>97,92%</t>
+  </si>
+  <si>
+    <t>96,99%</t>
+  </si>
+  <si>
+    <t>98,72%</t>
+  </si>
+  <si>
+    <t>0,55%</t>
+  </si>
+  <si>
+    <t>2,36%</t>
+  </si>
+  <si>
+    <t>1,45%</t>
+  </si>
+  <si>
+    <t>3,31%</t>
+  </si>
+  <si>
+    <t>1,76%</t>
+  </si>
+  <si>
+    <t>2,5%</t>
+  </si>
+  <si>
+    <t>99,45%</t>
+  </si>
+  <si>
+    <t>97,64%</t>
+  </si>
+  <si>
+    <t>96,69%</t>
+  </si>
+  <si>
+    <t>98,55%</t>
+  </si>
+  <si>
+    <t>98,24%</t>
+  </si>
+  <si>
+    <t>97,5%</t>
+  </si>
+  <si>
+    <t>1,73%</t>
+  </si>
+  <si>
+    <t>0,91%</t>
+  </si>
+  <si>
+    <t>0,94%</t>
+  </si>
+  <si>
+    <t>4,53%</t>
+  </si>
+  <si>
+    <t>1,08%</t>
+  </si>
+  <si>
+    <t>3,33%</t>
+  </si>
+  <si>
+    <t>98,27%</t>
+  </si>
+  <si>
+    <t>99,09%</t>
+  </si>
+  <si>
+    <t>95,47%</t>
+  </si>
+  <si>
+    <t>99,06%</t>
+  </si>
+  <si>
+    <t>96,67%</t>
+  </si>
+  <si>
+    <t>98,92%</t>
+  </si>
+  <si>
+    <t>3,04%</t>
+  </si>
+  <si>
+    <t>5,05%</t>
   </si>
   <si>
     <t>6,33%</t>
   </si>
   <si>
-    <t>6,91%</t>
-  </si>
-  <si>
-    <t>2,54%</t>
-  </si>
-  <si>
-    <t>5,37%</t>
-  </si>
-  <si>
-    <t>97,78%</t>
+    <t>4,82%</t>
+  </si>
+  <si>
+    <t>8,17%</t>
+  </si>
+  <si>
+    <t>5,01%</t>
+  </si>
+  <si>
+    <t>4,02%</t>
+  </si>
+  <si>
+    <t>96,96%</t>
+  </si>
+  <si>
+    <t>94,95%</t>
   </si>
   <si>
     <t>93,67%</t>
   </si>
   <si>
-    <t>99,5%</t>
-  </si>
-  <si>
-    <t>93,09%</t>
-  </si>
-  <si>
-    <t>97,46%</t>
-  </si>
-  <si>
-    <t>94,63%</t>
-  </si>
-  <si>
-    <t>1,33%</t>
-  </si>
-  <si>
-    <t>5,53%</t>
-  </si>
-  <si>
-    <t>1,13%</t>
-  </si>
-  <si>
-    <t>0,42%</t>
-  </si>
-  <si>
-    <t>2,56%</t>
-  </si>
-  <si>
-    <t>94,47%</t>
-  </si>
-  <si>
-    <t>98,67%</t>
-  </si>
-  <si>
-    <t>98,87%</t>
-  </si>
-  <si>
-    <t>97,44%</t>
-  </si>
-  <si>
-    <t>99,58%</t>
-  </si>
-  <si>
-    <t>3,49%</t>
-  </si>
-  <si>
-    <t>0,94%</t>
-  </si>
-  <si>
-    <t>2,68%</t>
-  </si>
-  <si>
-    <t>1,81%</t>
-  </si>
-  <si>
-    <t>1,16%</t>
-  </si>
-  <si>
-    <t>96,51%</t>
-  </si>
-  <si>
-    <t>97,32%</t>
-  </si>
-  <si>
-    <t>99,06%</t>
-  </si>
-  <si>
-    <t>98,19%</t>
-  </si>
-  <si>
-    <t>98,84%</t>
-  </si>
-  <si>
-    <t>5,11%</t>
-  </si>
-  <si>
-    <t>1,71%</t>
-  </si>
-  <si>
-    <t>1,06%</t>
-  </si>
-  <si>
-    <t>3,39%</t>
-  </si>
-  <si>
-    <t>94,89%</t>
-  </si>
-  <si>
-    <t>98,29%</t>
-  </si>
-  <si>
-    <t>98,94%</t>
-  </si>
-  <si>
-    <t>96,61%</t>
-  </si>
-  <si>
-    <t>1,18%</t>
-  </si>
-  <si>
-    <t>0,55%</t>
-  </si>
-  <si>
-    <t>3,33%</t>
-  </si>
-  <si>
-    <t>1,77%</t>
-  </si>
-  <si>
-    <t>1,21%</t>
-  </si>
-  <si>
-    <t>2,51%</t>
-  </si>
-  <si>
-    <t>98,82%</t>
-  </si>
-  <si>
-    <t>99,45%</t>
-  </si>
-  <si>
-    <t>96,67%</t>
-  </si>
-  <si>
-    <t>98,23%</t>
-  </si>
-  <si>
-    <t>97,49%</t>
-  </si>
-  <si>
-    <t>98,79%</t>
-  </si>
-  <si>
-    <t>2,19%</t>
-  </si>
-  <si>
-    <t>1,51%</t>
-  </si>
-  <si>
-    <t>4,6%</t>
-  </si>
-  <si>
-    <t>3,2%</t>
-  </si>
-  <si>
-    <t>5,81%</t>
-  </si>
-  <si>
-    <t>3,63%</t>
-  </si>
-  <si>
-    <t>2,81%</t>
-  </si>
-  <si>
-    <t>4,45%</t>
-  </si>
-  <si>
-    <t>97,81%</t>
-  </si>
-  <si>
-    <t>98,49%</t>
-  </si>
-  <si>
-    <t>95,4%</t>
-  </si>
-  <si>
-    <t>94,19%</t>
-  </si>
-  <si>
-    <t>96,8%</t>
-  </si>
-  <si>
-    <t>96,37%</t>
-  </si>
-  <si>
-    <t>95,55%</t>
-  </si>
-  <si>
-    <t>97,19%</t>
-  </si>
-  <si>
-    <t>1,76%</t>
-  </si>
-  <si>
-    <t>2,62%</t>
-  </si>
-  <si>
-    <t>2,17%</t>
-  </si>
-  <si>
-    <t>3,22%</t>
-  </si>
-  <si>
-    <t>2,46%</t>
-  </si>
-  <si>
-    <t>2,1%</t>
-  </si>
-  <si>
-    <t>2,85%</t>
-  </si>
-  <si>
-    <t>98,24%</t>
-  </si>
-  <si>
-    <t>97,38%</t>
-  </si>
-  <si>
-    <t>96,78%</t>
-  </si>
-  <si>
-    <t>97,83%</t>
-  </si>
-  <si>
-    <t>97,54%</t>
-  </si>
-  <si>
-    <t>97,15%</t>
-  </si>
-  <si>
-    <t>97,9%</t>
+    <t>91,83%</t>
+  </si>
+  <si>
+    <t>95,18%</t>
+  </si>
+  <si>
+    <t>94,99%</t>
+  </si>
+  <si>
+    <t>95,98%</t>
+  </si>
+  <si>
+    <t>1,55%</t>
+  </si>
+  <si>
+    <t>2,03%</t>
+  </si>
+  <si>
+    <t>3,07%</t>
+  </si>
+  <si>
+    <t>2,31%</t>
+  </si>
+  <si>
+    <t>1,89%</t>
+  </si>
+  <si>
+    <t>98,45%</t>
+  </si>
+  <si>
+    <t>96,93%</t>
+  </si>
+  <si>
+    <t>97,97%</t>
+  </si>
+  <si>
+    <t>97,69%</t>
+  </si>
+  <si>
+    <t>98,11%</t>
   </si>
 </sst>
 </file>
@@ -1728,8 +1911,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1D01FE80-E14A-4E69-92F5-110052F49AC6}">
-  <dimension ref="A1:Q25"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4F158D20-9160-49D3-9AF6-3764AB845C3F}">
+  <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -2621,10 +2804,10 @@
         <v>10</v>
       </c>
       <c r="C19" s="7">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="D19" s="7">
-        <v>10585</v>
+        <v>4653</v>
       </c>
       <c r="E19" s="7" t="s">
         <v>108</v>
@@ -2633,37 +2816,37 @@
         <v>109</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>75</v>
+        <v>110</v>
       </c>
       <c r="H19" s="7">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="I19" s="7">
-        <v>31714</v>
+        <v>9114</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="M19" s="7">
-        <v>41</v>
+        <v>15</v>
       </c>
       <c r="N19" s="7">
-        <v>42299</v>
+        <v>13767</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2672,49 +2855,49 @@
         <v>20</v>
       </c>
       <c r="C20" s="7">
-        <v>512</v>
+        <v>298</v>
       </c>
       <c r="D20" s="7">
-        <v>491881</v>
+        <v>287930</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>83</v>
+        <v>118</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="H20" s="7">
-        <v>631</v>
+        <v>361</v>
       </c>
       <c r="I20" s="7">
-        <v>645128</v>
+        <v>333820</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="M20" s="7">
-        <v>1143</v>
+        <v>659</v>
       </c>
       <c r="N20" s="7">
-        <v>1137009</v>
+        <v>621750</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2723,10 +2906,10 @@
         <v>3</v>
       </c>
       <c r="C21" s="7">
-        <v>523</v>
+        <v>303</v>
       </c>
       <c r="D21" s="7">
-        <v>502466</v>
+        <v>292583</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>30</v>
@@ -2738,10 +2921,10 @@
         <v>30</v>
       </c>
       <c r="H21" s="7">
-        <v>661</v>
+        <v>371</v>
       </c>
       <c r="I21" s="7">
-        <v>676842</v>
+        <v>342934</v>
       </c>
       <c r="J21" s="7" t="s">
         <v>30</v>
@@ -2753,10 +2936,10 @@
         <v>30</v>
       </c>
       <c r="M21" s="7">
-        <v>1184</v>
+        <v>674</v>
       </c>
       <c r="N21" s="7">
-        <v>1179308</v>
+        <v>635517</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>30</v>
@@ -2770,55 +2953,55 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>3</v>
+        <v>126</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C22" s="7">
-        <v>119</v>
+        <v>6</v>
       </c>
       <c r="D22" s="7">
-        <v>123077</v>
+        <v>5933</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>70</v>
+        <v>127</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>124</v>
+        <v>93</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="H22" s="7">
-        <v>90</v>
+        <v>20</v>
       </c>
       <c r="I22" s="7">
-        <v>93806</v>
+        <v>22600</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="M22" s="7">
-        <v>209</v>
+        <v>26</v>
       </c>
       <c r="N22" s="7">
-        <v>216883</v>
+        <v>28533</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2827,49 +3010,49 @@
         <v>20</v>
       </c>
       <c r="C23" s="7">
-        <v>3095</v>
+        <v>214</v>
       </c>
       <c r="D23" s="7">
-        <v>3153467</v>
+        <v>203950</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>79</v>
+        <v>135</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>133</v>
+        <v>103</v>
       </c>
       <c r="H23" s="7">
-        <v>3207</v>
+        <v>270</v>
       </c>
       <c r="I23" s="7">
-        <v>3285392</v>
+        <v>311308</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="M23" s="7">
-        <v>6302</v>
+        <v>484</v>
       </c>
       <c r="N23" s="7">
-        <v>6438857</v>
+        <v>515258</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -2878,63 +3061,219 @@
         <v>3</v>
       </c>
       <c r="C24" s="7">
+        <v>220</v>
+      </c>
+      <c r="D24" s="7">
+        <v>209883</v>
+      </c>
+      <c r="E24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H24" s="7">
+        <v>290</v>
+      </c>
+      <c r="I24" s="7">
+        <v>333908</v>
+      </c>
+      <c r="J24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M24" s="7">
+        <v>510</v>
+      </c>
+      <c r="N24" s="7">
+        <v>543791</v>
+      </c>
+      <c r="O24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q24" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A25" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C25" s="7">
+        <v>119</v>
+      </c>
+      <c r="D25" s="7">
+        <v>123077</v>
+      </c>
+      <c r="E25" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="G25" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="H25" s="7">
+        <v>90</v>
+      </c>
+      <c r="I25" s="7">
+        <v>93806</v>
+      </c>
+      <c r="J25" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="L25" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="M25" s="7">
+        <v>209</v>
+      </c>
+      <c r="N25" s="7">
+        <v>216883</v>
+      </c>
+      <c r="O25" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="P25" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="Q25" s="7" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A26" s="1"/>
+      <c r="B26" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C26" s="7">
+        <v>3095</v>
+      </c>
+      <c r="D26" s="7">
+        <v>3153466</v>
+      </c>
+      <c r="E26" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="G26" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="H26" s="7">
+        <v>3207</v>
+      </c>
+      <c r="I26" s="7">
+        <v>3285391</v>
+      </c>
+      <c r="J26" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="L26" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="M26" s="7">
+        <v>6302</v>
+      </c>
+      <c r="N26" s="7">
+        <v>6438858</v>
+      </c>
+      <c r="O26" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="P26" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="Q26" s="7" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A27" s="1"/>
+      <c r="B27" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C27" s="7">
         <v>3214</v>
       </c>
-      <c r="D24" s="7">
-        <v>3276544</v>
-      </c>
-      <c r="E24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H24" s="7">
+      <c r="D27" s="7">
+        <v>3276543</v>
+      </c>
+      <c r="E27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H27" s="7">
         <v>3297</v>
       </c>
-      <c r="I24" s="7">
-        <v>3379198</v>
-      </c>
-      <c r="J24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="K24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="M24" s="7">
+      <c r="I27" s="7">
+        <v>3379197</v>
+      </c>
+      <c r="J27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M27" s="7">
         <v>6511</v>
       </c>
-      <c r="N24" s="7">
-        <v>6655740</v>
-      </c>
-      <c r="O24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="P24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
-        <v>140</v>
+      <c r="N27" s="7">
+        <v>6655741</v>
+      </c>
+      <c r="O27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q27" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>159</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
     <mergeCell ref="A19:A21"/>
     <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A25:A27"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -2947,8 +3286,8 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CC5DD5DE-A9E6-44A8-A1D2-1031AC11FBFB}">
-  <dimension ref="A1:Q25"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8CA57148-B096-4CA4-8BB9-CCF269FB5427}">
+  <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -2964,7 +3303,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>141</v>
+        <v>160</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3071,13 +3410,13 @@
         <v>20639</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>142</v>
+        <v>161</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>143</v>
+        <v>162</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>144</v>
+        <v>163</v>
       </c>
       <c r="H4" s="7">
         <v>9</v>
@@ -3086,13 +3425,13 @@
         <v>8980</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>145</v>
+        <v>164</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>146</v>
+        <v>165</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>147</v>
+        <v>166</v>
       </c>
       <c r="M4" s="7">
         <v>30</v>
@@ -3101,13 +3440,13 @@
         <v>29619</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>148</v>
+        <v>167</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>149</v>
+        <v>168</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>150</v>
+        <v>169</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3122,13 +3461,13 @@
         <v>433507</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>151</v>
+        <v>170</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>152</v>
+        <v>171</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>153</v>
+        <v>172</v>
       </c>
       <c r="H5" s="7">
         <v>412</v>
@@ -3137,13 +3476,13 @@
         <v>421250</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>154</v>
+        <v>173</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>155</v>
+        <v>174</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>156</v>
+        <v>175</v>
       </c>
       <c r="M5" s="7">
         <v>837</v>
@@ -3152,13 +3491,13 @@
         <v>854757</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>157</v>
+        <v>176</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>158</v>
+        <v>177</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>159</v>
+        <v>178</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3226,13 +3565,13 @@
         <v>33283</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>160</v>
+        <v>179</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>161</v>
+        <v>180</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>162</v>
+        <v>181</v>
       </c>
       <c r="H7" s="7">
         <v>10</v>
@@ -3241,13 +3580,13 @@
         <v>12336</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>163</v>
+        <v>182</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>164</v>
+        <v>183</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>165</v>
+        <v>184</v>
       </c>
       <c r="M7" s="7">
         <v>41</v>
@@ -3256,13 +3595,13 @@
         <v>45619</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>166</v>
+        <v>185</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>167</v>
+        <v>186</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>168</v>
+        <v>187</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3277,13 +3616,13 @@
         <v>653804</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>169</v>
+        <v>188</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>170</v>
+        <v>189</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>171</v>
+        <v>190</v>
       </c>
       <c r="H8" s="7">
         <v>561</v>
@@ -3292,13 +3631,13 @@
         <v>597919</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>172</v>
+        <v>191</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>173</v>
+        <v>192</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>174</v>
+        <v>193</v>
       </c>
       <c r="M8" s="7">
         <v>1197</v>
@@ -3307,13 +3646,13 @@
         <v>1251723</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>175</v>
+        <v>194</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>176</v>
+        <v>195</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>177</v>
+        <v>196</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3381,13 +3720,13 @@
         <v>15467</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>178</v>
+        <v>197</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>179</v>
+        <v>198</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>180</v>
+        <v>199</v>
       </c>
       <c r="H10" s="7">
         <v>11</v>
@@ -3396,10 +3735,10 @@
         <v>11530</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>181</v>
+        <v>200</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>182</v>
+        <v>201</v>
       </c>
       <c r="L10" s="7" t="s">
         <v>39</v>
@@ -3411,13 +3750,13 @@
         <v>26997</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>183</v>
+        <v>202</v>
       </c>
       <c r="P10" s="7" t="s">
         <v>52</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>184</v>
+        <v>203</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3432,13 +3771,13 @@
         <v>666396</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>185</v>
+        <v>204</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>186</v>
+        <v>205</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>187</v>
+        <v>206</v>
       </c>
       <c r="H11" s="7">
         <v>656</v>
@@ -3447,13 +3786,13 @@
         <v>699320</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>188</v>
+        <v>207</v>
       </c>
       <c r="K11" s="7" t="s">
         <v>49</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>189</v>
+        <v>208</v>
       </c>
       <c r="M11" s="7">
         <v>1293</v>
@@ -3462,10 +3801,10 @@
         <v>1365715</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>190</v>
+        <v>209</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>191</v>
+        <v>210</v>
       </c>
       <c r="Q11" s="7" t="s">
         <v>62</v>
@@ -3536,13 +3875,13 @@
         <v>8141</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>192</v>
+        <v>211</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>193</v>
+        <v>212</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>194</v>
+        <v>213</v>
       </c>
       <c r="H13" s="7">
         <v>17</v>
@@ -3551,13 +3890,13 @@
         <v>19599</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>195</v>
+        <v>214</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>196</v>
+        <v>215</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>197</v>
+        <v>216</v>
       </c>
       <c r="M13" s="7">
         <v>25</v>
@@ -3566,10 +3905,10 @@
         <v>27739</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>127</v>
+        <v>146</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>198</v>
+        <v>217</v>
       </c>
       <c r="Q13" s="7" t="s">
         <v>56</v>
@@ -3587,13 +3926,13 @@
         <v>606476</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>199</v>
+        <v>218</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>200</v>
+        <v>219</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>201</v>
+        <v>220</v>
       </c>
       <c r="H14" s="7">
         <v>522</v>
@@ -3602,13 +3941,13 @@
         <v>596600</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>202</v>
+        <v>221</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>203</v>
+        <v>222</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>204</v>
+        <v>223</v>
       </c>
       <c r="M14" s="7">
         <v>1062</v>
@@ -3617,13 +3956,13 @@
         <v>1203077</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>136</v>
+        <v>155</v>
       </c>
       <c r="P14" s="7" t="s">
         <v>64</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>205</v>
+        <v>224</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3691,13 +4030,13 @@
         <v>4371</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>206</v>
+        <v>225</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>207</v>
+        <v>226</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>208</v>
+        <v>227</v>
       </c>
       <c r="H16" s="7">
         <v>13</v>
@@ -3706,13 +4045,13 @@
         <v>13941</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>209</v>
+        <v>228</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>210</v>
+        <v>229</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>211</v>
+        <v>230</v>
       </c>
       <c r="M16" s="7">
         <v>17</v>
@@ -3721,13 +4060,13 @@
         <v>18313</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>145</v>
+        <v>164</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>212</v>
+        <v>231</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>195</v>
+        <v>214</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3742,13 +4081,13 @@
         <v>425058</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>213</v>
+        <v>232</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>214</v>
+        <v>233</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>215</v>
+        <v>234</v>
       </c>
       <c r="H17" s="7">
         <v>393</v>
@@ -3757,13 +4096,13 @@
         <v>433859</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>216</v>
+        <v>235</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>217</v>
+        <v>236</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>218</v>
+        <v>237</v>
       </c>
       <c r="M17" s="7">
         <v>782</v>
@@ -3772,13 +4111,13 @@
         <v>858916</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>154</v>
+        <v>173</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>202</v>
+        <v>221</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>219</v>
+        <v>238</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3840,49 +4179,49 @@
         <v>10</v>
       </c>
       <c r="C19" s="7">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="D19" s="7">
-        <v>16414</v>
+        <v>7981</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>220</v>
+        <v>239</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>221</v>
+        <v>198</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>222</v>
+        <v>187</v>
       </c>
       <c r="H19" s="7">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="I19" s="7">
-        <v>31944</v>
+        <v>12845</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>223</v>
+        <v>240</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>220</v>
+        <v>241</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>224</v>
+        <v>242</v>
       </c>
       <c r="M19" s="7">
-        <v>46</v>
+        <v>21</v>
       </c>
       <c r="N19" s="7">
-        <v>48358</v>
+        <v>20826</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>165</v>
+        <v>143</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>225</v>
+        <v>243</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>226</v>
+        <v>244</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3891,49 +4230,49 @@
         <v>20</v>
       </c>
       <c r="C20" s="7">
-        <v>488</v>
+        <v>274</v>
       </c>
       <c r="D20" s="7">
-        <v>543223</v>
+        <v>301805</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>227</v>
+        <v>245</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>228</v>
+        <v>195</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>229</v>
+        <v>206</v>
       </c>
       <c r="H20" s="7">
-        <v>664</v>
+        <v>331</v>
       </c>
       <c r="I20" s="7">
-        <v>711031</v>
+        <v>341151</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>230</v>
+        <v>246</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>231</v>
+        <v>247</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>227</v>
+        <v>248</v>
       </c>
       <c r="M20" s="7">
-        <v>1152</v>
+        <v>605</v>
       </c>
       <c r="N20" s="7">
-        <v>1254254</v>
+        <v>642956</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>173</v>
+        <v>152</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>232</v>
+        <v>249</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>233</v>
+        <v>250</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3942,10 +4281,10 @@
         <v>3</v>
       </c>
       <c r="C21" s="7">
-        <v>504</v>
+        <v>282</v>
       </c>
       <c r="D21" s="7">
-        <v>559637</v>
+        <v>309786</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>30</v>
@@ -3957,10 +4296,10 @@
         <v>30</v>
       </c>
       <c r="H21" s="7">
-        <v>694</v>
+        <v>344</v>
       </c>
       <c r="I21" s="7">
-        <v>742975</v>
+        <v>353996</v>
       </c>
       <c r="J21" s="7" t="s">
         <v>30</v>
@@ -3972,10 +4311,10 @@
         <v>30</v>
       </c>
       <c r="M21" s="7">
-        <v>1198</v>
+        <v>626</v>
       </c>
       <c r="N21" s="7">
-        <v>1302612</v>
+        <v>663782</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>30</v>
@@ -3989,55 +4328,55 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>3</v>
+        <v>126</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C22" s="7">
-        <v>94</v>
+        <v>8</v>
       </c>
       <c r="D22" s="7">
-        <v>98315</v>
+        <v>8433</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>234</v>
+        <v>251</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>235</v>
+        <v>252</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>236</v>
+        <v>253</v>
       </c>
       <c r="H22" s="7">
-        <v>90</v>
+        <v>17</v>
       </c>
       <c r="I22" s="7">
-        <v>98331</v>
+        <v>19099</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>237</v>
+        <v>169</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>14</v>
+        <v>254</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>238</v>
+        <v>255</v>
       </c>
       <c r="M22" s="7">
-        <v>184</v>
+        <v>25</v>
       </c>
       <c r="N22" s="7">
-        <v>196646</v>
+        <v>27532</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>76</v>
+        <v>256</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>208</v>
+        <v>257</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>239</v>
+        <v>258</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4046,49 +4385,49 @@
         <v>20</v>
       </c>
       <c r="C23" s="7">
-        <v>3115</v>
+        <v>214</v>
       </c>
       <c r="D23" s="7">
-        <v>3328464</v>
+        <v>241418</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>240</v>
+        <v>259</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>241</v>
+        <v>260</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>242</v>
+        <v>261</v>
       </c>
       <c r="H23" s="7">
-        <v>3208</v>
+        <v>333</v>
       </c>
       <c r="I23" s="7">
-        <v>3459978</v>
+        <v>369880</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>243</v>
+        <v>177</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>244</v>
+        <v>262</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>24</v>
+        <v>263</v>
       </c>
       <c r="M23" s="7">
-        <v>6323</v>
+        <v>547</v>
       </c>
       <c r="N23" s="7">
-        <v>6788442</v>
+        <v>611298</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>85</v>
+        <v>264</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>245</v>
+        <v>265</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>214</v>
+        <v>266</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -4097,63 +4436,219 @@
         <v>3</v>
       </c>
       <c r="C24" s="7">
+        <v>222</v>
+      </c>
+      <c r="D24" s="7">
+        <v>249851</v>
+      </c>
+      <c r="E24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H24" s="7">
+        <v>350</v>
+      </c>
+      <c r="I24" s="7">
+        <v>388979</v>
+      </c>
+      <c r="J24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M24" s="7">
+        <v>572</v>
+      </c>
+      <c r="N24" s="7">
+        <v>638830</v>
+      </c>
+      <c r="O24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q24" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A25" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C25" s="7">
+        <v>94</v>
+      </c>
+      <c r="D25" s="7">
+        <v>98315</v>
+      </c>
+      <c r="E25" s="7" t="s">
+        <v>267</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>268</v>
+      </c>
+      <c r="G25" s="7" t="s">
+        <v>269</v>
+      </c>
+      <c r="H25" s="7">
+        <v>90</v>
+      </c>
+      <c r="I25" s="7">
+        <v>98331</v>
+      </c>
+      <c r="J25" s="7" t="s">
+        <v>270</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="L25" s="7" t="s">
+        <v>251</v>
+      </c>
+      <c r="M25" s="7">
+        <v>184</v>
+      </c>
+      <c r="N25" s="7">
+        <v>196646</v>
+      </c>
+      <c r="O25" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="P25" s="7" t="s">
+        <v>227</v>
+      </c>
+      <c r="Q25" s="7" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A26" s="1"/>
+      <c r="B26" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C26" s="7">
+        <v>3115</v>
+      </c>
+      <c r="D26" s="7">
+        <v>3328464</v>
+      </c>
+      <c r="E26" s="7" t="s">
+        <v>272</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>273</v>
+      </c>
+      <c r="G26" s="7" t="s">
+        <v>274</v>
+      </c>
+      <c r="H26" s="7">
+        <v>3208</v>
+      </c>
+      <c r="I26" s="7">
+        <v>3459978</v>
+      </c>
+      <c r="J26" s="7" t="s">
+        <v>275</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>259</v>
+      </c>
+      <c r="L26" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="M26" s="7">
+        <v>6323</v>
+      </c>
+      <c r="N26" s="7">
+        <v>6788442</v>
+      </c>
+      <c r="O26" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="P26" s="7" t="s">
+        <v>276</v>
+      </c>
+      <c r="Q26" s="7" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A27" s="1"/>
+      <c r="B27" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C27" s="7">
         <v>3209</v>
       </c>
-      <c r="D24" s="7">
+      <c r="D27" s="7">
         <v>3426779</v>
       </c>
-      <c r="E24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H24" s="7">
+      <c r="E27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H27" s="7">
         <v>3298</v>
       </c>
-      <c r="I24" s="7">
+      <c r="I27" s="7">
         <v>3558309</v>
       </c>
-      <c r="J24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="K24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="M24" s="7">
+      <c r="J27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M27" s="7">
         <v>6507</v>
       </c>
-      <c r="N24" s="7">
+      <c r="N27" s="7">
         <v>6985088</v>
       </c>
-      <c r="O24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="P24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
-        <v>140</v>
+      <c r="O27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q27" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>159</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
     <mergeCell ref="A19:A21"/>
     <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A25:A27"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -4166,8 +4661,8 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B8B1AAB6-2B27-4941-8267-3FC76522C810}">
-  <dimension ref="A1:Q25"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7EDAA1EA-5AAE-4511-954A-3C6509EF19E5}">
+  <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -4183,7 +4678,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>246</v>
+        <v>277</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4290,13 +4785,13 @@
         <v>17359</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>247</v>
+        <v>278</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>248</v>
+        <v>279</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>249</v>
+        <v>280</v>
       </c>
       <c r="H4" s="7">
         <v>5</v>
@@ -4305,10 +4800,10 @@
         <v>4977</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>250</v>
+        <v>281</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>251</v>
+        <v>282</v>
       </c>
       <c r="L4" s="7" t="s">
         <v>39</v>
@@ -4320,13 +4815,13 @@
         <v>22336</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>252</v>
+        <v>283</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>253</v>
+        <v>284</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>254</v>
+        <v>285</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4341,13 +4836,13 @@
         <v>402104</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>255</v>
+        <v>286</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>256</v>
+        <v>287</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>257</v>
+        <v>288</v>
       </c>
       <c r="H5" s="7">
         <v>399</v>
@@ -4356,13 +4851,13 @@
         <v>390778</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>258</v>
+        <v>289</v>
       </c>
       <c r="K5" s="7" t="s">
         <v>49</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>259</v>
+        <v>290</v>
       </c>
       <c r="M5" s="7">
         <v>776</v>
@@ -4371,13 +4866,13 @@
         <v>792882</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>260</v>
+        <v>291</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>261</v>
+        <v>292</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>262</v>
+        <v>293</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4448,10 +4943,10 @@
         <v>53</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>263</v>
+        <v>294</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>264</v>
+        <v>295</v>
       </c>
       <c r="H7" s="7">
         <v>9</v>
@@ -4460,13 +4955,13 @@
         <v>9232</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>210</v>
+        <v>229</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>265</v>
+        <v>296</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>266</v>
+        <v>297</v>
       </c>
       <c r="M7" s="7">
         <v>31</v>
@@ -4475,13 +4970,13 @@
         <v>31363</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>267</v>
+        <v>298</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>268</v>
+        <v>299</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>269</v>
+        <v>300</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4499,10 +4994,10 @@
         <v>61</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>270</v>
+        <v>301</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>271</v>
+        <v>302</v>
       </c>
       <c r="H8" s="7">
         <v>570</v>
@@ -4511,13 +5006,13 @@
         <v>554312</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>218</v>
+        <v>237</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>272</v>
+        <v>303</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>273</v>
+        <v>304</v>
       </c>
       <c r="M8" s="7">
         <v>1115</v>
@@ -4526,13 +5021,13 @@
         <v>1122677</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>274</v>
+        <v>305</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>275</v>
+        <v>306</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>276</v>
+        <v>307</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4600,13 +5095,13 @@
         <v>20261</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>277</v>
+        <v>308</v>
       </c>
       <c r="F10" s="7" t="s">
         <v>73</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>278</v>
+        <v>309</v>
       </c>
       <c r="H10" s="7">
         <v>10</v>
@@ -4615,13 +5110,13 @@
         <v>11215</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>279</v>
+        <v>310</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>280</v>
+        <v>311</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>266</v>
+        <v>297</v>
       </c>
       <c r="M10" s="7">
         <v>29</v>
@@ -4630,13 +5125,13 @@
         <v>31476</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>281</v>
+        <v>312</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>282</v>
+        <v>313</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>283</v>
+        <v>314</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4651,10 +5146,10 @@
         <v>648836</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>284</v>
+        <v>315</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>285</v>
+        <v>316</v>
       </c>
       <c r="G11" s="7" t="s">
         <v>82</v>
@@ -4666,13 +5161,13 @@
         <v>650171</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>286</v>
+        <v>317</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>272</v>
+        <v>303</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>287</v>
+        <v>318</v>
       </c>
       <c r="M11" s="7">
         <v>1274</v>
@@ -4681,13 +5176,13 @@
         <v>1299007</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>288</v>
+        <v>319</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>289</v>
+        <v>320</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>290</v>
+        <v>321</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4755,13 +5250,13 @@
         <v>12461</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>291</v>
+        <v>322</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>292</v>
+        <v>323</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>293</v>
+        <v>324</v>
       </c>
       <c r="H13" s="7">
         <v>9</v>
@@ -4770,13 +5265,13 @@
         <v>10133</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>294</v>
+        <v>325</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>295</v>
+        <v>326</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>220</v>
+        <v>327</v>
       </c>
       <c r="M13" s="7">
         <v>20</v>
@@ -4785,13 +5280,13 @@
         <v>22594</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>296</v>
+        <v>328</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>297</v>
+        <v>329</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>298</v>
+        <v>330</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4806,13 +5301,13 @@
         <v>633587</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>299</v>
+        <v>331</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>300</v>
+        <v>332</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>301</v>
+        <v>333</v>
       </c>
       <c r="H14" s="7">
         <v>593</v>
@@ -4821,13 +5316,13 @@
         <v>638944</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>302</v>
+        <v>334</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>227</v>
+        <v>335</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>303</v>
+        <v>336</v>
       </c>
       <c r="M14" s="7">
         <v>1164</v>
@@ -4836,13 +5331,13 @@
         <v>1272531</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>304</v>
+        <v>337</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>305</v>
+        <v>338</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>306</v>
+        <v>339</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4910,13 +5405,13 @@
         <v>4106</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>307</v>
+        <v>340</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>308</v>
+        <v>341</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>108</v>
+        <v>342</v>
       </c>
       <c r="H16" s="7">
         <v>12</v>
@@ -4925,13 +5420,13 @@
         <v>14416</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>309</v>
+        <v>343</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>310</v>
+        <v>344</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>311</v>
+        <v>345</v>
       </c>
       <c r="M16" s="7">
         <v>16</v>
@@ -4940,13 +5435,13 @@
         <v>18522</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>312</v>
+        <v>346</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>313</v>
+        <v>347</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>220</v>
+        <v>327</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4961,13 +5456,13 @@
         <v>473812</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>314</v>
+        <v>348</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>116</v>
+        <v>349</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>315</v>
+        <v>350</v>
       </c>
       <c r="H17" s="7">
         <v>421</v>
@@ -4976,13 +5471,13 @@
         <v>482433</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>316</v>
+        <v>351</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>317</v>
+        <v>352</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>318</v>
+        <v>353</v>
       </c>
       <c r="M17" s="7">
         <v>841</v>
@@ -4991,13 +5486,13 @@
         <v>956245</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>319</v>
+        <v>354</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>227</v>
+        <v>335</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>320</v>
+        <v>355</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5059,49 +5554,49 @@
         <v>10</v>
       </c>
       <c r="C19" s="7">
+        <v>5</v>
+      </c>
+      <c r="D19" s="7">
+        <v>4709</v>
+      </c>
+      <c r="E19" s="7" t="s">
+        <v>356</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>357</v>
+      </c>
+      <c r="G19" s="7" t="s">
+        <v>297</v>
+      </c>
+      <c r="H19" s="7">
         <v>15</v>
       </c>
-      <c r="D19" s="7">
-        <v>12792</v>
-      </c>
-      <c r="E19" s="7" t="s">
-        <v>321</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>322</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>323</v>
-      </c>
-      <c r="H19" s="7">
-        <v>32</v>
-      </c>
       <c r="I19" s="7">
-        <v>37538</v>
+        <v>15994</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>12</v>
+        <v>358</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>161</v>
+        <v>186</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>324</v>
+        <v>359</v>
       </c>
       <c r="M19" s="7">
-        <v>47</v>
+        <v>20</v>
       </c>
       <c r="N19" s="7">
-        <v>50330</v>
+        <v>20703</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>325</v>
+        <v>360</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>326</v>
+        <v>361</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>327</v>
+        <v>362</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -5110,49 +5605,49 @@
         <v>20</v>
       </c>
       <c r="C20" s="7">
-        <v>612</v>
+        <v>320</v>
       </c>
       <c r="D20" s="7">
-        <v>578536</v>
+        <v>329621</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>328</v>
+        <v>363</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>329</v>
+        <v>303</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>330</v>
+        <v>364</v>
       </c>
       <c r="H20" s="7">
-        <v>623</v>
+        <v>339</v>
       </c>
       <c r="I20" s="7">
-        <v>740393</v>
+        <v>361768</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>23</v>
+        <v>365</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>331</v>
+        <v>366</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>171</v>
+        <v>196</v>
       </c>
       <c r="M20" s="7">
-        <v>1235</v>
+        <v>659</v>
       </c>
       <c r="N20" s="7">
-        <v>1318929</v>
+        <v>691389</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>332</v>
+        <v>367</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>333</v>
+        <v>368</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>334</v>
+        <v>369</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5161,10 +5656,10 @@
         <v>3</v>
       </c>
       <c r="C21" s="7">
-        <v>627</v>
+        <v>325</v>
       </c>
       <c r="D21" s="7">
-        <v>591328</v>
+        <v>334330</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>30</v>
@@ -5176,10 +5671,10 @@
         <v>30</v>
       </c>
       <c r="H21" s="7">
-        <v>655</v>
+        <v>354</v>
       </c>
       <c r="I21" s="7">
-        <v>777931</v>
+        <v>377762</v>
       </c>
       <c r="J21" s="7" t="s">
         <v>30</v>
@@ -5191,10 +5686,10 @@
         <v>30</v>
       </c>
       <c r="M21" s="7">
-        <v>1282</v>
+        <v>679</v>
       </c>
       <c r="N21" s="7">
-        <v>1369259</v>
+        <v>712092</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>30</v>
@@ -5208,55 +5703,55 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>3</v>
+        <v>126</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C22" s="7">
-        <v>87</v>
+        <v>10</v>
       </c>
       <c r="D22" s="7">
-        <v>89111</v>
+        <v>8083</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>335</v>
+        <v>370</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>145</v>
+        <v>371</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>56</v>
+        <v>372</v>
       </c>
       <c r="H22" s="7">
-        <v>77</v>
+        <v>17</v>
       </c>
       <c r="I22" s="7">
-        <v>87510</v>
+        <v>21545</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>263</v>
+        <v>373</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>336</v>
+        <v>214</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>209</v>
+        <v>374</v>
       </c>
       <c r="M22" s="7">
-        <v>164</v>
+        <v>27</v>
       </c>
       <c r="N22" s="7">
-        <v>176621</v>
+        <v>29628</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>248</v>
+        <v>375</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>337</v>
+        <v>376</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>338</v>
+        <v>377</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5265,49 +5760,49 @@
         <v>20</v>
       </c>
       <c r="C23" s="7">
-        <v>3144</v>
+        <v>292</v>
       </c>
       <c r="D23" s="7">
-        <v>3305239</v>
+        <v>248915</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>339</v>
+        <v>378</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>64</v>
+        <v>379</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>154</v>
+        <v>380</v>
       </c>
       <c r="H23" s="7">
-        <v>3261</v>
+        <v>284</v>
       </c>
       <c r="I23" s="7">
-        <v>3457032</v>
+        <v>378624</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>271</v>
+        <v>381</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>216</v>
+        <v>382</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>340</v>
+        <v>221</v>
       </c>
       <c r="M23" s="7">
-        <v>6405</v>
+        <v>576</v>
       </c>
       <c r="N23" s="7">
-        <v>6762271</v>
+        <v>627539</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>257</v>
+        <v>383</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>341</v>
+        <v>384</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>342</v>
+        <v>385</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -5316,63 +5811,219 @@
         <v>3</v>
       </c>
       <c r="C24" s="7">
+        <v>302</v>
+      </c>
+      <c r="D24" s="7">
+        <v>256998</v>
+      </c>
+      <c r="E24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H24" s="7">
+        <v>301</v>
+      </c>
+      <c r="I24" s="7">
+        <v>400169</v>
+      </c>
+      <c r="J24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M24" s="7">
+        <v>603</v>
+      </c>
+      <c r="N24" s="7">
+        <v>657167</v>
+      </c>
+      <c r="O24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q24" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A25" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C25" s="7">
+        <v>87</v>
+      </c>
+      <c r="D25" s="7">
+        <v>89111</v>
+      </c>
+      <c r="E25" s="7" t="s">
+        <v>386</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="G25" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="H25" s="7">
+        <v>77</v>
+      </c>
+      <c r="I25" s="7">
+        <v>87510</v>
+      </c>
+      <c r="J25" s="7" t="s">
+        <v>294</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>387</v>
+      </c>
+      <c r="L25" s="7" t="s">
+        <v>228</v>
+      </c>
+      <c r="M25" s="7">
+        <v>164</v>
+      </c>
+      <c r="N25" s="7">
+        <v>176621</v>
+      </c>
+      <c r="O25" s="7" t="s">
+        <v>279</v>
+      </c>
+      <c r="P25" s="7" t="s">
+        <v>388</v>
+      </c>
+      <c r="Q25" s="7" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A26" s="1"/>
+      <c r="B26" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C26" s="7">
+        <v>3144</v>
+      </c>
+      <c r="D26" s="7">
+        <v>3305239</v>
+      </c>
+      <c r="E26" s="7" t="s">
+        <v>390</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="G26" s="7" t="s">
+        <v>173</v>
+      </c>
+      <c r="H26" s="7">
+        <v>3261</v>
+      </c>
+      <c r="I26" s="7">
+        <v>3457032</v>
+      </c>
+      <c r="J26" s="7" t="s">
+        <v>302</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>235</v>
+      </c>
+      <c r="L26" s="7" t="s">
+        <v>391</v>
+      </c>
+      <c r="M26" s="7">
+        <v>6405</v>
+      </c>
+      <c r="N26" s="7">
+        <v>6762271</v>
+      </c>
+      <c r="O26" s="7" t="s">
+        <v>288</v>
+      </c>
+      <c r="P26" s="7" t="s">
+        <v>392</v>
+      </c>
+      <c r="Q26" s="7" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A27" s="1"/>
+      <c r="B27" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C27" s="7">
         <v>3231</v>
       </c>
-      <c r="D24" s="7">
+      <c r="D27" s="7">
         <v>3394350</v>
       </c>
-      <c r="E24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H24" s="7">
+      <c r="E27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H27" s="7">
         <v>3338</v>
       </c>
-      <c r="I24" s="7">
+      <c r="I27" s="7">
         <v>3544542</v>
       </c>
-      <c r="J24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="K24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="M24" s="7">
+      <c r="J27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M27" s="7">
         <v>6569</v>
       </c>
-      <c r="N24" s="7">
+      <c r="N27" s="7">
         <v>6938892</v>
       </c>
-      <c r="O24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="P24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
-        <v>140</v>
+      <c r="O27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q27" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>159</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
     <mergeCell ref="A19:A21"/>
     <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A25:A27"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -5385,8 +6036,8 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A189B344-A255-48D9-9B76-0732CCE9163D}">
-  <dimension ref="A1:Q25"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{51C0C079-0D13-46F1-8178-092308EC10C8}">
+  <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -5402,7 +6053,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>343</v>
+        <v>394</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5506,46 +6157,46 @@
         <v>3</v>
       </c>
       <c r="D4" s="7">
-        <v>8376</v>
+        <v>7814</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>344</v>
+        <v>54</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>345</v>
+        <v>282</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>346</v>
+        <v>395</v>
       </c>
       <c r="H4" s="7">
         <v>4</v>
       </c>
       <c r="I4" s="7">
-        <v>10201</v>
+        <v>8826</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>234</v>
+        <v>76</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>295</v>
+        <v>396</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>347</v>
+        <v>397</v>
       </c>
       <c r="M4" s="7">
         <v>7</v>
       </c>
       <c r="N4" s="7">
-        <v>18578</v>
+        <v>16640</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>348</v>
+        <v>398</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>15</v>
+        <v>55</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>349</v>
+        <v>399</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5557,46 +6208,46 @@
         <v>169</v>
       </c>
       <c r="D5" s="7">
-        <v>369303</v>
+        <v>392173</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>350</v>
+        <v>63</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>351</v>
+        <v>400</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>352</v>
+        <v>290</v>
       </c>
       <c r="H5" s="7">
         <v>203</v>
       </c>
       <c r="I5" s="7">
-        <v>344756</v>
+        <v>304374</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>240</v>
+        <v>85</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>353</v>
+        <v>401</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>303</v>
+        <v>402</v>
       </c>
       <c r="M5" s="7">
         <v>372</v>
       </c>
       <c r="N5" s="7">
-        <v>714058</v>
+        <v>696547</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>354</v>
+        <v>403</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>355</v>
+        <v>404</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>26</v>
+        <v>65</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5608,7 +6259,7 @@
         <v>172</v>
       </c>
       <c r="D6" s="7">
-        <v>377679</v>
+        <v>399987</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>30</v>
@@ -5623,7 +6274,7 @@
         <v>207</v>
       </c>
       <c r="I6" s="7">
-        <v>354957</v>
+        <v>313200</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>30</v>
@@ -5638,7 +6289,7 @@
         <v>379</v>
       </c>
       <c r="N6" s="7">
-        <v>732636</v>
+        <v>713187</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>30</v>
@@ -5661,46 +6312,46 @@
         <v>10</v>
       </c>
       <c r="D7" s="7">
-        <v>12406</v>
+        <v>11758</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>309</v>
+        <v>145</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>356</v>
+        <v>405</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>357</v>
+        <v>406</v>
       </c>
       <c r="H7" s="7">
         <v>5</v>
       </c>
       <c r="I7" s="7">
-        <v>5648</v>
+        <v>5049</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>358</v>
+        <v>323</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>359</v>
+        <v>407</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>360</v>
+        <v>408</v>
       </c>
       <c r="M7" s="7">
         <v>15</v>
       </c>
       <c r="N7" s="7">
-        <v>18054</v>
+        <v>16808</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>54</v>
+        <v>409</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>109</v>
+        <v>410</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>18</v>
+        <v>411</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5712,46 +6363,46 @@
         <v>292</v>
       </c>
       <c r="D8" s="7">
-        <v>415990</v>
+        <v>411789</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>316</v>
+        <v>153</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>361</v>
+        <v>412</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>362</v>
+        <v>413</v>
       </c>
       <c r="H8" s="7">
         <v>455</v>
       </c>
       <c r="I8" s="7">
-        <v>492929</v>
+        <v>506455</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>363</v>
+        <v>333</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>364</v>
+        <v>414</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>365</v>
+        <v>415</v>
       </c>
       <c r="M8" s="7">
         <v>747</v>
       </c>
       <c r="N8" s="7">
-        <v>908919</v>
+        <v>918243</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>63</v>
+        <v>416</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>29</v>
+        <v>417</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>117</v>
+        <v>418</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5763,7 +6414,7 @@
         <v>302</v>
       </c>
       <c r="D9" s="7">
-        <v>428396</v>
+        <v>423547</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>30</v>
@@ -5778,7 +6429,7 @@
         <v>460</v>
       </c>
       <c r="I9" s="7">
-        <v>498577</v>
+        <v>511504</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -5793,7 +6444,7 @@
         <v>762</v>
       </c>
       <c r="N9" s="7">
-        <v>926973</v>
+        <v>935051</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -5816,46 +6467,46 @@
         <v>10</v>
       </c>
       <c r="D10" s="7">
-        <v>10683</v>
+        <v>10172</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>268</v>
+        <v>346</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>292</v>
+        <v>323</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>366</v>
+        <v>419</v>
       </c>
       <c r="H10" s="7">
         <v>15</v>
       </c>
       <c r="I10" s="7">
-        <v>9914</v>
+        <v>9319</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>279</v>
+        <v>420</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>367</v>
+        <v>421</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>368</v>
+        <v>422</v>
       </c>
       <c r="M10" s="7">
         <v>25</v>
       </c>
       <c r="N10" s="7">
-        <v>20597</v>
+        <v>19491</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>369</v>
+        <v>423</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>370</v>
+        <v>347</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>126</v>
+        <v>424</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5867,46 +6518,46 @@
         <v>536</v>
       </c>
       <c r="D11" s="7">
-        <v>546569</v>
+        <v>526166</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>276</v>
+        <v>354</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>371</v>
+        <v>425</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>301</v>
+        <v>333</v>
       </c>
       <c r="H11" s="7">
         <v>831</v>
       </c>
       <c r="I11" s="7">
-        <v>573562</v>
+        <v>533149</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>286</v>
+        <v>426</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>372</v>
+        <v>427</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>373</v>
+        <v>428</v>
       </c>
       <c r="M11" s="7">
         <v>1367</v>
       </c>
       <c r="N11" s="7">
-        <v>1120130</v>
+        <v>1059315</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>374</v>
+        <v>429</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>134</v>
+        <v>430</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>375</v>
+        <v>355</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5918,7 +6569,7 @@
         <v>546</v>
       </c>
       <c r="D12" s="7">
-        <v>557252</v>
+        <v>536338</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>30</v>
@@ -5933,7 +6584,7 @@
         <v>846</v>
       </c>
       <c r="I12" s="7">
-        <v>583476</v>
+        <v>542468</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -5948,7 +6599,7 @@
         <v>1392</v>
       </c>
       <c r="N12" s="7">
-        <v>1140727</v>
+        <v>1078806</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -5971,46 +6622,46 @@
         <v>19</v>
       </c>
       <c r="D13" s="7">
-        <v>23046</v>
+        <v>21618</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>195</v>
+        <v>92</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>183</v>
+        <v>410</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>376</v>
+        <v>78</v>
       </c>
       <c r="H13" s="7">
         <v>19</v>
       </c>
       <c r="I13" s="7">
-        <v>12802</v>
+        <v>11668</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>377</v>
+        <v>229</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>378</v>
+        <v>55</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>368</v>
+        <v>431</v>
       </c>
       <c r="M13" s="7">
         <v>38</v>
       </c>
       <c r="N13" s="7">
-        <v>35848</v>
+        <v>33286</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>92</v>
+        <v>432</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>36</v>
+        <v>433</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>379</v>
+        <v>434</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -6022,46 +6673,46 @@
         <v>646</v>
       </c>
       <c r="D14" s="7">
-        <v>700944</v>
+        <v>866168</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>202</v>
+        <v>101</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>380</v>
+        <v>86</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>190</v>
+        <v>418</v>
       </c>
       <c r="H14" s="7">
         <v>1122</v>
       </c>
       <c r="I14" s="7">
-        <v>734459</v>
+        <v>701213</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>381</v>
+        <v>237</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>372</v>
+        <v>435</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>382</v>
+        <v>65</v>
       </c>
       <c r="M14" s="7">
         <v>1768</v>
       </c>
       <c r="N14" s="7">
-        <v>1435404</v>
+        <v>1567381</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>101</v>
+        <v>436</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>383</v>
+        <v>437</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>46</v>
+        <v>438</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -6073,7 +6724,7 @@
         <v>665</v>
       </c>
       <c r="D15" s="7">
-        <v>723990</v>
+        <v>887786</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>30</v>
@@ -6088,7 +6739,7 @@
         <v>1141</v>
       </c>
       <c r="I15" s="7">
-        <v>747261</v>
+        <v>712881</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -6103,7 +6754,7 @@
         <v>1806</v>
       </c>
       <c r="N15" s="7">
-        <v>1471252</v>
+        <v>1600667</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
@@ -6126,46 +6777,46 @@
         <v>9</v>
       </c>
       <c r="D16" s="7">
-        <v>7084</v>
+        <v>6603</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>384</v>
+        <v>115</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>385</v>
+        <v>439</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>178</v>
+        <v>146</v>
       </c>
       <c r="H16" s="7">
         <v>22</v>
       </c>
       <c r="I16" s="7">
-        <v>14129</v>
+        <v>12916</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>281</v>
+        <v>440</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>310</v>
+        <v>441</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>386</v>
+        <v>442</v>
       </c>
       <c r="M16" s="7">
         <v>31</v>
       </c>
       <c r="N16" s="7">
-        <v>21213</v>
+        <v>19518</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>387</v>
+        <v>443</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>388</v>
+        <v>93</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>389</v>
+        <v>444</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -6177,46 +6828,46 @@
         <v>654</v>
       </c>
       <c r="D17" s="7">
-        <v>593073</v>
+        <v>554631</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>390</v>
+        <v>125</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>185</v>
+        <v>155</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>391</v>
+        <v>445</v>
       </c>
       <c r="H17" s="7">
         <v>980</v>
       </c>
       <c r="I17" s="7">
-        <v>582934</v>
+        <v>534989</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>288</v>
+        <v>446</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>392</v>
+        <v>447</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>318</v>
+        <v>448</v>
       </c>
       <c r="M17" s="7">
         <v>1634</v>
       </c>
       <c r="N17" s="7">
-        <v>1176007</v>
+        <v>1089621</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>393</v>
+        <v>449</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>394</v>
+        <v>450</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>395</v>
+        <v>103</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -6228,7 +6879,7 @@
         <v>663</v>
       </c>
       <c r="D18" s="7">
-        <v>600157</v>
+        <v>561234</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>30</v>
@@ -6243,7 +6894,7 @@
         <v>1002</v>
       </c>
       <c r="I18" s="7">
-        <v>597063</v>
+        <v>547905</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>30</v>
@@ -6258,7 +6909,7 @@
         <v>1665</v>
       </c>
       <c r="N18" s="7">
-        <v>1197220</v>
+        <v>1109139</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>30</v>
@@ -6278,49 +6929,49 @@
         <v>10</v>
       </c>
       <c r="C19" s="7">
-        <v>28</v>
+        <v>11</v>
       </c>
       <c r="D19" s="7">
-        <v>15302</v>
+        <v>6376</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>396</v>
+        <v>451</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>397</v>
+        <v>452</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>129</v>
+        <v>143</v>
       </c>
       <c r="H19" s="7">
-        <v>93</v>
+        <v>36</v>
       </c>
       <c r="I19" s="7">
-        <v>47251</v>
+        <v>16762</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>398</v>
+        <v>270</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>399</v>
+        <v>453</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>400</v>
+        <v>454</v>
       </c>
       <c r="M19" s="7">
-        <v>121</v>
+        <v>47</v>
       </c>
       <c r="N19" s="7">
-        <v>62553</v>
+        <v>23138</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>401</v>
+        <v>312</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>402</v>
+        <v>455</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>403</v>
+        <v>456</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -6329,49 +6980,49 @@
         <v>20</v>
       </c>
       <c r="C20" s="7">
-        <v>1000</v>
+        <v>559</v>
       </c>
       <c r="D20" s="7">
-        <v>682452</v>
+        <v>361789</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>404</v>
+        <v>457</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>137</v>
+        <v>152</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>405</v>
+        <v>458</v>
       </c>
       <c r="H20" s="7">
-        <v>1615</v>
+        <v>791</v>
       </c>
       <c r="I20" s="7">
-        <v>979386</v>
+        <v>591606</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>406</v>
+        <v>275</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>407</v>
+        <v>459</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>408</v>
+        <v>460</v>
       </c>
       <c r="M20" s="7">
-        <v>2615</v>
+        <v>1350</v>
       </c>
       <c r="N20" s="7">
-        <v>1661839</v>
+        <v>953395</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>409</v>
+        <v>319</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>410</v>
+        <v>461</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>411</v>
+        <v>462</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -6380,10 +7031,10 @@
         <v>3</v>
       </c>
       <c r="C21" s="7">
-        <v>1028</v>
+        <v>570</v>
       </c>
       <c r="D21" s="7">
-        <v>697754</v>
+        <v>368165</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>30</v>
@@ -6395,10 +7046,10 @@
         <v>30</v>
       </c>
       <c r="H21" s="7">
-        <v>1708</v>
+        <v>827</v>
       </c>
       <c r="I21" s="7">
-        <v>1026637</v>
+        <v>608368</v>
       </c>
       <c r="J21" s="7" t="s">
         <v>30</v>
@@ -6410,10 +7061,10 @@
         <v>30</v>
       </c>
       <c r="M21" s="7">
-        <v>2736</v>
+        <v>1397</v>
       </c>
       <c r="N21" s="7">
-        <v>1724392</v>
+        <v>976533</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>30</v>
@@ -6427,55 +7078,55 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>3</v>
+        <v>126</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C22" s="7">
-        <v>79</v>
+        <v>17</v>
       </c>
       <c r="D22" s="7">
-        <v>76897</v>
+        <v>8589</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>178</v>
+        <v>463</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>412</v>
+        <v>310</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>184</v>
+        <v>464</v>
       </c>
       <c r="H22" s="7">
-        <v>158</v>
+        <v>57</v>
       </c>
       <c r="I22" s="7">
-        <v>99945</v>
+        <v>26946</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>413</v>
+        <v>465</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>414</v>
+        <v>466</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>415</v>
+        <v>467</v>
       </c>
       <c r="M22" s="7">
-        <v>237</v>
+        <v>74</v>
       </c>
       <c r="N22" s="7">
-        <v>176842</v>
+        <v>35535</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>416</v>
+        <v>468</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>417</v>
+        <v>469</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>418</v>
+        <v>258</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -6484,49 +7135,49 @@
         <v>20</v>
       </c>
       <c r="C23" s="7">
-        <v>3297</v>
+        <v>441</v>
       </c>
       <c r="D23" s="7">
-        <v>3308331</v>
+        <v>274170</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>185</v>
+        <v>470</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>191</v>
+        <v>471</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>419</v>
+        <v>317</v>
       </c>
       <c r="H23" s="7">
-        <v>5206</v>
+        <v>824</v>
       </c>
       <c r="I23" s="7">
-        <v>3708027</v>
+        <v>398885</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>420</v>
+        <v>472</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>421</v>
+        <v>473</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>422</v>
+        <v>474</v>
       </c>
       <c r="M23" s="7">
-        <v>8503</v>
+        <v>1265</v>
       </c>
       <c r="N23" s="7">
-        <v>7016358</v>
+        <v>673055</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>423</v>
+        <v>475</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>424</v>
+        <v>265</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>425</v>
+        <v>476</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -6535,63 +7186,219 @@
         <v>3</v>
       </c>
       <c r="C24" s="7">
+        <v>458</v>
+      </c>
+      <c r="D24" s="7">
+        <v>282759</v>
+      </c>
+      <c r="E24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H24" s="7">
+        <v>881</v>
+      </c>
+      <c r="I24" s="7">
+        <v>425831</v>
+      </c>
+      <c r="J24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M24" s="7">
+        <v>1339</v>
+      </c>
+      <c r="N24" s="7">
+        <v>708590</v>
+      </c>
+      <c r="O24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q24" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A25" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C25" s="7">
+        <v>79</v>
+      </c>
+      <c r="D25" s="7">
+        <v>72930</v>
+      </c>
+      <c r="E25" s="7" t="s">
+        <v>342</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>477</v>
+      </c>
+      <c r="G25" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="H25" s="7">
+        <v>158</v>
+      </c>
+      <c r="I25" s="7">
+        <v>91486</v>
+      </c>
+      <c r="J25" s="7" t="s">
+        <v>444</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>478</v>
+      </c>
+      <c r="L25" s="7" t="s">
+        <v>479</v>
+      </c>
+      <c r="M25" s="7">
+        <v>237</v>
+      </c>
+      <c r="N25" s="7">
+        <v>164416</v>
+      </c>
+      <c r="O25" s="7" t="s">
+        <v>480</v>
+      </c>
+      <c r="P25" s="7" t="s">
+        <v>481</v>
+      </c>
+      <c r="Q25" s="7" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A26" s="1"/>
+      <c r="B26" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C26" s="7">
+        <v>3297</v>
+      </c>
+      <c r="D26" s="7">
+        <v>3386887</v>
+      </c>
+      <c r="E26" s="7" t="s">
+        <v>349</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="G26" s="7" t="s">
+        <v>482</v>
+      </c>
+      <c r="H26" s="7">
+        <v>5206</v>
+      </c>
+      <c r="I26" s="7">
+        <v>3570671</v>
+      </c>
+      <c r="J26" s="7" t="s">
+        <v>450</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>483</v>
+      </c>
+      <c r="L26" s="7" t="s">
+        <v>484</v>
+      </c>
+      <c r="M26" s="7">
+        <v>8503</v>
+      </c>
+      <c r="N26" s="7">
+        <v>6957558</v>
+      </c>
+      <c r="O26" s="7" t="s">
+        <v>485</v>
+      </c>
+      <c r="P26" s="7" t="s">
+        <v>305</v>
+      </c>
+      <c r="Q26" s="7" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A27" s="1"/>
+      <c r="B27" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C27" s="7">
         <v>3376</v>
       </c>
-      <c r="D24" s="7">
-        <v>3385228</v>
-      </c>
-      <c r="E24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H24" s="7">
+      <c r="D27" s="7">
+        <v>3459817</v>
+      </c>
+      <c r="E27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H27" s="7">
         <v>5364</v>
       </c>
-      <c r="I24" s="7">
-        <v>3807972</v>
-      </c>
-      <c r="J24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="K24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="M24" s="7">
+      <c r="I27" s="7">
+        <v>3662157</v>
+      </c>
+      <c r="J27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M27" s="7">
         <v>8740</v>
       </c>
-      <c r="N24" s="7">
-        <v>7193200</v>
-      </c>
-      <c r="O24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="P24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
-        <v>140</v>
+      <c r="N27" s="7">
+        <v>7121974</v>
+      </c>
+      <c r="O27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q27" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>159</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
     <mergeCell ref="A19:A21"/>
     <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A25:A27"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
